--- a/output/oof_predictions.xlsx
+++ b/output/oof_predictions.xlsx
@@ -15586,6467 +15586,6467 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.697129487991333</v>
+        <v>0.01742303371429443</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.8577624559402466</v>
+        <v>0.4672009944915771</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.6505287289619446</v>
+        <v>0.7767406105995178</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.7636659145355225</v>
+        <v>0.8350707292556763</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1573067158460617</v>
+        <v>1.109747409820557</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.4582030773162842</v>
+        <v>0.3380366861820221</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.062745451927185</v>
+        <v>0.3968701362609863</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.3088123202323914</v>
+        <v>1.075637698173523</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.1168485209345818</v>
+        <v>0.4120272397994995</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.2096102237701416</v>
+        <v>0.1800912916660309</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.8445103168487549</v>
+        <v>0.7145441174507141</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.1276625245809555</v>
+        <v>0.2800676822662354</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.5861284732818604</v>
+        <v>0.6878494024276733</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.9338538646697998</v>
+        <v>0.2024954110383987</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.261194109916687</v>
+        <v>0.6374021768569946</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.2315387725830078</v>
+        <v>0.8121750950813293</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.6165933609008789</v>
+        <v>0.706509530544281</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.6672155857086182</v>
+        <v>0.7125392556190491</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.7256799936294556</v>
+        <v>0.5424376726150513</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.2233030796051025</v>
+        <v>0.2392943799495697</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.3605420887470245</v>
+        <v>1.199864029884338</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.1179261356592178</v>
+        <v>1.605054974555969</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-0.04284672439098358</v>
+        <v>0.504831850528717</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.4513375163078308</v>
+        <v>0.2657248079776764</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.6561514139175415</v>
+        <v>0.3532710075378418</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.5488964319229126</v>
+        <v>0.5671411156654358</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.4825800955295563</v>
+        <v>0.3552400469779968</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.6840143799781799</v>
+        <v>0.8740508556365967</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.5909213423728943</v>
+        <v>0.1515395045280457</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.2799769043922424</v>
+        <v>0.7405676245689392</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.7902546525001526</v>
+        <v>0.9212921857833862</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.2137239724397659</v>
+        <v>0.2507655620574951</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.5799773931503296</v>
+        <v>0.3724821209907532</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.8751339316368103</v>
+        <v>0.8023333549499512</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.1844066381454468</v>
+        <v>0.5122517943382263</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.3083883225917816</v>
+        <v>-0.09162639826536179</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.7941099405288696</v>
+        <v>0.589891791343689</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.4616859555244446</v>
+        <v>0.398297905921936</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.1299261003732681</v>
+        <v>0.6825734376907349</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.3802352249622345</v>
+        <v>0.2675095498561859</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.4276168346405029</v>
+        <v>0.2789360284805298</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.7707954049110413</v>
+        <v>0.5587303638458252</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.5436400771141052</v>
+        <v>0.9867198467254639</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.051905870437622</v>
+        <v>0.196389377117157</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.6397076845169067</v>
+        <v>1.310156226158142</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.5827057957649231</v>
+        <v>0.6976537704467773</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.3483964204788208</v>
+        <v>1.122213125228882</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.1281408071517944</v>
+        <v>0.8474310636520386</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.5016689300537109</v>
+        <v>0.5335893630981445</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.8745189905166626</v>
+        <v>0.4255127310752869</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.8142417073249817</v>
+        <v>0.3750967085361481</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.9379388689994812</v>
+        <v>0.8231220245361328</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.6695013046264648</v>
+        <v>0.1371473222970963</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.044675827026367</v>
+        <v>0.5224471688270569</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.789649486541748</v>
+        <v>0.6431717872619629</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.7075390219688416</v>
+        <v>0.350145697593689</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.8741809725761414</v>
+        <v>0.4232965707778931</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.4302969872951508</v>
+        <v>0.203461080789566</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.2841879725456238</v>
+        <v>0.5197466611862183</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.4937243759632111</v>
+        <v>0.7566959261894226</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.2176787108182907</v>
+        <v>0.4252407550811768</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.1400459408760071</v>
+        <v>0.9253937005996704</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.3443371057510376</v>
+        <v>0.1766637563705444</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.9200634956359863</v>
+        <v>0.145073413848877</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.2778959274291992</v>
+        <v>1.14917516708374</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.5090241432189941</v>
+        <v>0.2634636461734772</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.7362942695617676</v>
+        <v>0.553366482257843</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.2081227898597717</v>
+        <v>0.6080792546272278</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.4880011677742004</v>
+        <v>0.3336726427078247</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.2004237323999405</v>
+        <v>0.6354963779449463</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.2952188849449158</v>
+        <v>0.9625810980796814</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.367875725030899</v>
+        <v>0.5274173021316528</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.1720949709415436</v>
+        <v>0.4840595126152039</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.2347273081541061</v>
+        <v>0.3030797243118286</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.3461031913757324</v>
+        <v>0.4792895615100861</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.7395939230918884</v>
+        <v>0.6264070272445679</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.3733236193656921</v>
+        <v>0.8702501058578491</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.4932910203933716</v>
+        <v>0.8214809894561768</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.492950439453125</v>
+        <v>1.0406653881073</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.0814487636089325</v>
+        <v>0.5443786382675171</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.3544969260692596</v>
+        <v>0.5209130048751831</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.8543209433555603</v>
+        <v>0.7503721714019775</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.3796332776546478</v>
+        <v>0.3889848589897156</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.5384334921836853</v>
+        <v>0.3842868804931641</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.3528198599815369</v>
+        <v>0.4901895225048065</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.4920291900634766</v>
+        <v>0.5770902633666992</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.8380948901176453</v>
+        <v>0.5114373564720154</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.6081506013870239</v>
+        <v>0.8623507022857666</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.06492498517036438</v>
+        <v>0.3693830370903015</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.8296699523925781</v>
+        <v>0.4865553975105286</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.07209913432598114</v>
+        <v>0.7882170677185059</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.2425086349248886</v>
+        <v>0.1595804244279861</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.8123972415924072</v>
+        <v>0.7998694181442261</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.06496097892522812</v>
+        <v>0.1457426846027374</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.6605333089828491</v>
+        <v>0.1453802436590195</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.10081996768713</v>
+        <v>0.204687312245369</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.2702988684177399</v>
+        <v>0.6206167340278625</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1.01844596862793</v>
+        <v>0.8863226175308228</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.173599898815155</v>
+        <v>0.2067982405424118</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.6844946146011353</v>
+        <v>0.1214976161718369</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.4906322658061981</v>
+        <v>0.5368368029594421</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.7528030872344971</v>
+        <v>0.909818708896637</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.7035188674926758</v>
+        <v>0.3909662961959839</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.1182585656642914</v>
+        <v>-0.01173369586467743</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.2933136820793152</v>
+        <v>0.6311562061309814</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.1984898895025253</v>
+        <v>0.3330485224723816</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.4331496357917786</v>
+        <v>0.478784441947937</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.2397792488336563</v>
+        <v>0.7492792010307312</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.5806406736373901</v>
+        <v>0.234648197889328</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.6786262989044189</v>
+        <v>0.1563389599323273</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.2837884426116943</v>
+        <v>0.2625913023948669</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.3783780038356781</v>
+        <v>0.1749823242425919</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.7547410726547241</v>
+        <v>0.4324218034744263</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.3438118100166321</v>
+        <v>0.3132611513137817</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.3046051263809204</v>
+        <v>0.7288681864738464</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.7094523906707764</v>
+        <v>1.279856443405151</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.5666741728782654</v>
+        <v>-0.022257000207901</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>1.01889967918396</v>
+        <v>0.6633731126785278</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.4367145895957947</v>
+        <v>0.2697810530662537</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.2745893001556396</v>
+        <v>0.3167605698108673</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.1144495010375977</v>
+        <v>0.3328944742679596</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.4710275828838348</v>
+        <v>0.273590087890625</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.2301564514636993</v>
+        <v>0.5194980502128601</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.2915301918983459</v>
+        <v>0.7317971587181091</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.9188336730003357</v>
+        <v>-0.07086793333292007</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>1.188763856887817</v>
+        <v>0.3449265360832214</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.1733892410993576</v>
+        <v>0.2017515599727631</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.8775824308395386</v>
+        <v>0.509917676448822</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.2713330984115601</v>
+        <v>0.1165425702929497</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.9383881092071533</v>
+        <v>0.4617513418197632</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.3891404867172241</v>
+        <v>-0.6041282415390015</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.3140300810337067</v>
+        <v>0.3696994483470917</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.8353934288024902</v>
+        <v>0.8498841524124146</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.2857180237770081</v>
+        <v>0.7186329960823059</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.5343303680419922</v>
+        <v>0.07766400277614594</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.4423094987869263</v>
+        <v>0.1939530372619629</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.431688517332077</v>
+        <v>0.5396975874900818</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.1521594226360321</v>
+        <v>0.2421394437551498</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.7227945923805237</v>
+        <v>0.3708129525184631</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.5384824275970459</v>
+        <v>0.9994672536849976</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.2661126255989075</v>
+        <v>0.6616860032081604</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.326334536075592</v>
+        <v>0.03021292388439178</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.1182534694671631</v>
+        <v>0.1817919909954071</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.1009911596775055</v>
+        <v>1.110183954238892</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.06832630932331085</v>
+        <v>0.6715480089187622</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1.044868946075439</v>
+        <v>0.3117509484291077</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.2338634878396988</v>
+        <v>0.793168842792511</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.73404461145401</v>
+        <v>0.8198280930519104</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.8431729674339294</v>
+        <v>0.4620003998279572</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.2643032670021057</v>
+        <v>0.4098643362522125</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.9038641452789307</v>
+        <v>0.7064093351364136</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.269505500793457</v>
+        <v>0.3511785864830017</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0.5232056379318237</v>
+        <v>1.034932017326355</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.9746403694152832</v>
+        <v>0.2089651823043823</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0.3071014583110809</v>
+        <v>0.3124666512012482</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0.7118428945541382</v>
+        <v>0.6890140175819397</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0.2042010426521301</v>
+        <v>0.702862024307251</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.3567266464233398</v>
+        <v>0.3684490919113159</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.8341503739356995</v>
+        <v>0.3841426372528076</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0.6121936440467834</v>
+        <v>0.4053144454956055</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0.8166376352310181</v>
+        <v>0.62632155418396</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.2178609371185303</v>
+        <v>0.3122037053108215</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.4932910203933716</v>
+        <v>0.6384941935539246</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.8902596831321716</v>
+        <v>0.7142416834831238</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>1.122833967208862</v>
+        <v>0.2534577250480652</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>-0.06418606638908386</v>
+        <v>0.2671219110488892</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.9301853179931641</v>
+        <v>0.2170558124780655</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0.48833829164505</v>
+        <v>-0.0779421254992485</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.4212181568145752</v>
+        <v>0.5415010452270508</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0.8293551802635193</v>
+        <v>0.240330696105957</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0.7224236726760864</v>
+        <v>0.740067183971405</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.1642434597015381</v>
+        <v>0.1650380194187164</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0.3916459381580353</v>
+        <v>0.6803208589553833</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.2185544669628143</v>
+        <v>0.6869235634803772</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0.1960504651069641</v>
+        <v>0.3720024824142456</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0.2732414603233337</v>
+        <v>0.143238753080368</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.4712587594985962</v>
+        <v>0.4863706827163696</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.1830980181694031</v>
+        <v>0.5572230815887451</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.4226841032505035</v>
+        <v>0.5044370889663696</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0.3697527050971985</v>
+        <v>0.7753401398658752</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0.3064747452735901</v>
+        <v>0.1716554462909698</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0.4712649881839752</v>
+        <v>0.1139803528785706</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0.261550098657608</v>
+        <v>0.6546832323074341</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0.5773648023605347</v>
+        <v>0.5194616317749023</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.8379709124565125</v>
+        <v>0.328110009431839</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0.2701513767242432</v>
+        <v>0.1720805466175079</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>1.035958647727966</v>
+        <v>0.1687886565923691</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>0.2368088960647583</v>
+        <v>1.056915163993835</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0.5158394575119019</v>
+        <v>0.9536927342414856</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>1.008805394172668</v>
+        <v>0.8231863975524902</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>0.3047705590724945</v>
+        <v>0.2601927518844604</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0.2533498704433441</v>
+        <v>3.605481624603271</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0.3889502286911011</v>
+        <v>0.4732097983360291</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0.8031499981880188</v>
+        <v>0.2264394015073776</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0.4588340818881989</v>
+        <v>0.535213828086853</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0.8087959289550781</v>
+        <v>0.1622034907341003</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0.05193782597780228</v>
+        <v>0.4290928244590759</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0.3542112708091736</v>
+        <v>0.02825352549552917</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>0.5135190486907959</v>
+        <v>1.313690900802612</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>0.5584848523139954</v>
+        <v>0.8778976798057556</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>0.2213378250598907</v>
+        <v>0.8503351807594299</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>0.4471577405929565</v>
+        <v>0.2136553078889847</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>0.6963050365447998</v>
+        <v>0.6164091825485229</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>0.3801711201667786</v>
+        <v>0.316332221031189</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>0.2665249407291412</v>
+        <v>0.05740007758140564</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>0.2111664712429047</v>
+        <v>0.3570393919944763</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>0.3953980505466461</v>
+        <v>0.5521763563156128</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>0.8949825763702393</v>
+        <v>0.8255192041397095</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>0.2722893953323364</v>
+        <v>0.5074968934059143</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>0.2805768847465515</v>
+        <v>0.9840378165245056</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>0.8980157375335693</v>
+        <v>0.4560149312019348</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>0.4881035685539246</v>
+        <v>0.8772047758102417</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>0.5523225665092468</v>
+        <v>0.4129090905189514</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>0.110903188586235</v>
+        <v>1.019724369049072</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>0.6024154424667358</v>
+        <v>0.1645848006010056</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>0.1363462656736374</v>
+        <v>0.1663128435611725</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>0.5915005207061768</v>
+        <v>0.1176203489303589</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>1.096698522567749</v>
+        <v>0.6136162877082825</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>0.2522608041763306</v>
+        <v>1.045856475830078</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>0.9374290704727173</v>
+        <v>0.8450928926467896</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>0.6926497220993042</v>
+        <v>0.3189540207386017</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>0.7915717959403992</v>
+        <v>0.1830142736434937</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>0.8837881088256836</v>
+        <v>0.4236019849777222</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>0.5663763880729675</v>
+        <v>0.6712349057197571</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>0.2617400586605072</v>
+        <v>0.4228628873825073</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>0.9130464792251587</v>
+        <v>0.3843945860862732</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>0.6299858093261719</v>
+        <v>0.8055815696716309</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>0.09862946718931198</v>
+        <v>0.6184540390968323</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>0.3675025701522827</v>
+        <v>0.2739666104316711</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>0.473350316286087</v>
+        <v>-3.408295631408691</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>0.2277218997478485</v>
+        <v>0.8354236483573914</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>0.3712735772132874</v>
+        <v>0.6957076787948608</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>0.5333362817764282</v>
+        <v>0.5391272306442261</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>0.5077584981918335</v>
+        <v>-0.06795399636030197</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>0.2423584014177322</v>
+        <v>0.8926398754119873</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>0.9208047389984131</v>
+        <v>0.3164641857147217</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>0.3666942417621613</v>
+        <v>0.5834891200065613</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>0.6408172249794006</v>
+        <v>0.5341626405715942</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>0.1288597285747528</v>
+        <v>0.3258441090583801</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>0.3257918953895569</v>
+        <v>0.5761914253234863</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>0.7679835557937622</v>
+        <v>0.772891104221344</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>1.148584842681885</v>
+        <v>0.3918575048446655</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>0.6355753540992737</v>
+        <v>0.2137327790260315</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>1.008813977241516</v>
+        <v>0.2107774913311005</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>0.3594690561294556</v>
+        <v>0.3880533576011658</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>0.6452319025993347</v>
+        <v>0.7105019092559814</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>0.6158002614974976</v>
+        <v>0.406103789806366</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>1.117264747619629</v>
+        <v>0.3275759816169739</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>0.1696866303682327</v>
+        <v>0.9044581651687622</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>0.3014646768569946</v>
+        <v>0.9427686929702759</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>0.2758097052574158</v>
+        <v>0.6329470872879028</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>0.5355701446533203</v>
+        <v>0.4405935406684875</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>0.271738588809967</v>
+        <v>-0.1722358912229538</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>0.2908238172531128</v>
+        <v>0.8479354381561279</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>0.2844433784484863</v>
+        <v>0.371249258518219</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>0.08223778009414673</v>
+        <v>0.4921222329139709</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>0.690912663936615</v>
+        <v>0.8210140466690063</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>0.6172662377357483</v>
+        <v>0.8191472291946411</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>0.878441333770752</v>
+        <v>0.5504167079925537</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>0.7039378881454468</v>
+        <v>0.5383045077323914</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>-0.02599441260099411</v>
+        <v>0.3773240447044373</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>0.5139820575714111</v>
+        <v>0.7620481848716736</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>1.047157168388367</v>
+        <v>0.2126756459474564</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>-0.03018085658550262</v>
+        <v>0.598605751991272</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>0.6311723589897156</v>
+        <v>0.4157901406288147</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>0.3050456643104553</v>
+        <v>0.4466694593429565</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>0.02308076992630959</v>
+        <v>0.07953079044818878</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>0.4928169250488281</v>
+        <v>0.1943008303642273</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>0.6917749643325806</v>
+        <v>0.1942457854747772</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>0.3239539861679077</v>
+        <v>0.4209150671958923</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>0.5128802061080933</v>
+        <v>1.215502738952637</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>0.5146286487579346</v>
+        <v>0.8835951685905457</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>0.5481481552124023</v>
+        <v>0.05731844902038574</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>0.8806601166725159</v>
+        <v>0.9350365996360779</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>0.1229697838425636</v>
+        <v>0.3920223116874695</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>0.7819680571556091</v>
+        <v>0.4857033491134644</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>0.246406614780426</v>
+        <v>0.1420409828424454</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>0.2605093717575073</v>
+        <v>0.5549857616424561</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>0.9279541373252869</v>
+        <v>0.8828625679016113</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>0.6091281175613403</v>
+        <v>0.6062333583831787</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>0.5125786662101746</v>
+        <v>1.010342597961426</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>0.05384311079978943</v>
+        <v>0.2555028200149536</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>0.1307508796453476</v>
+        <v>1.011953115463257</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>0.4745234251022339</v>
+        <v>0.4127516150474548</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>0.3458929657936096</v>
+        <v>-0.007207639515399933</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>0.8623200058937073</v>
+        <v>0.2785463035106659</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>0.6374940276145935</v>
+        <v>0.2474925816059113</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>0.147506982088089</v>
+        <v>0.1128735467791557</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>1.298519253730774</v>
+        <v>0.5016790628433228</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>0.7179204225540161</v>
+        <v>0.1512435972690582</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>1.090789437294006</v>
+        <v>0.3760527372360229</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>-0.01442664116621017</v>
+        <v>0.8306444883346558</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>0.4812738597393036</v>
+        <v>0.9440426230430603</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>0.2147665917873383</v>
+        <v>0.1844780892133713</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>0.4593007266521454</v>
+        <v>0.6821588277816772</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>0.1072177514433861</v>
+        <v>0.2236549407243729</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>0.2743244469165802</v>
+        <v>0.562693178653717</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>0.6151862144470215</v>
+        <v>0.857088029384613</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>0.7654975652694702</v>
+        <v>0.2940695881843567</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>0.3248960673809052</v>
+        <v>0.2797212600708008</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>0.3556369543075562</v>
+        <v>-0.01966038346290588</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>0.8391225934028625</v>
+        <v>0.2668687701225281</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>0.5182336568832397</v>
+        <v>0.6221804022789001</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>0.4822479486465454</v>
+        <v>0.483618438243866</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>0.965052604675293</v>
+        <v>0.5095980763435364</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>0.6931585669517517</v>
+        <v>0.01258073747158051</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>0.1454975455999374</v>
+        <v>0.5421440601348877</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>0.5918686389923096</v>
+        <v>1.355430960655212</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>0.5081849098205566</v>
+        <v>0.4099043011665344</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>0.1851057410240173</v>
+        <v>0.1967253386974335</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>0.3623262941837311</v>
+        <v>0.3728722333908081</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>0.2444350719451904</v>
+        <v>0.6772558689117432</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>0.1370769590139389</v>
+        <v>0.9078133702278137</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>0.5636046528816223</v>
+        <v>0.4548571705818176</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>1.003056645393372</v>
+        <v>0.6299710273742676</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>0.5365381240844727</v>
+        <v>0.53321373462677</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>0.8447391986846924</v>
+        <v>0.1768864691257477</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>0.3164465427398682</v>
+        <v>0.450314998626709</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>0.1553205698728561</v>
+        <v>0.5265895128250122</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>0.8575344681739807</v>
+        <v>0.4202027320861816</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>0.1596048772335052</v>
+        <v>0.04734576493501663</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>0.6203470826148987</v>
+        <v>0.07514907419681549</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>0.2665130794048309</v>
+        <v>0.7323548793792725</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>-0.09364181011915207</v>
+        <v>0.6790088415145874</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>0.1733892560005188</v>
+        <v>0.883774995803833</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>0.3086276054382324</v>
+        <v>0.3076522946357727</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>0.5112640261650085</v>
+        <v>0.7430139780044556</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>0.5580503940582275</v>
+        <v>0.2257165312767029</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>0.367289811372757</v>
+        <v>0.7599425315856934</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>0.3773779571056366</v>
+        <v>0.640284538269043</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>0.5430949926376343</v>
+        <v>0.3160730004310608</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>0.5782297253608704</v>
+        <v>0.3975486755371094</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>0.1007329300045967</v>
+        <v>0.3272236585617065</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>0.2627440989017487</v>
+        <v>0.02110613882541656</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>0.1961701065301895</v>
+        <v>0.560125470161438</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>0.818831205368042</v>
+        <v>0.6244917511940002</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>0.8832102417945862</v>
+        <v>0.9158958196640015</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>0.4498990476131439</v>
+        <v>0.1139527410268784</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>0.06088213622570038</v>
+        <v>0.6558334827423096</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>0.7262476682662964</v>
+        <v>0.4455039501190186</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>0.9863831996917725</v>
+        <v>-0.1589759886264801</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>0.4563213884830475</v>
+        <v>0.8137931823730469</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>0.3573426008224487</v>
+        <v>0.9182249903678894</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>0.07526285201311111</v>
+        <v>0.0915638655424118</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>0.6337313652038574</v>
+        <v>0.3676859438419342</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>0.6092239618301392</v>
+        <v>0.002616092562675476</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>0.6490116119384766</v>
+        <v>0.6341635584831238</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>0.6584343910217285</v>
+        <v>0.1816362142562866</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>0.2909249663352966</v>
+        <v>1.287120342254639</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>0.7394124269485474</v>
+        <v>0.3717668652534485</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>0.2288342267274857</v>
+        <v>0.9575409293174744</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>0.09756152331829071</v>
+        <v>0.1855038106441498</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>0.2348401695489883</v>
+        <v>0.8817484378814697</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>0.7939199805259705</v>
+        <v>0.390249490737915</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>0.5680249333381653</v>
+        <v>0.7644853591918945</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>0.3852170705795288</v>
+        <v>0.5727246999740601</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>0.5575329065322876</v>
+        <v>0.5122954845428467</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>0.3528953790664673</v>
+        <v>0.4291029274463654</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>0.6754807233810425</v>
+        <v>0.1275304853916168</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>0.4134495258331299</v>
+        <v>0.3682637810707092</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>0.9542587995529175</v>
+        <v>0.5408794283866882</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>0.3978979587554932</v>
+        <v>0.1645708382129669</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>-0.008475765585899353</v>
+        <v>0.7793627381324768</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>0.8146281838417053</v>
+        <v>0.5013155341148376</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>0.1547660380601883</v>
+        <v>0.6352312564849854</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>0.1861543953418732</v>
+        <v>0.1765923500061035</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>0.8601069450378418</v>
+        <v>0.4847564697265625</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>0.3251670598983765</v>
+        <v>0.4642436504364014</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>0.07518839836120605</v>
+        <v>0.2214419394731522</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>0.07762742042541504</v>
+        <v>0.6517466306686401</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>0.8551045060157776</v>
+        <v>0.8397515416145325</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>0.996320366859436</v>
+        <v>0.1151107922196388</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>0.1352066248655319</v>
+        <v>0.3600608110427856</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>0.1484061777591705</v>
+        <v>0.1853757500648499</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>0.9782314300537109</v>
+        <v>0.3873683214187622</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>0.1430798768997192</v>
+        <v>0.9688937664031982</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>-0.05029691010713577</v>
+        <v>0.3323985934257507</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>0.7415112257003784</v>
+        <v>0.6997302770614624</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>0.5455392599105835</v>
+        <v>0.2046873420476913</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>0.1061341464519501</v>
+        <v>1.28305447101593</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>0.8342444896697998</v>
+        <v>0.3271344304084778</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>0.3120913505554199</v>
+        <v>0.7733092904090881</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>0.7887428998947144</v>
+        <v>0.65932697057724</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>0.7575470209121704</v>
+        <v>0.7269217967987061</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>1.327390670776367</v>
+        <v>0.3634201288223267</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>0.02841424942016602</v>
+        <v>0.1189504563808441</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>0.5118899345397949</v>
+        <v>0.2974874377250671</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>0.01142407953739166</v>
+        <v>0.8039264678955078</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>0.2967288792133331</v>
+        <v>0.771843433380127</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>0.155038133263588</v>
+        <v>0.3121996223926544</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>0.127447634935379</v>
+        <v>0.6633057594299316</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>-0.02611742913722992</v>
+        <v>-0.02605526149272919</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>0.180781751871109</v>
+        <v>0.9043405055999756</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>0.5379158854484558</v>
+        <v>0.981203556060791</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>0.2181356698274612</v>
+        <v>0.3952226638793945</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>0.7681064009666443</v>
+        <v>0.2499994039535522</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>0.6089532375335693</v>
+        <v>0.2313058972358704</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>0.1354342699050903</v>
+        <v>-0.03374944627285004</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>0.02754490077495575</v>
+        <v>0.5325644612312317</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>0.6007122993469238</v>
+        <v>0.4545568823814392</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>0.9034401178359985</v>
+        <v>0.2184288650751114</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>0.9038642644882202</v>
+        <v>0.229709580540657</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>0.5052196979522705</v>
+        <v>0.0776737779378891</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>0.60565185546875</v>
+        <v>0.2316185981035233</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>0.2170560359954834</v>
+        <v>-0.0386812686920166</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>0.5963802337646484</v>
+        <v>0.7770060896873474</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>0.8136122226715088</v>
+        <v>0.8992664217948914</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>0.3273568153381348</v>
+        <v>0.9410929679870605</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>0.7707538604736328</v>
+        <v>0.2083461582660675</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>0.2557740211486816</v>
+        <v>0.2755548357963562</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>0.9156305193901062</v>
+        <v>0.5076681971549988</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>0.7647140026092529</v>
+        <v>0.3080975413322449</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>0.7175273895263672</v>
+        <v>0.7876027822494507</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>0.4813015460968018</v>
+        <v>0.3868914544582367</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>0.4322401285171509</v>
+        <v>0.399353951215744</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>0.9383881092071533</v>
+        <v>0.2271200865507126</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>0.4898526966571808</v>
+        <v>0.6573814153671265</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>0.06791190803050995</v>
+        <v>0.4002041518688202</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>0.2414062321186066</v>
+        <v>0.5218522548675537</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>0.798173725605011</v>
+        <v>0.2268198430538177</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>1.062915086746216</v>
+        <v>0.2573862373828888</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>0.09248059242963791</v>
+        <v>0.5164417028427124</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>0.5588669180870056</v>
+        <v>0.5925023555755615</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>0.4424826800823212</v>
+        <v>0.2258127778768539</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>0.5096213221549988</v>
+        <v>0.07222359627485275</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>0.9953799247741699</v>
+        <v>0.2214764058589935</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>0.6821964383125305</v>
+        <v>0.4815682768821716</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>0.6179203987121582</v>
+        <v>0.4431478977203369</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>0.7793916463851929</v>
+        <v>0.7286890149116516</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>0.7107460498809814</v>
+        <v>0.6620272397994995</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>-0.0259944275021553</v>
+        <v>0.3422951102256775</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>31.03565406799316</v>
+        <v>0.04940684884786606</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>0.8181546330451965</v>
+        <v>0.4991611838340759</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>1.223867058753967</v>
+        <v>0.6439684629440308</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>0.4696015119552612</v>
+        <v>0.2372321486473083</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>0.5677124857902527</v>
+        <v>0.9479193091392517</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>0.8441628813743591</v>
+        <v>0.5494085550308228</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>0.1853657066822052</v>
+        <v>0.8992664217948914</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>0.5417104959487915</v>
+        <v>0.3517090678215027</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>0.1641195714473724</v>
+        <v>-0.0432504266500473</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>0.05619412660598755</v>
+        <v>0.3437678813934326</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>0.2281742244958878</v>
+        <v>0.117220938205719</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>0.4329655170440674</v>
+        <v>1.083092212677002</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>0.3047705888748169</v>
+        <v>0.3227315843105316</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>0.5634219646453857</v>
+        <v>0.6199800968170166</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>0.6200898885726929</v>
+        <v>0.00636938214302063</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>0.1216932609677315</v>
+        <v>0.007523201406002045</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>0.1195175796747208</v>
+        <v>0.1275335848331451</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>0.249581903219223</v>
+        <v>0.1984384655952454</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>0.1322141289710999</v>
+        <v>0.6830959320068359</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>0.9183364510536194</v>
+        <v>0.4158847033977509</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>0.117893286049366</v>
+        <v>0.6351814866065979</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>0.1188938990235329</v>
+        <v>0.4150620698928833</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>0.5321675539016724</v>
+        <v>0.6349747776985168</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>0.8232043981552124</v>
+        <v>0.367328405380249</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>0.5469443798065186</v>
+        <v>0.434663712978363</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>0.1577350199222565</v>
+        <v>0.33188197016716</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>0.929814338684082</v>
+        <v>0.458023726940155</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>0.5090163946151733</v>
+        <v>0.1108786910772324</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>0.6609734296798706</v>
+        <v>0.3167362809181213</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>0.8835263252258301</v>
+        <v>0.5222736597061157</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>0.2462751716375351</v>
+        <v>0.2627412378787994</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>0.9124393463134766</v>
+        <v>0.5822661519050598</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>0.5182523727416992</v>
+        <v>0.6525518894195557</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>0.605837881565094</v>
+        <v>0.2789534032344818</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>1.099393486976624</v>
+        <v>0.1825784146785736</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>0.487097293138504</v>
+        <v>0.6956717967987061</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>0.3118868470191956</v>
+        <v>0.4698635935783386</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>-0.03043389320373535</v>
+        <v>0.5994405746459961</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>0.5868171453475952</v>
+        <v>0.1402297466993332</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>0.4586975872516632</v>
+        <v>0.378312349319458</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>0.1813943833112717</v>
+        <v>0.4768957495689392</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>0.1804563105106354</v>
+        <v>0.750909686088562</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>0.8818589448928833</v>
+        <v>0.09545533359050751</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>0.4837912619113922</v>
+        <v>0.8855668306350708</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>0.7179619073867798</v>
+        <v>0.9189250469207764</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>0.3140480220317841</v>
+        <v>0.5467979907989502</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>0.4788296222686768</v>
+        <v>0.01081199198961258</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>0.1908827424049377</v>
+        <v>0.6909856200218201</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>0.6681896448135376</v>
+        <v>0.1852732300758362</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>0.2888312637805939</v>
+        <v>0.2448026835918427</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>0.5869082808494568</v>
+        <v>0.566670835018158</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>0.2080614268779755</v>
+        <v>0.5215933322906494</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>0.1632834374904633</v>
+        <v>0.2956506609916687</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>0.1631247997283936</v>
+        <v>-0.05132506787776947</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>0.4239242970943451</v>
+        <v>0.2578778862953186</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>0.1591979116201401</v>
+        <v>0.287316620349884</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>0.862748384475708</v>
+        <v>0.4715767502784729</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>0.2441675812005997</v>
+        <v>0.1004884541034698</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>0.1607758700847626</v>
+        <v>0.7686165571212769</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>0.5314314365386963</v>
+        <v>0.2276677489280701</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>0.4150558114051819</v>
+        <v>0.1877802014350891</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>1.050806760787964</v>
+        <v>0.5072710514068604</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>0.5766055583953857</v>
+        <v>-0.003877073526382446</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>0.2551539540290833</v>
+        <v>0.3482100665569305</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>0.8728247880935669</v>
+        <v>0.4991915822029114</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>0.3511990606784821</v>
+        <v>0.3513894081115723</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>-0.08487628400325775</v>
+        <v>0.8179771304130554</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>0.5641090273857117</v>
+        <v>0.6805731058120728</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>0.6408659815788269</v>
+        <v>0.3068722784519196</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>0.30356365442276</v>
+        <v>0.4156187176704407</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>0.5609657764434814</v>
+        <v>0.4383544325828552</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>0.93921959400177</v>
+        <v>1.042213797569275</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>0.2087444216012955</v>
+        <v>0.4239749908447266</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>0.3032435178756714</v>
+        <v>0.6466834545135498</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>0.9492365121841431</v>
+        <v>0.6862142086029053</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>0.4985306560993195</v>
+        <v>0.4747481346130371</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>0.6907601356506348</v>
+        <v>0.6918046474456787</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>1.049568176269531</v>
+        <v>0.572888970375061</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>0.6068414449691772</v>
+        <v>0.6894426345825195</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>0.3790760934352875</v>
+        <v>0.5419037938117981</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>-0.06090174615383148</v>
+        <v>0.1296340823173523</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>0.2493581026792526</v>
+        <v>0.5524481534957886</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>0.1212016493082047</v>
+        <v>0.4821267127990723</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>0.4049405157566071</v>
+        <v>0.04030142724514008</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>0.180198609828949</v>
+        <v>0.6825435161590576</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>0.7532700896263123</v>
+        <v>0.3992003202438354</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>0.1688328683376312</v>
+        <v>0.6449033617973328</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>0.4395340979099274</v>
+        <v>0.2091284990310669</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>0.9654773473739624</v>
+        <v>0.8471366167068481</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>0.4755976498126984</v>
+        <v>0.2768527865409851</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>0.4117807745933533</v>
+        <v>0.04567702859640121</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>0.6054925918579102</v>
+        <v>0.8302134871482849</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>0.7045629024505615</v>
+        <v>0.606997549533844</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>0.01813527941703796</v>
+        <v>1.083020687103271</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>0.6299858093261719</v>
+        <v>0.1761714816093445</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>0.4797272682189941</v>
+        <v>0.2535858452320099</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>0.8178718090057373</v>
+        <v>0.8362524509429932</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>0.7123138904571533</v>
+        <v>0.9464835524559021</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>0.2299357801675797</v>
+        <v>0.6708380579948425</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>0.8102664351463318</v>
+        <v>0.5222749710083008</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>0.484670877456665</v>
+        <v>0.4481032490730286</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>0.1135794594883919</v>
+        <v>0.777733325958252</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>0.8288230895996094</v>
+        <v>0.9113474488258362</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>0.4226840734481812</v>
+        <v>0.1990431547164917</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>0.6003532409667969</v>
+        <v>0.4552834630012512</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>0.3767469823360443</v>
+        <v>0.1109816804528236</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>0.9119864702224731</v>
+        <v>0.8819834589958191</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>0.9790430665016174</v>
+        <v>0.206327497959137</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>0.3568264245986938</v>
+        <v>0.9669848680496216</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>0.3199194073677063</v>
+        <v>0.2629002332687378</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>0.6970828771591187</v>
+        <v>0.6064832210540771</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>0.5034677982330322</v>
+        <v>1.129192113876343</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>0.09288342297077179</v>
+        <v>0.8400523662567139</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>0.2983880639076233</v>
+        <v>-0.02689724415540695</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>0.2956932783126831</v>
+        <v>0.8474310636520386</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>0.7059119939804077</v>
+        <v>0.8219938278198242</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>0.8419317007064819</v>
+        <v>0.6457147598266602</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>0.7687252759933472</v>
+        <v>0.08692009001970291</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>0.1436132937669754</v>
+        <v>0.4502022266387939</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>0.4004959166049957</v>
+        <v>0.2058052271604538</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>0.2656300663948059</v>
+        <v>0.1629343628883362</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>0.09803886711597443</v>
+        <v>0.7267128825187683</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>0.5726358294487</v>
+        <v>0.8087304830551147</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>0.1877702623605728</v>
+        <v>0.2345264256000519</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>0.7727327346801758</v>
+        <v>0.9441395401954651</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>0.3588966131210327</v>
+        <v>0.4314000606536865</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>0.3621052503585815</v>
+        <v>0.2681809365749359</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>0.06572639942169189</v>
+        <v>0.08873594552278519</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>0.1767068207263947</v>
+        <v>0.3618602752685547</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>0.6387380957603455</v>
+        <v>0.4216352701187134</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>0.3709748387336731</v>
+        <v>0.1349766254425049</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>0.8891819715499878</v>
+        <v>0.1827350556850433</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>1.019838333129883</v>
+        <v>-0.01627692580223083</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>0.7317864894866943</v>
+        <v>1.26252543926239</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>0.5613042116165161</v>
+        <v>0.5340195298194885</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>0.9592360854148865</v>
+        <v>0.4085259437561035</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>0.4907974600791931</v>
+        <v>0.3775988817214966</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>0.840754508972168</v>
+        <v>0.3701814413070679</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>0.1095082759857178</v>
+        <v>0.1994517147541046</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>0.5650113224983215</v>
+        <v>0.8665053248405457</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>0.2005763053894043</v>
+        <v>0.07223325222730637</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>0.1029684841632843</v>
+        <v>0.7687567472457886</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>0.000826127827167511</v>
+        <v>0.125202089548111</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>1.011382937431335</v>
+        <v>0.4585031270980835</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>0.1179161071777344</v>
+        <v>0.2614704370498657</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>0.7874718904495239</v>
+        <v>0.7716656923294067</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>0.527178168296814</v>
+        <v>0.3859907388687134</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>0.5407259464263916</v>
+        <v>0.4273779392242432</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>0.1969844698905945</v>
+        <v>-0.04518982768058777</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>0.8282477855682373</v>
+        <v>-0.08988028019666672</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>0.6621471643447876</v>
+        <v>0.4973351359367371</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>0.5609883666038513</v>
+        <v>0.2808014154434204</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>-0.08878638595342636</v>
+        <v>0.2165748924016953</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>0.7372804880142212</v>
+        <v>0.4471136927604675</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>0.3141263127326965</v>
+        <v>0.3841631710529327</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>0.9202733039855957</v>
+        <v>0.3967404961585999</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>0.4717455506324768</v>
+        <v>0.4123903512954712</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>0.7841010093688965</v>
+        <v>0.05293162167072296</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>0.7980534434318542</v>
+        <v>1.195063591003418</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>0.8615371584892273</v>
+        <v>0.9008690118789673</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>0.4964406192302704</v>
+        <v>-0.09064622223377228</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>0.9715315103530884</v>
+        <v>0.7290862798690796</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>1.032718420028687</v>
+        <v>0.01184065639972687</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>0.5860008597373962</v>
+        <v>-0.0200401246547699</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>0.3677855730056763</v>
+        <v>0.2189681082963943</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>0.9785111546516418</v>
+        <v>-0.0457550436258316</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>0.1414410769939423</v>
+        <v>0.8525652885437012</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>0.8253313899040222</v>
+        <v>0.6140913963317871</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>0.7785347700119019</v>
+        <v>0.7642098665237427</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="n">
-        <v>0.3605441451072693</v>
+        <v>1.117393970489502</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="n">
-        <v>0.7854976058006287</v>
+        <v>1.121851325035095</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="n">
-        <v>0.3126277327537537</v>
+        <v>0.1386310160160065</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="n">
-        <v>0.756211519241333</v>
+        <v>0.6069333553314209</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="n">
-        <v>0.7646303772926331</v>
+        <v>1.025885105133057</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="n">
-        <v>-0.06280455738306046</v>
+        <v>-0.02205927670001984</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="n">
-        <v>0.6799259185791016</v>
+        <v>0.09861148148775101</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="n">
-        <v>0.8320074081420898</v>
+        <v>0.6764075756072998</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="n">
-        <v>0.7194849252700806</v>
+        <v>0.02387849986553192</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="n">
-        <v>0.145431324839592</v>
+        <v>0.2234744429588318</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="n">
-        <v>0.9447700977325439</v>
+        <v>-0.1710859686136246</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="n">
-        <v>0.4110280871391296</v>
+        <v>0.6772315502166748</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="n">
-        <v>0.1618401408195496</v>
+        <v>0.0510132908821106</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="n">
-        <v>0.6279987096786499</v>
+        <v>0.7046199440956116</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="n">
-        <v>0.8015894293785095</v>
+        <v>0.3947543501853943</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="n">
-        <v>0.7983953952789307</v>
+        <v>-0.01790788024663925</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="n">
-        <v>0.5328006744384766</v>
+        <v>0.1086044982075691</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="n">
-        <v>0.1832999289035797</v>
+        <v>0.9440426230430603</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="n">
-        <v>0.4582304954528809</v>
+        <v>0.652026355266571</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="n">
-        <v>0.5453065633773804</v>
+        <v>0.1361448466777802</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="n">
-        <v>0.2154837846755981</v>
+        <v>0.6422961950302124</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="n">
-        <v>0.1425652652978897</v>
+        <v>0.1850584298372269</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="n">
-        <v>-0.01102478057146072</v>
+        <v>0.2156665176153183</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="n">
-        <v>-0.9863665103912354</v>
+        <v>0.5158085227012634</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="n">
-        <v>0.6729189157485962</v>
+        <v>0.6495460271835327</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="n">
-        <v>0.4026400148868561</v>
+        <v>0.6635511517524719</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="n">
-        <v>0.2109129875898361</v>
+        <v>0.4622287154197693</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="n">
-        <v>-0.0358174592256546</v>
+        <v>0.6828283667564392</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="n">
-        <v>0.7134079933166504</v>
+        <v>0.2868834137916565</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="n">
-        <v>0.4161764979362488</v>
+        <v>0.1276599168777466</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="n">
-        <v>0.8847442269325256</v>
+        <v>0.3800798058509827</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="n">
-        <v>0.9037488102912903</v>
+        <v>0.5378830432891846</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="n">
-        <v>0.2926205992698669</v>
+        <v>0.9121440649032593</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="n">
-        <v>0.2322764694690704</v>
+        <v>0.4878955483436584</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="n">
-        <v>0.5813494920730591</v>
+        <v>0.3117509484291077</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="n">
-        <v>0.2293960750102997</v>
+        <v>0.580665111541748</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="n">
-        <v>0.8765495419502258</v>
+        <v>0.6785523891448975</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="n">
-        <v>0.794847846031189</v>
+        <v>0.4952694475650787</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="n">
-        <v>0.2908230423927307</v>
+        <v>0.06499669700860977</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="n">
-        <v>0.3092595636844635</v>
+        <v>0.5361109972000122</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="n">
-        <v>0.4518997371196747</v>
+        <v>0.3661826252937317</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="n">
-        <v>0.5623714923858643</v>
+        <v>1.178984522819519</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="n">
-        <v>0.2533256113529205</v>
+        <v>0.07861052453517914</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="n">
-        <v>0.6097677946090698</v>
+        <v>0.6769415140151978</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="n">
-        <v>0.6015504598617554</v>
+        <v>-0.1015454530715942</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="n">
-        <v>0.4373120963573456</v>
+        <v>0.2445568591356277</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="n">
-        <v>0.1593753695487976</v>
+        <v>0.9979394674301147</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="n">
-        <v>1.1589195728302</v>
+        <v>0.2024954110383987</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="n">
-        <v>0.3298071026802063</v>
+        <v>0.1086949855089188</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="n">
-        <v>0.181575819849968</v>
+        <v>0.2334041595458984</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="n">
-        <v>0.8271040320396423</v>
+        <v>-0.02966950833797455</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="n">
-        <v>0.547157883644104</v>
+        <v>0.3841731548309326</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="n">
-        <v>0.581885814666748</v>
+        <v>0.8824558258056641</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="n">
-        <v>31.03811645507812</v>
+        <v>0.948366105556488</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="n">
-        <v>0.3423817455768585</v>
+        <v>0.7081816792488098</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="n">
-        <v>0.1446891576051712</v>
+        <v>0.07141074538230896</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="n">
-        <v>0.1114834547042847</v>
+        <v>0.2418234944343567</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="n">
-        <v>0.183632493019104</v>
+        <v>0.4087894558906555</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="n">
-        <v>0.3400658965110779</v>
+        <v>0.3609057664871216</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="n">
-        <v>1.041367173194885</v>
+        <v>0.06433369219303131</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="n">
-        <v>0.215466096997261</v>
+        <v>0.2840138971805573</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="n">
-        <v>0.6036552786827087</v>
+        <v>0.8748688101768494</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="n">
-        <v>0.200230747461319</v>
+        <v>0.3505148887634277</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="n">
-        <v>0.7638916969299316</v>
+        <v>0.565192699432373</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="n">
-        <v>0.1281137019395828</v>
+        <v>0.5672136545181274</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="n">
-        <v>0.9632602334022522</v>
+        <v>-0.1884550601243973</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="n">
-        <v>0.2926784157752991</v>
+        <v>0.924380362033844</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="n">
-        <v>0.5182084441184998</v>
+        <v>0.2467499971389771</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="n">
-        <v>0.5084073543548584</v>
+        <v>-0.01172013580799103</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="n">
-        <v>0.4152253568172455</v>
+        <v>0.5147536396980286</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="n">
-        <v>0.499064564704895</v>
+        <v>0.529927134513855</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="n">
-        <v>0.3675932586193085</v>
+        <v>0.1704634875059128</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="n">
-        <v>0.9408813714981079</v>
+        <v>-0.04198222607374191</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="n">
-        <v>0.9506118297576904</v>
+        <v>0.2278648018836975</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="n">
-        <v>0.1594635844230652</v>
+        <v>0.3432543873786926</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="n">
-        <v>0.9684614539146423</v>
+        <v>0.2607296407222748</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="n">
-        <v>0.9549646377563477</v>
+        <v>0.9350365996360779</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="n">
-        <v>0.1004771590232849</v>
+        <v>0.2596901059150696</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="n">
-        <v>0.1936545222997665</v>
+        <v>0.1188359186053276</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="n">
-        <v>0.7701118588447571</v>
+        <v>0.8053193688392639</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="n">
-        <v>0.5967258214950562</v>
+        <v>0.853847861289978</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="n">
-        <v>0.2449440658092499</v>
+        <v>0.219187006354332</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="n">
-        <v>0.3726759254932404</v>
+        <v>0.04020571708679199</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="n">
-        <v>0.5816770792007446</v>
+        <v>0.6474142074584961</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="n">
-        <v>0.3210277557373047</v>
+        <v>0.1004144325852394</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="n">
-        <v>0.1880019903182983</v>
+        <v>0.252768486738205</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="n">
-        <v>0.3699454367160797</v>
+        <v>0.4522446393966675</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="n">
-        <v>0.9502768516540527</v>
+        <v>0.193976953625679</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="n">
-        <v>0.3632109761238098</v>
+        <v>0.05338261276483536</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="n">
-        <v>0.07121802866458893</v>
+        <v>-0.03813313692808151</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="n">
-        <v>0.3127853274345398</v>
+        <v>0.09476853162050247</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="n">
-        <v>0.7383348345756531</v>
+        <v>0.7984526753425598</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="n">
-        <v>0.7299497723579407</v>
+        <v>0.03228142857551575</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="n">
-        <v>0.4519670605659485</v>
+        <v>0.1673958301544189</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="n">
-        <v>0.9350913166999817</v>
+        <v>0.1796239912509918</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="n">
-        <v>0.3810334503650665</v>
+        <v>0.9748591780662537</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="n">
-        <v>0.5510168075561523</v>
+        <v>0.6573814153671265</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="n">
-        <v>0.1740565598011017</v>
+        <v>0.141650527715683</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="n">
-        <v>-0.1090132892131805</v>
+        <v>0.7008380889892578</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="n">
-        <v>0.3585477769374847</v>
+        <v>1.000508427619934</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="n">
-        <v>0.3702731132507324</v>
+        <v>0.1001617610454559</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="n">
-        <v>0.1567181050777435</v>
+        <v>-0.0008479505777359009</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="n">
-        <v>0.2090754806995392</v>
+        <v>0.5923311114311218</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="n">
-        <v>0.7388078570365906</v>
+        <v>0.7639248371124268</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="n">
-        <v>0.7251969575881958</v>
+        <v>0.08187276124954224</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="n">
-        <v>0.1873938590288162</v>
+        <v>0.6382520198822021</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="n">
-        <v>0.6440953016281128</v>
+        <v>0.4346408247947693</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="n">
-        <v>0.2147997617721558</v>
+        <v>-0.02631585299968719</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="n">
-        <v>0.600817084312439</v>
+        <v>0.3908573985099792</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="n">
-        <v>0.5201254487037659</v>
+        <v>0.4659745097160339</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="n">
-        <v>0.2530553340911865</v>
+        <v>0.8562273979187012</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="n">
-        <v>0.6888217926025391</v>
+        <v>0.7324009537696838</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="n">
-        <v>0.8638096451759338</v>
+        <v>0.2561852037906647</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="n">
-        <v>0.7035518288612366</v>
+        <v>0.4224961400032043</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="n">
-        <v>0.8006591200828552</v>
+        <v>0.2986462712287903</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="n">
-        <v>0.9795501232147217</v>
+        <v>0.3624381422996521</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="n">
-        <v>0.8808150887489319</v>
+        <v>0.6418586373329163</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="n">
-        <v>0.8221415281295776</v>
+        <v>0.7769361734390259</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="n">
-        <v>0.1709269136190414</v>
+        <v>0.1386309266090393</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="n">
-        <v>0.234287828207016</v>
+        <v>0.4646727442741394</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="n">
-        <v>0.6659266948699951</v>
+        <v>0.3800797760486603</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="n">
-        <v>0.1514324694871902</v>
+        <v>0.2162535339593887</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="n">
-        <v>0.162720188498497</v>
+        <v>0.4189726710319519</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="n">
-        <v>0.3524817824363708</v>
+        <v>0.1701803505420685</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="n">
-        <v>1.152587652206421</v>
+        <v>0.154575526714325</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="n">
-        <v>0.1081863790750504</v>
+        <v>0.2517267465591431</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="n">
-        <v>0.09453831613063812</v>
+        <v>0.6503369212150574</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="n">
-        <v>0.5901784300804138</v>
+        <v>0.4433527588844299</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="n">
-        <v>0.3069334924221039</v>
+        <v>0.761494517326355</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="n">
-        <v>0.2688885629177094</v>
+        <v>0.07014864683151245</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="n">
-        <v>0.6236778497695923</v>
+        <v>0.1389496326446533</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="n">
-        <v>0.5159777402877808</v>
+        <v>0.08210650086402893</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="n">
-        <v>0.5765343904495239</v>
+        <v>0.808042049407959</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="n">
-        <v>0.3051494061946869</v>
+        <v>0.1347715854644775</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="n">
-        <v>0.2908656597137451</v>
+        <v>-0.007668502628803253</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="n">
-        <v>0.3984857797622681</v>
+        <v>0.8965241312980652</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="n">
-        <v>0.1527092903852463</v>
+        <v>0.5440038442611694</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="n">
-        <v>0.9785111546516418</v>
+        <v>-0.2445634752511978</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="n">
-        <v>0.7188280820846558</v>
+        <v>0.5007054805755615</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="n">
-        <v>0.4952701032161713</v>
+        <v>0.8580222725868225</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="n">
-        <v>0.2802645266056061</v>
+        <v>0.2388498187065125</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="n">
-        <v>0.6540043950080872</v>
+        <v>0.1959518790245056</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="n">
-        <v>0.8024331331253052</v>
+        <v>0.3205251693725586</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="n">
-        <v>0.5474390983581543</v>
+        <v>0.490750789642334</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="n">
-        <v>0.7680285573005676</v>
+        <v>0.2250096499919891</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="n">
-        <v>0.4666494727134705</v>
+        <v>1.066971063613892</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="n">
-        <v>0.3740747570991516</v>
+        <v>0.4617233276367188</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="n">
-        <v>0.1804863214492798</v>
+        <v>0.4016144275665283</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="n">
-        <v>0.3766165375709534</v>
+        <v>-0.004559919238090515</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="n">
-        <v>0.184613823890686</v>
+        <v>0.5755130052566528</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="n">
-        <v>0.2538221180438995</v>
+        <v>-0.1873605251312256</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" t="n">
-        <v>0.538321852684021</v>
+        <v>0.5380476713180542</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" t="n">
-        <v>0.2612872123718262</v>
+        <v>-0.0457550436258316</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" t="n">
-        <v>0.5482960343360901</v>
+        <v>0.2017515897750854</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="n">
-        <v>0.4616671800613403</v>
+        <v>0.2296541333198547</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="n">
-        <v>0.2214751690626144</v>
+        <v>0.1775071322917938</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="n">
-        <v>0.5143990516662598</v>
+        <v>0.9739956855773926</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="n">
-        <v>0.6735115051269531</v>
+        <v>53.58580017089844</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="n">
-        <v>0.3463058173656464</v>
+        <v>0.07753997296094894</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="n">
-        <v>1.03907310962677</v>
+        <v>0.5701698660850525</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="n">
-        <v>0.4082476496696472</v>
+        <v>-0.0730285570025444</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" t="n">
-        <v>0.6467844843864441</v>
+        <v>1.191554188728333</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" t="n">
-        <v>0.97271728515625</v>
+        <v>0.7620482444763184</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="n">
-        <v>0.840904712677002</v>
+        <v>0.1073477119207382</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" t="n">
-        <v>0.3585363626480103</v>
+        <v>0.649188220500946</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" t="n">
-        <v>0.78562992811203</v>
+        <v>0.01827913522720337</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" t="n">
-        <v>0.4240972399711609</v>
+        <v>0.07798592746257782</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="n">
-        <v>0.1556905508041382</v>
+        <v>0.09476277232170105</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="n">
-        <v>0.318651556968689</v>
+        <v>0.07190922647714615</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="n">
-        <v>0.6196056604385376</v>
+        <v>0.5354733467102051</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="n">
-        <v>0.4469999969005585</v>
+        <v>0.06807619333267212</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" t="n">
-        <v>0.4755943119525909</v>
+        <v>-0.03405870497226715</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="n">
-        <v>0.3440316915512085</v>
+        <v>-0.02957907319068909</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="n">
-        <v>0.65244460105896</v>
+        <v>0.1528146862983704</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="n">
-        <v>0.4817927777767181</v>
+        <v>0.5267658233642578</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="n">
-        <v>0.4048642218112946</v>
+        <v>0.6352189779281616</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="n">
-        <v>0.1727953255176544</v>
+        <v>1.042109608650208</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="n">
-        <v>0.7953563928604126</v>
+        <v>0.1282745897769928</v>
       </c>
     </row>
     <row r="780">
       <c r="A780" t="n">
-        <v>0.9080577492713928</v>
+        <v>0.9140308499336243</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" t="n">
-        <v>0.3721421360969543</v>
+        <v>0.5893810391426086</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="n">
-        <v>0.06259753555059433</v>
+        <v>-0.08374188840389252</v>
       </c>
     </row>
     <row r="783">
       <c r="A783" t="n">
-        <v>0.9270836710929871</v>
+        <v>0.1493762731552124</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" t="n">
-        <v>0.2915665805339813</v>
+        <v>0.303264856338501</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="n">
-        <v>0.5307296514511108</v>
+        <v>0.5709969401359558</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="n">
-        <v>0.3159786760807037</v>
+        <v>0.239696592092514</v>
       </c>
     </row>
     <row r="787">
       <c r="A787" t="n">
-        <v>0.2158659994602203</v>
+        <v>0.0461738258600235</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" t="n">
-        <v>0.5257363319396973</v>
+        <v>0.2510815858840942</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" t="n">
-        <v>0.4911765158176422</v>
+        <v>0.8798412680625916</v>
       </c>
     </row>
     <row r="790">
       <c r="A790" t="n">
-        <v>0.4133800864219666</v>
+        <v>0.5311231017112732</v>
       </c>
     </row>
     <row r="791">
       <c r="A791" t="n">
-        <v>0.9152605533599854</v>
+        <v>1.057319045066833</v>
       </c>
     </row>
     <row r="792">
       <c r="A792" t="n">
-        <v>0.7985895872116089</v>
+        <v>0.7714372873306274</v>
       </c>
     </row>
     <row r="793">
       <c r="A793" t="n">
-        <v>0.3456501662731171</v>
+        <v>0.2935656309127808</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" t="n">
-        <v>-0.0462682843208313</v>
+        <v>0.3926107883453369</v>
       </c>
     </row>
     <row r="795">
       <c r="A795" t="n">
-        <v>0.1611443758010864</v>
+        <v>0.2523072361946106</v>
       </c>
     </row>
     <row r="796">
       <c r="A796" t="n">
-        <v>0.08369122445583344</v>
+        <v>-0.0750633031129837</v>
       </c>
     </row>
     <row r="797">
       <c r="A797" t="n">
-        <v>0.2952447533607483</v>
+        <v>0.6259807348251343</v>
       </c>
     </row>
     <row r="798">
       <c r="A798" t="n">
-        <v>0.2290332019329071</v>
+        <v>0.1482526808977127</v>
       </c>
     </row>
     <row r="799">
       <c r="A799" t="n">
-        <v>0.3844322860240936</v>
+        <v>0.4873775243759155</v>
       </c>
     </row>
     <row r="800">
       <c r="A800" t="n">
-        <v>0.5839725732803345</v>
+        <v>0.4669609069824219</v>
       </c>
     </row>
     <row r="801">
       <c r="A801" t="n">
-        <v>0.4823133945465088</v>
+        <v>1.001891136169434</v>
       </c>
     </row>
     <row r="802">
       <c r="A802" t="n">
-        <v>0.0161413848400116</v>
+        <v>0.1418958902359009</v>
       </c>
     </row>
     <row r="803">
       <c r="A803" t="n">
-        <v>0.7472208738327026</v>
+        <v>0.2531073689460754</v>
       </c>
     </row>
     <row r="804">
       <c r="A804" t="n">
-        <v>0.7945151329040527</v>
+        <v>0.521750271320343</v>
       </c>
     </row>
     <row r="805">
       <c r="A805" t="n">
-        <v>1.08123791217804</v>
+        <v>0.3453377485275269</v>
       </c>
     </row>
     <row r="806">
       <c r="A806" t="n">
-        <v>-1.656569957733154</v>
+        <v>0.2376809269189835</v>
       </c>
     </row>
     <row r="807">
       <c r="A807" t="n">
-        <v>0.4088061153888702</v>
+        <v>0.7333652973175049</v>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="n">
-        <v>1.031252026557922</v>
+        <v>0.1550273001194</v>
       </c>
     </row>
     <row r="809">
       <c r="A809" t="n">
-        <v>0.6735626459121704</v>
+        <v>0.7218751311302185</v>
       </c>
     </row>
     <row r="810">
       <c r="A810" t="n">
-        <v>1.074962377548218</v>
+        <v>0.6349502801895142</v>
       </c>
     </row>
     <row r="811">
       <c r="A811" t="n">
-        <v>0.6861320734024048</v>
+        <v>0.09279462695121765</v>
       </c>
     </row>
     <row r="812">
       <c r="A812" t="n">
-        <v>0.3762701749801636</v>
+        <v>0.1404126286506653</v>
       </c>
     </row>
     <row r="813">
       <c r="A813" t="n">
-        <v>0.3043280243873596</v>
+        <v>0.9843723177909851</v>
       </c>
     </row>
     <row r="814">
       <c r="A814" t="n">
-        <v>0.5763571262359619</v>
+        <v>0.9374881386756897</v>
       </c>
     </row>
     <row r="815">
       <c r="A815" t="n">
-        <v>0.4142130613327026</v>
+        <v>0.247484564781189</v>
       </c>
     </row>
     <row r="816">
       <c r="A816" t="n">
-        <v>0.6491484642028809</v>
+        <v>0.198472261428833</v>
       </c>
     </row>
     <row r="817">
       <c r="A817" t="n">
-        <v>1.141586542129517</v>
+        <v>0.06947869062423706</v>
       </c>
     </row>
     <row r="818">
       <c r="A818" t="n">
-        <v>0.1818216145038605</v>
+        <v>0.2441986501216888</v>
       </c>
     </row>
     <row r="819">
       <c r="A819" t="n">
-        <v>0.5335433483123779</v>
+        <v>0.3319913744926453</v>
       </c>
     </row>
     <row r="820">
       <c r="A820" t="n">
-        <v>0.5598077774047852</v>
+        <v>0.9617518186569214</v>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="n">
-        <v>0.2684699296951294</v>
+        <v>53.58938598632812</v>
       </c>
     </row>
     <row r="822">
       <c r="A822" t="n">
-        <v>0.3239338994026184</v>
+        <v>0.1972122043371201</v>
       </c>
     </row>
     <row r="823">
       <c r="A823" t="n">
-        <v>0.1379428207874298</v>
+        <v>1.136993288993835</v>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="n">
-        <v>0.5422888398170471</v>
+        <v>0.3342382907867432</v>
       </c>
     </row>
     <row r="825">
       <c r="A825" t="n">
-        <v>0.547157883644104</v>
+        <v>0.6057203412055969</v>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="n">
-        <v>0.5931820869445801</v>
+        <v>0.882829487323761</v>
       </c>
     </row>
     <row r="827">
       <c r="A827" t="n">
-        <v>0.3545804619789124</v>
+        <v>0.5141886472702026</v>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="n">
-        <v>0.6430509090423584</v>
+        <v>0.2669112086296082</v>
       </c>
     </row>
     <row r="829">
       <c r="A829" t="n">
-        <v>0.3014672696590424</v>
+        <v>1.012763142585754</v>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="n">
-        <v>0.6717404723167419</v>
+        <v>0.9589494466781616</v>
       </c>
     </row>
     <row r="831">
       <c r="A831" t="n">
-        <v>0.1338851451873779</v>
+        <v>-0.1649042665958405</v>
       </c>
     </row>
     <row r="832">
       <c r="A832" t="n">
-        <v>0.4403834939002991</v>
+        <v>0.852030336856842</v>
       </c>
     </row>
     <row r="833">
       <c r="A833" t="n">
-        <v>0.6134011745452881</v>
+        <v>-0.02604502439498901</v>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="n">
-        <v>0.5113282203674316</v>
+        <v>0.3715206384658813</v>
       </c>
     </row>
     <row r="835">
       <c r="A835" t="n">
-        <v>0.7949583530426025</v>
+        <v>0.5836508870124817</v>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="n">
-        <v>0.64971923828125</v>
+        <v>0.3661698698997498</v>
       </c>
     </row>
     <row r="837">
       <c r="A837" t="n">
-        <v>0.1810393631458282</v>
+        <v>0.1201898753643036</v>
       </c>
     </row>
     <row r="838">
       <c r="A838" t="n">
-        <v>0.4696015119552612</v>
+        <v>0.2804271876811981</v>
       </c>
     </row>
     <row r="839">
       <c r="A839" t="n">
-        <v>0.5812816619873047</v>
+        <v>0.3928290605545044</v>
       </c>
     </row>
     <row r="840">
       <c r="A840" t="n">
-        <v>0.5696640014648438</v>
+        <v>0.2823426127433777</v>
       </c>
     </row>
     <row r="841">
       <c r="A841" t="n">
-        <v>0.2324763089418411</v>
+        <v>0.2870007157325745</v>
       </c>
     </row>
     <row r="842">
       <c r="A842" t="n">
-        <v>1.04437518119812</v>
+        <v>0.821462094783783</v>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="n">
-        <v>0.7840890288352966</v>
+        <v>0.2013227939605713</v>
       </c>
     </row>
     <row r="844">
       <c r="A844" t="n">
-        <v>0.7971190214157104</v>
+        <v>0.6000513434410095</v>
       </c>
     </row>
     <row r="845">
       <c r="A845" t="n">
-        <v>0.1977237910032272</v>
+        <v>0.809298574924469</v>
       </c>
     </row>
     <row r="846">
       <c r="A846" t="n">
-        <v>0.137233778834343</v>
+        <v>1.043468236923218</v>
       </c>
     </row>
     <row r="847">
       <c r="A847" t="n">
-        <v>0.09889711439609528</v>
+        <v>0.54879230260849</v>
       </c>
     </row>
     <row r="848">
       <c r="A848" t="n">
-        <v>0.539567232131958</v>
+        <v>0.3585584163665771</v>
       </c>
     </row>
     <row r="849">
       <c r="A849" t="n">
-        <v>0.8441628813743591</v>
+        <v>0.3609436452388763</v>
       </c>
     </row>
     <row r="850">
       <c r="A850" t="n">
-        <v>0.3566542267799377</v>
+        <v>0.6843448877334595</v>
       </c>
     </row>
     <row r="851">
       <c r="A851" t="n">
-        <v>0.8299992680549622</v>
+        <v>0.804338812828064</v>
       </c>
     </row>
     <row r="852">
       <c r="A852" t="n">
-        <v>0.3356777131557465</v>
+        <v>-0.02072851359844208</v>
       </c>
     </row>
     <row r="853">
       <c r="A853" t="n">
-        <v>0.7175556421279907</v>
+        <v>0.1815476417541504</v>
       </c>
     </row>
     <row r="854">
       <c r="A854" t="n">
-        <v>0.7118428945541382</v>
+        <v>0.4862455725669861</v>
       </c>
     </row>
     <row r="855">
       <c r="A855" t="n">
-        <v>0.170889139175415</v>
+        <v>0.08944536000490189</v>
       </c>
     </row>
     <row r="856">
       <c r="A856" t="n">
-        <v>0.5034970641136169</v>
+        <v>0.4487707018852234</v>
       </c>
     </row>
     <row r="857">
       <c r="A857" t="n">
-        <v>0.4412629306316376</v>
+        <v>0.7479420900344849</v>
       </c>
     </row>
     <row r="858">
       <c r="A858" t="n">
-        <v>0.9301313161849976</v>
+        <v>0.2921655178070068</v>
       </c>
     </row>
     <row r="859">
       <c r="A859" t="n">
-        <v>0.5467517375946045</v>
+        <v>0.03996483236551285</v>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="n">
-        <v>0.4493205547332764</v>
+        <v>1.128139138221741</v>
       </c>
     </row>
     <row r="861">
       <c r="A861" t="n">
-        <v>0.5311464071273804</v>
+        <v>0.8485374450683594</v>
       </c>
     </row>
     <row r="862">
       <c r="A862" t="n">
-        <v>0.08034934103488922</v>
+        <v>0.3543068170547485</v>
       </c>
     </row>
     <row r="863">
       <c r="A863" t="n">
-        <v>0.2656479477882385</v>
+        <v>0.3370912075042725</v>
       </c>
     </row>
     <row r="864">
       <c r="A864" t="n">
-        <v>0.2818053066730499</v>
+        <v>0.1892004907131195</v>
       </c>
     </row>
     <row r="865">
       <c r="A865" t="n">
-        <v>0.5076266527175903</v>
+        <v>0.5031782388687134</v>
       </c>
     </row>
     <row r="866">
       <c r="A866" t="n">
-        <v>0.2353858798742294</v>
+        <v>0.9965934157371521</v>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="n">
-        <v>0.08642711490392685</v>
+        <v>0.1605699807405472</v>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="n">
-        <v>0.6461959481239319</v>
+        <v>0.5514446496963501</v>
       </c>
     </row>
     <row r="869">
       <c r="A869" t="n">
-        <v>1.013235092163086</v>
+        <v>1.012732148170471</v>
       </c>
     </row>
     <row r="870">
       <c r="A870" t="n">
-        <v>0.4634239971637726</v>
+        <v>0.5302464962005615</v>
       </c>
     </row>
     <row r="871">
       <c r="A871" t="n">
-        <v>0.3693065047264099</v>
+        <v>0.1072845533490181</v>
       </c>
     </row>
     <row r="872">
       <c r="A872" t="n">
-        <v>0.1359891146421432</v>
+        <v>0.6970238089561462</v>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="n">
-        <v>0.898851752281189</v>
+        <v>0.6464688777923584</v>
       </c>
     </row>
     <row r="874">
       <c r="A874" t="n">
-        <v>0.8791848421096802</v>
+        <v>0.2672041654586792</v>
       </c>
     </row>
     <row r="875">
       <c r="A875" t="n">
-        <v>0.5874674320220947</v>
+        <v>0.6319879293441772</v>
       </c>
     </row>
     <row r="876">
       <c r="A876" t="n">
-        <v>0.6635695695877075</v>
+        <v>0.1668521761894226</v>
       </c>
     </row>
     <row r="877">
       <c r="A877" t="n">
-        <v>0.8589549660682678</v>
+        <v>0.463493824005127</v>
       </c>
     </row>
     <row r="878">
       <c r="A878" t="n">
-        <v>0.1182954609394073</v>
+        <v>0.05334838479757309</v>
       </c>
     </row>
     <row r="879">
       <c r="A879" t="n">
-        <v>0.001352012157440186</v>
+        <v>0.8565552234649658</v>
       </c>
     </row>
     <row r="880">
       <c r="A880" t="n">
-        <v>1.064733505249023</v>
+        <v>0.5655713081359863</v>
       </c>
     </row>
     <row r="881">
       <c r="A881" t="n">
-        <v>0.8043445348739624</v>
+        <v>-0.01493486762046814</v>
       </c>
     </row>
     <row r="882">
       <c r="A882" t="n">
-        <v>0.09616589546203613</v>
+        <v>0.6892675161361694</v>
       </c>
     </row>
     <row r="883">
       <c r="A883" t="n">
-        <v>1.176974654197693</v>
+        <v>0.620377242565155</v>
       </c>
     </row>
     <row r="884">
       <c r="A884" t="n">
-        <v>0.1931498497724533</v>
+        <v>0.2197917401790619</v>
       </c>
     </row>
     <row r="885">
       <c r="A885" t="n">
-        <v>0.6671490669250488</v>
+        <v>0.6561716794967651</v>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="n">
-        <v>0.1940295249223709</v>
+        <v>0.7389520406723022</v>
       </c>
     </row>
     <row r="887">
       <c r="A887" t="n">
-        <v>0.404127299785614</v>
+        <v>0.851972222328186</v>
       </c>
     </row>
     <row r="888">
       <c r="A888" t="n">
-        <v>0.8728663325309753</v>
+        <v>0.5420522689819336</v>
       </c>
     </row>
     <row r="889">
       <c r="A889" t="n">
-        <v>0.2614192366600037</v>
+        <v>0.7248386144638062</v>
       </c>
     </row>
     <row r="890">
       <c r="A890" t="n">
-        <v>0.676511287689209</v>
+        <v>0.864982545375824</v>
       </c>
     </row>
     <row r="891">
       <c r="A891" t="n">
-        <v>0.2097733169794083</v>
+        <v>0.4913671612739563</v>
       </c>
     </row>
     <row r="892">
       <c r="A892" t="n">
-        <v>0.1530680656433105</v>
+        <v>0.2423008233308792</v>
       </c>
     </row>
     <row r="893">
       <c r="A893" t="n">
-        <v>0.8172162771224976</v>
+        <v>0.615773618221283</v>
       </c>
     </row>
     <row r="894">
       <c r="A894" t="n">
-        <v>0.4445024132728577</v>
+        <v>0.6573859453201294</v>
       </c>
     </row>
     <row r="895">
       <c r="A895" t="n">
-        <v>0.6037651300430298</v>
+        <v>0.2234744429588318</v>
       </c>
     </row>
     <row r="896">
       <c r="A896" t="n">
-        <v>0.379149466753006</v>
+        <v>0.1140983998775482</v>
       </c>
     </row>
     <row r="897">
       <c r="A897" t="n">
-        <v>0.1487024426460266</v>
+        <v>0.6137048006057739</v>
       </c>
     </row>
     <row r="898">
       <c r="A898" t="n">
-        <v>0.5876272916793823</v>
+        <v>0.3472567200660706</v>
       </c>
     </row>
     <row r="899">
       <c r="A899" t="n">
-        <v>0.3958202004432678</v>
+        <v>0.7151747345924377</v>
       </c>
     </row>
     <row r="900">
       <c r="A900" t="n">
-        <v>1.102330923080444</v>
+        <v>0.197012186050415</v>
       </c>
     </row>
     <row r="901">
       <c r="A901" t="n">
-        <v>0.7047477960586548</v>
+        <v>0.5379272699356079</v>
       </c>
     </row>
     <row r="902">
       <c r="A902" t="n">
-        <v>0.7703206539154053</v>
+        <v>0.2370807230472565</v>
       </c>
     </row>
     <row r="903">
       <c r="A903" t="n">
-        <v>0.5783669948577881</v>
+        <v>0.1324950307607651</v>
       </c>
     </row>
     <row r="904">
       <c r="A904" t="n">
-        <v>0.5965655446052551</v>
+        <v>0.3111428618431091</v>
       </c>
     </row>
     <row r="905">
       <c r="A905" t="n">
-        <v>0.1672290116548538</v>
+        <v>0.3456655740737915</v>
       </c>
     </row>
     <row r="906">
       <c r="A906" t="n">
-        <v>0.7430289387702942</v>
+        <v>0.4660173654556274</v>
       </c>
     </row>
     <row r="907">
       <c r="A907" t="n">
-        <v>0.8438263535499573</v>
+        <v>0.9297822713851929</v>
       </c>
     </row>
     <row r="908">
       <c r="A908" t="n">
-        <v>0.4661535620689392</v>
+        <v>0.6653502583503723</v>
       </c>
     </row>
     <row r="909">
       <c r="A909" t="n">
-        <v>0.6080337762832642</v>
+        <v>0.5400807857513428</v>
       </c>
     </row>
     <row r="910">
       <c r="A910" t="n">
-        <v>0.6732808351516724</v>
+        <v>0.8862460255622864</v>
       </c>
     </row>
     <row r="911">
       <c r="A911" t="n">
-        <v>0.2154661267995834</v>
+        <v>0.4353711009025574</v>
       </c>
     </row>
     <row r="912">
       <c r="A912" t="n">
-        <v>0.09978740662336349</v>
+        <v>0.4464589357376099</v>
       </c>
     </row>
     <row r="913">
       <c r="A913" t="n">
-        <v>0.4159658551216125</v>
+        <v>0.01930440217256546</v>
       </c>
     </row>
     <row r="914">
       <c r="A914" t="n">
-        <v>0.7945151329040527</v>
+        <v>0.7637545466423035</v>
       </c>
     </row>
     <row r="915">
       <c r="A915" t="n">
-        <v>0.55241858959198</v>
+        <v>0.3208628296852112</v>
       </c>
     </row>
     <row r="916">
       <c r="A916" t="n">
-        <v>0.1240539625287056</v>
+        <v>0.4215224385261536</v>
       </c>
     </row>
     <row r="917">
       <c r="A917" t="n">
-        <v>0.7972598075866699</v>
+        <v>1.279856443405151</v>
       </c>
     </row>
     <row r="918">
       <c r="A918" t="n">
-        <v>0.9220309853553772</v>
+        <v>0.4154880046844482</v>
       </c>
     </row>
     <row r="919">
       <c r="A919" t="n">
-        <v>0.5748461484909058</v>
+        <v>0.7990071773529053</v>
       </c>
     </row>
     <row r="920">
       <c r="A920" t="n">
-        <v>0.7704528570175171</v>
+        <v>0.59295254945755</v>
       </c>
     </row>
     <row r="921">
       <c r="A921" t="n">
-        <v>0.5479569435119629</v>
+        <v>0.5244013071060181</v>
       </c>
     </row>
     <row r="922">
       <c r="A922" t="n">
-        <v>0.4382127821445465</v>
+        <v>0.7740025520324707</v>
       </c>
     </row>
     <row r="923">
       <c r="A923" t="n">
-        <v>0.5443254709243774</v>
+        <v>0.2654533386230469</v>
       </c>
     </row>
     <row r="924">
       <c r="A924" t="n">
-        <v>0.486255407333374</v>
+        <v>0.04878712445497513</v>
       </c>
     </row>
     <row r="925">
       <c r="A925" t="n">
-        <v>0.9433555603027344</v>
+        <v>0.4880997538566589</v>
       </c>
     </row>
     <row r="926">
       <c r="A926" t="n">
-        <v>0.6534257531166077</v>
+        <v>0.08218233287334442</v>
       </c>
     </row>
     <row r="927">
       <c r="A927" t="n">
-        <v>0.8980157375335693</v>
+        <v>0.2564781904220581</v>
       </c>
     </row>
     <row r="928">
       <c r="A928" t="n">
-        <v>0.2949221730232239</v>
+        <v>0.6432473659515381</v>
       </c>
     </row>
     <row r="929">
       <c r="A929" t="n">
-        <v>0.8344070911407471</v>
+        <v>0.8365164995193481</v>
       </c>
     </row>
     <row r="930">
       <c r="A930" t="n">
-        <v>0.007435083389282227</v>
+        <v>0.2276476174592972</v>
       </c>
     </row>
     <row r="931">
       <c r="A931" t="n">
-        <v>0.8483806848526001</v>
+        <v>0.8694022297859192</v>
       </c>
     </row>
     <row r="932">
       <c r="A932" t="n">
-        <v>0.7336081862449646</v>
+        <v>-0.2550756335258484</v>
       </c>
     </row>
     <row r="933">
       <c r="A933" t="n">
-        <v>0.4877256751060486</v>
+        <v>0.1435718834400177</v>
       </c>
     </row>
     <row r="934">
       <c r="A934" t="n">
-        <v>0.983143150806427</v>
+        <v>0.4891934990882874</v>
       </c>
     </row>
     <row r="935">
       <c r="A935" t="n">
-        <v>0.8901180028915405</v>
+        <v>0.4991916716098785</v>
       </c>
     </row>
     <row r="936">
       <c r="A936" t="n">
-        <v>0.1990734338760376</v>
+        <v>0.6088210344314575</v>
       </c>
     </row>
     <row r="937">
       <c r="A937" t="n">
-        <v>0.855100154876709</v>
+        <v>0.04906380921602249</v>
       </c>
     </row>
     <row r="938">
       <c r="A938" t="n">
-        <v>1.188866257667542</v>
+        <v>0.7410190105438232</v>
       </c>
     </row>
     <row r="939">
       <c r="A939" t="n">
-        <v>0.9703546762466431</v>
+        <v>0.334851086139679</v>
       </c>
     </row>
     <row r="940">
       <c r="A940" t="n">
-        <v>0.3271521627902985</v>
+        <v>0.4604936242103577</v>
       </c>
     </row>
     <row r="941">
       <c r="A941" t="n">
-        <v>0.4398281574249268</v>
+        <v>-0.05003461986780167</v>
       </c>
     </row>
     <row r="942">
       <c r="A942" t="n">
-        <v>0.2044423073530197</v>
+        <v>0.8737009167671204</v>
       </c>
     </row>
     <row r="943">
       <c r="A943" t="n">
-        <v>0.1250652521848679</v>
+        <v>0.676251232624054</v>
       </c>
     </row>
     <row r="944">
       <c r="A944" t="n">
-        <v>0.9159029722213745</v>
+        <v>0.9223222732543945</v>
       </c>
     </row>
     <row r="945">
       <c r="A945" t="n">
-        <v>-0.06946641951799393</v>
+        <v>0.6052501797676086</v>
       </c>
     </row>
     <row r="946">
       <c r="A946" t="n">
-        <v>0.1311485022306442</v>
+        <v>0.1547569185495377</v>
       </c>
     </row>
     <row r="947">
       <c r="A947" t="n">
-        <v>0.5853763818740845</v>
+        <v>1.00853419303894</v>
       </c>
     </row>
     <row r="948">
       <c r="A948" t="n">
-        <v>0.5733212232589722</v>
+        <v>0.3684522211551666</v>
       </c>
     </row>
     <row r="949">
       <c r="A949" t="n">
-        <v>0.5265561938285828</v>
+        <v>0.4550554752349854</v>
       </c>
     </row>
     <row r="950">
       <c r="A950" t="n">
-        <v>0.4363887012004852</v>
+        <v>0.8745790719985962</v>
       </c>
     </row>
     <row r="951">
       <c r="A951" t="n">
-        <v>0.6508665680885315</v>
+        <v>0.5263782143592834</v>
       </c>
     </row>
     <row r="952">
       <c r="A952" t="n">
-        <v>0.2143816351890564</v>
+        <v>0.525567352771759</v>
       </c>
     </row>
     <row r="953">
       <c r="A953" t="n">
-        <v>0.6063796281814575</v>
+        <v>0.2769314646720886</v>
       </c>
     </row>
     <row r="954">
       <c r="A954" t="n">
-        <v>0.676077663898468</v>
+        <v>0.7005306482315063</v>
       </c>
     </row>
     <row r="955">
       <c r="A955" t="n">
-        <v>0.1835758835077286</v>
+        <v>-0.4097864031791687</v>
       </c>
     </row>
     <row r="956">
       <c r="A956" t="n">
-        <v>1.038500666618347</v>
+        <v>0.266444206237793</v>
       </c>
     </row>
     <row r="957">
       <c r="A957" t="n">
-        <v>0.4971300959587097</v>
+        <v>0.6051307916641235</v>
       </c>
     </row>
     <row r="958">
       <c r="A958" t="n">
-        <v>0.3736124634742737</v>
+        <v>0.03496016561985016</v>
       </c>
     </row>
     <row r="959">
       <c r="A959" t="n">
-        <v>0.7593066692352295</v>
+        <v>1.049369812011719</v>
       </c>
     </row>
     <row r="960">
       <c r="A960" t="n">
-        <v>0.1993950009346008</v>
+        <v>0.2667081356048584</v>
       </c>
     </row>
     <row r="961">
       <c r="A961" t="n">
-        <v>0.1677408516407013</v>
+        <v>0.3196313977241516</v>
       </c>
     </row>
     <row r="962">
       <c r="A962" t="n">
-        <v>0.6174643039703369</v>
+        <v>0.1526003777980804</v>
       </c>
     </row>
     <row r="963">
       <c r="A963" t="n">
-        <v>0.2184371203184128</v>
+        <v>0.9252743721008301</v>
       </c>
     </row>
     <row r="964">
       <c r="A964" t="n">
-        <v>0.09664048254489899</v>
+        <v>0.7540008425712585</v>
       </c>
     </row>
     <row r="965">
       <c r="A965" t="n">
-        <v>0.1181500405073166</v>
+        <v>0.8023625612258911</v>
       </c>
     </row>
     <row r="966">
       <c r="A966" t="n">
-        <v>0.9218609929084778</v>
+        <v>0.6674737930297852</v>
       </c>
     </row>
     <row r="967">
       <c r="A967" t="n">
-        <v>0.6838423609733582</v>
+        <v>0.2423008233308792</v>
       </c>
     </row>
     <row r="968">
       <c r="A968" t="n">
-        <v>0.8383919596672058</v>
+        <v>0.087652787566185</v>
       </c>
     </row>
     <row r="969">
       <c r="A969" t="n">
-        <v>0.768573522567749</v>
+        <v>0.2819999754428864</v>
       </c>
     </row>
     <row r="970">
       <c r="A970" t="n">
-        <v>0.794463038444519</v>
+        <v>0.2388966232538223</v>
       </c>
     </row>
     <row r="971">
       <c r="A971" t="n">
-        <v>0.3468430042266846</v>
+        <v>-0.02016355842351913</v>
       </c>
     </row>
     <row r="972">
       <c r="A972" t="n">
-        <v>0.4849577844142914</v>
+        <v>0.2341204583644867</v>
       </c>
     </row>
     <row r="973">
       <c r="A973" t="n">
-        <v>0.6643932461738586</v>
+        <v>0.8924650549888611</v>
       </c>
     </row>
     <row r="974">
       <c r="A974" t="n">
-        <v>0.1354357898235321</v>
+        <v>0.9736453294754028</v>
       </c>
     </row>
     <row r="975">
       <c r="A975" t="n">
-        <v>0.1614612340927124</v>
+        <v>0.9212921857833862</v>
       </c>
     </row>
     <row r="976">
       <c r="A976" t="n">
-        <v>0.5612850785255432</v>
+        <v>0.03999128937721252</v>
       </c>
     </row>
     <row r="977">
       <c r="A977" t="n">
-        <v>0.1436595618724823</v>
+        <v>0.2737715244293213</v>
       </c>
     </row>
     <row r="978">
       <c r="A978" t="n">
-        <v>0.6439372301101685</v>
+        <v>0.4558278620243073</v>
       </c>
     </row>
     <row r="979">
       <c r="A979" t="n">
-        <v>0.1665119081735611</v>
+        <v>0.9352275729179382</v>
       </c>
     </row>
     <row r="980">
       <c r="A980" t="n">
-        <v>0.46976238489151</v>
+        <v>0.1815198510885239</v>
       </c>
     </row>
     <row r="981">
       <c r="A981" t="n">
-        <v>0.08103504776954651</v>
+        <v>0.2016111761331558</v>
       </c>
     </row>
     <row r="982">
       <c r="A982" t="n">
-        <v>0.1813992708921432</v>
+        <v>0.4984114468097687</v>
       </c>
     </row>
     <row r="983">
       <c r="A983" t="n">
-        <v>0.8499773740768433</v>
+        <v>0.9097312092781067</v>
       </c>
     </row>
     <row r="984">
       <c r="A984" t="n">
-        <v>0.1834539175033569</v>
+        <v>0.1190646514296532</v>
       </c>
     </row>
     <row r="985">
       <c r="A985" t="n">
-        <v>0.3649046421051025</v>
+        <v>0.2179375290870667</v>
       </c>
     </row>
     <row r="986">
       <c r="A986" t="n">
-        <v>0.12650166451931</v>
+        <v>0.2073892951011658</v>
       </c>
     </row>
     <row r="987">
       <c r="A987" t="n">
-        <v>0.4769541621208191</v>
+        <v>0.06391965597867966</v>
       </c>
     </row>
     <row r="988">
       <c r="A988" t="n">
-        <v>-0.01122982054948807</v>
+        <v>0.854214072227478</v>
       </c>
     </row>
     <row r="989">
       <c r="A989" t="n">
-        <v>0.5481481552124023</v>
+        <v>0.4000832736492157</v>
       </c>
     </row>
     <row r="990">
       <c r="A990" t="n">
-        <v>0.1767802089452744</v>
+        <v>0.2083005905151367</v>
       </c>
     </row>
     <row r="991">
       <c r="A991" t="n">
-        <v>0.4314343333244324</v>
+        <v>0.8961898684501648</v>
       </c>
     </row>
     <row r="992">
       <c r="A992" t="n">
-        <v>0.1908827424049377</v>
+        <v>0.09245805442333221</v>
       </c>
     </row>
     <row r="993">
       <c r="A993" t="n">
-        <v>0.4066219925880432</v>
+        <v>-0.1596689522266388</v>
       </c>
     </row>
     <row r="994">
       <c r="A994" t="n">
-        <v>0.5612072348594666</v>
+        <v>0.8727419376373291</v>
       </c>
     </row>
     <row r="995">
       <c r="A995" t="n">
-        <v>0.566425085067749</v>
+        <v>0.4029005169868469</v>
       </c>
     </row>
     <row r="996">
       <c r="A996" t="n">
-        <v>0.5781251192092896</v>
+        <v>0.5108768939971924</v>
       </c>
     </row>
     <row r="997">
       <c r="A997" t="n">
-        <v>0.2329034209251404</v>
+        <v>1.022581338882446</v>
       </c>
     </row>
     <row r="998">
       <c r="A998" t="n">
-        <v>0.6195189356803894</v>
+        <v>0.7681862711906433</v>
       </c>
     </row>
     <row r="999">
       <c r="A999" t="n">
-        <v>0.8063836097717285</v>
+        <v>0.7912855744361877</v>
       </c>
     </row>
     <row r="1000">
       <c r="A1000" t="n">
-        <v>0.2937563061714172</v>
+        <v>0.8962375521659851</v>
       </c>
     </row>
     <row r="1001">
       <c r="A1001" t="n">
-        <v>0.3227741420269012</v>
+        <v>0.3539150059223175</v>
       </c>
     </row>
     <row r="1002">
       <c r="A1002" t="n">
-        <v>1.134877562522888</v>
+        <v>0.527233898639679</v>
       </c>
     </row>
     <row r="1003">
       <c r="A1003" t="n">
-        <v>0.2919774651527405</v>
+        <v>0.7743810415267944</v>
       </c>
     </row>
     <row r="1004">
       <c r="A1004" t="n">
-        <v>0.1421357989311218</v>
+        <v>0.04812075197696686</v>
       </c>
     </row>
     <row r="1005">
       <c r="A1005" t="n">
-        <v>0.3190313577651978</v>
+        <v>0.464515745639801</v>
       </c>
     </row>
     <row r="1006">
       <c r="A1006" t="n">
-        <v>0.4945580065250397</v>
+        <v>0.5530788898468018</v>
       </c>
     </row>
     <row r="1007">
       <c r="A1007" t="n">
-        <v>0.3575468063354492</v>
+        <v>1.017238736152649</v>
       </c>
     </row>
     <row r="1008">
       <c r="A1008" t="n">
-        <v>0.3445090055465698</v>
+        <v>0.191704273223877</v>
       </c>
     </row>
     <row r="1009">
       <c r="A1009" t="n">
-        <v>0.944859504699707</v>
+        <v>0.350152850151062</v>
       </c>
     </row>
     <row r="1010">
       <c r="A1010" t="n">
-        <v>0.5119218230247498</v>
+        <v>-0.01558364927768707</v>
       </c>
     </row>
     <row r="1011">
       <c r="A1011" t="n">
-        <v>0.4117388129234314</v>
+        <v>0.4785062074661255</v>
       </c>
     </row>
     <row r="1012">
       <c r="A1012" t="n">
-        <v>0.5082125663757324</v>
+        <v>0.2439669668674469</v>
       </c>
     </row>
     <row r="1013">
       <c r="A1013" t="n">
-        <v>0.6549504995346069</v>
+        <v>0.3672589957714081</v>
       </c>
     </row>
     <row r="1014">
       <c r="A1014" t="n">
-        <v>0.5062408447265625</v>
+        <v>0.438612699508667</v>
       </c>
     </row>
     <row r="1015">
       <c r="A1015" t="n">
-        <v>0.255042552947998</v>
+        <v>0.05724456161260605</v>
       </c>
     </row>
     <row r="1016">
       <c r="A1016" t="n">
-        <v>1.445321321487427</v>
+        <v>0.02902849018573761</v>
       </c>
     </row>
     <row r="1017">
       <c r="A1017" t="n">
-        <v>0.3278695344924927</v>
+        <v>0.4822692275047302</v>
       </c>
     </row>
     <row r="1018">
       <c r="A1018" t="n">
-        <v>0.6973696947097778</v>
+        <v>0.2675583362579346</v>
       </c>
     </row>
     <row r="1019">
       <c r="A1019" t="n">
-        <v>0.6903790235519409</v>
+        <v>0.08540837466716766</v>
       </c>
     </row>
     <row r="1020">
       <c r="A1020" t="n">
-        <v>0.568696916103363</v>
+        <v>0.5032809972763062</v>
       </c>
     </row>
     <row r="1021">
       <c r="A1021" t="n">
-        <v>0.4943311214447021</v>
+        <v>-0.02704572677612305</v>
       </c>
     </row>
     <row r="1022">
       <c r="A1022" t="n">
-        <v>0.117730051279068</v>
+        <v>-0.07224753499031067</v>
       </c>
     </row>
     <row r="1023">
       <c r="A1023" t="n">
-        <v>0.5902413129806519</v>
+        <v>0.4241039752960205</v>
       </c>
     </row>
     <row r="1024">
       <c r="A1024" t="n">
-        <v>0.6110641956329346</v>
+        <v>0.7466391324996948</v>
       </c>
     </row>
     <row r="1025">
       <c r="A1025" t="n">
-        <v>0.1485461294651031</v>
+        <v>0.6196156740188599</v>
       </c>
     </row>
     <row r="1026">
       <c r="A1026" t="n">
-        <v>0.4569005966186523</v>
+        <v>0.8496824502944946</v>
       </c>
     </row>
     <row r="1027">
       <c r="A1027" t="n">
-        <v>0.2570322155952454</v>
+        <v>0.6073931455612183</v>
       </c>
     </row>
     <row r="1028">
       <c r="A1028" t="n">
-        <v>0.474423885345459</v>
+        <v>0.2479259967803955</v>
       </c>
     </row>
     <row r="1029">
       <c r="A1029" t="n">
-        <v>0.9314028024673462</v>
+        <v>0.1145163550972939</v>
       </c>
     </row>
     <row r="1030">
       <c r="A1030" t="n">
-        <v>0.5149959325790405</v>
+        <v>-0.1054140701889992</v>
       </c>
     </row>
     <row r="1031">
       <c r="A1031" t="n">
-        <v>0.4914506375789642</v>
+        <v>0.476247102022171</v>
       </c>
     </row>
     <row r="1032">
       <c r="A1032" t="n">
-        <v>0.1038278415799141</v>
+        <v>0.01634446531534195</v>
       </c>
     </row>
     <row r="1033">
       <c r="A1033" t="n">
-        <v>1.17697274684906</v>
+        <v>0.5956085920333862</v>
       </c>
     </row>
     <row r="1034">
       <c r="A1034" t="n">
-        <v>0.2788825035095215</v>
+        <v>0.5700258016586304</v>
       </c>
     </row>
     <row r="1035">
       <c r="A1035" t="n">
-        <v>0.233430802822113</v>
+        <v>0.1354672014713287</v>
       </c>
     </row>
     <row r="1036">
       <c r="A1036" t="n">
-        <v>0.4587209522724152</v>
+        <v>-0.0503261461853981</v>
       </c>
     </row>
     <row r="1037">
       <c r="A1037" t="n">
-        <v>0.868241012096405</v>
+        <v>0.3972495794296265</v>
       </c>
     </row>
     <row r="1038">
       <c r="A1038" t="n">
-        <v>0.7612980604171753</v>
+        <v>0.5496988892555237</v>
       </c>
     </row>
     <row r="1039">
       <c r="A1039" t="n">
-        <v>0.2202583849430084</v>
+        <v>0.7786282300949097</v>
       </c>
     </row>
     <row r="1040">
       <c r="A1040" t="n">
-        <v>0.3243975341320038</v>
+        <v>0.1299345344305038</v>
       </c>
     </row>
     <row r="1041">
       <c r="A1041" t="n">
-        <v>0.7633926868438721</v>
+        <v>0.6288323998451233</v>
       </c>
     </row>
     <row r="1042">
       <c r="A1042" t="n">
-        <v>0.1213993728160858</v>
+        <v>0.261784553527832</v>
       </c>
     </row>
     <row r="1043">
       <c r="A1043" t="n">
-        <v>0.3775428831577301</v>
+        <v>0.2077047824859619</v>
       </c>
     </row>
     <row r="1044">
       <c r="A1044" t="n">
-        <v>0.658141016960144</v>
+        <v>0.5244014263153076</v>
       </c>
     </row>
     <row r="1045">
       <c r="A1045" t="n">
-        <v>0.2459155470132828</v>
+        <v>0.6801308393478394</v>
       </c>
     </row>
     <row r="1046">
       <c r="A1046" t="n">
-        <v>0.1556632965803146</v>
+        <v>0.384172260761261</v>
       </c>
     </row>
     <row r="1047">
       <c r="A1047" t="n">
-        <v>0.629254937171936</v>
+        <v>0.1932826191186905</v>
       </c>
     </row>
     <row r="1048">
       <c r="A1048" t="n">
-        <v>1.00471556186676</v>
+        <v>0.3973641395568848</v>
       </c>
     </row>
     <row r="1049">
       <c r="A1049" t="n">
-        <v>0.5354535579681396</v>
+        <v>0.6703876852989197</v>
       </c>
     </row>
     <row r="1050">
       <c r="A1050" t="n">
-        <v>0.3940918147563934</v>
+        <v>0.2066815197467804</v>
       </c>
     </row>
     <row r="1051">
       <c r="A1051" t="n">
-        <v>0.9171335101127625</v>
+        <v>0.3841610550880432</v>
       </c>
     </row>
     <row r="1052">
       <c r="A1052" t="n">
-        <v>0.05337116122245789</v>
+        <v>0.06896620988845825</v>
       </c>
     </row>
     <row r="1053">
       <c r="A1053" t="n">
-        <v>0.1339610517024994</v>
+        <v>0.5499481558799744</v>
       </c>
     </row>
     <row r="1054">
       <c r="A1054" t="n">
-        <v>0.2891000509262085</v>
+        <v>0.2405748963356018</v>
       </c>
     </row>
     <row r="1055">
       <c r="A1055" t="n">
-        <v>0.9322532415390015</v>
+        <v>0.5967817306518555</v>
       </c>
     </row>
     <row r="1056">
       <c r="A1056" t="n">
-        <v>0.4306116104125977</v>
+        <v>0.5132654905319214</v>
       </c>
     </row>
     <row r="1057">
       <c r="A1057" t="n">
-        <v>0.1349859982728958</v>
+        <v>0.3980329036712646</v>
       </c>
     </row>
     <row r="1058">
       <c r="A1058" t="n">
-        <v>0.8348236083984375</v>
+        <v>0.8503351807594299</v>
       </c>
     </row>
     <row r="1059">
       <c r="A1059" t="n">
-        <v>0.4307131171226501</v>
+        <v>0.8719961643218994</v>
       </c>
     </row>
     <row r="1060">
       <c r="A1060" t="n">
-        <v>0.277641773223877</v>
+        <v>0.1823689937591553</v>
       </c>
     </row>
     <row r="1061">
       <c r="A1061" t="n">
-        <v>0.1990301758050919</v>
+        <v>0.335652768611908</v>
       </c>
     </row>
     <row r="1062">
       <c r="A1062" t="n">
-        <v>0.43849977850914</v>
+        <v>1.049772381782532</v>
       </c>
     </row>
     <row r="1063">
       <c r="A1063" t="n">
-        <v>0.4900741875171661</v>
+        <v>0.3236128687858582</v>
       </c>
     </row>
     <row r="1064">
       <c r="A1064" t="n">
-        <v>0.1502773463726044</v>
+        <v>0.5400807857513428</v>
       </c>
     </row>
     <row r="1065">
       <c r="A1065" t="n">
-        <v>0.505012571811676</v>
+        <v>0.421356737613678</v>
       </c>
     </row>
     <row r="1066">
       <c r="A1066" t="n">
-        <v>0.9332834482192993</v>
+        <v>0.7777200937271118</v>
       </c>
     </row>
     <row r="1067">
       <c r="A1067" t="n">
-        <v>0.6234105825424194</v>
+        <v>0.4436832070350647</v>
       </c>
     </row>
     <row r="1068">
       <c r="A1068" t="n">
-        <v>0.4134772419929504</v>
+        <v>0.4739592373371124</v>
       </c>
     </row>
     <row r="1069">
       <c r="A1069" t="n">
-        <v>0.4500466883182526</v>
+        <v>0.5734843611717224</v>
       </c>
     </row>
     <row r="1070">
       <c r="A1070" t="n">
-        <v>0.4613086581230164</v>
+        <v>0.5578641891479492</v>
       </c>
     </row>
     <row r="1071">
       <c r="A1071" t="n">
-        <v>0.4395585954189301</v>
+        <v>0.6261124610900879</v>
       </c>
     </row>
     <row r="1072">
       <c r="A1072" t="n">
-        <v>0.5608034729957581</v>
+        <v>0.912697434425354</v>
       </c>
     </row>
     <row r="1073">
       <c r="A1073" t="n">
-        <v>0.8172365427017212</v>
+        <v>0.5714679956436157</v>
       </c>
     </row>
     <row r="1074">
       <c r="A1074" t="n">
-        <v>0.575005829334259</v>
+        <v>0.5670815706253052</v>
       </c>
     </row>
     <row r="1075">
       <c r="A1075" t="n">
-        <v>0.5174911618232727</v>
+        <v>0.542806088924408</v>
       </c>
     </row>
     <row r="1076">
       <c r="A1076" t="n">
-        <v>0.3061259984970093</v>
+        <v>0.07823720574378967</v>
       </c>
     </row>
     <row r="1077">
       <c r="A1077" t="n">
-        <v>0.174578458070755</v>
+        <v>0.7687797546386719</v>
       </c>
     </row>
     <row r="1078">
       <c r="A1078" t="n">
-        <v>0.1089495047926903</v>
+        <v>-0.09406410157680511</v>
       </c>
     </row>
     <row r="1079">
       <c r="A1079" t="n">
-        <v>0.6521726250648499</v>
+        <v>0.3347055315971375</v>
       </c>
     </row>
     <row r="1080">
       <c r="A1080" t="n">
-        <v>0.3325330317020416</v>
+        <v>0.8106300830841064</v>
       </c>
     </row>
     <row r="1081">
       <c r="A1081" t="n">
-        <v>0.6996588110923767</v>
+        <v>0.1106512919068336</v>
       </c>
     </row>
     <row r="1082">
       <c r="A1082" t="n">
-        <v>0.7003260850906372</v>
+        <v>0.5467225313186646</v>
       </c>
     </row>
     <row r="1083">
       <c r="A1083" t="n">
-        <v>0.8641618490219116</v>
+        <v>0.8184412717819214</v>
       </c>
     </row>
     <row r="1084">
       <c r="A1084" t="n">
-        <v>0.07851093262434006</v>
+        <v>0.1441780179738998</v>
       </c>
     </row>
     <row r="1085">
       <c r="A1085" t="n">
-        <v>0.5519977807998657</v>
+        <v>0.2009587287902832</v>
       </c>
     </row>
     <row r="1086">
       <c r="A1086" t="n">
-        <v>0.2448643445968628</v>
+        <v>-0.04130136966705322</v>
       </c>
     </row>
     <row r="1087">
       <c r="A1087" t="n">
-        <v>0.4781138002872467</v>
+        <v>0.8812078237533569</v>
       </c>
     </row>
     <row r="1088">
       <c r="A1088" t="n">
-        <v>0.11280857026577</v>
+        <v>0.1614644676446915</v>
       </c>
     </row>
     <row r="1089">
       <c r="A1089" t="n">
-        <v>1.011382937431335</v>
+        <v>0.1858082115650177</v>
       </c>
     </row>
     <row r="1090">
       <c r="A1090" t="n">
-        <v>0.4570290446281433</v>
+        <v>0.68033367395401</v>
       </c>
     </row>
     <row r="1091">
       <c r="A1091" t="n">
-        <v>0.4017662107944489</v>
+        <v>0.4401686787605286</v>
       </c>
     </row>
     <row r="1092">
       <c r="A1092" t="n">
-        <v>0.4276274442672729</v>
+        <v>0.8122391104698181</v>
       </c>
     </row>
     <row r="1093">
       <c r="A1093" t="n">
-        <v>0.1595546305179596</v>
+        <v>1.084780216217041</v>
       </c>
     </row>
     <row r="1094">
       <c r="A1094" t="n">
-        <v>0.5044453740119934</v>
+        <v>0.9838306307792664</v>
       </c>
     </row>
     <row r="1095">
       <c r="A1095" t="n">
-        <v>0.6544822454452515</v>
+        <v>0.6736199855804443</v>
       </c>
     </row>
     <row r="1096">
       <c r="A1096" t="n">
-        <v>0.5401734113693237</v>
+        <v>0.4769324064254761</v>
       </c>
     </row>
     <row r="1097">
       <c r="A1097" t="n">
-        <v>0.6728497743606567</v>
+        <v>0.2794452309608459</v>
       </c>
     </row>
     <row r="1098">
       <c r="A1098" t="n">
-        <v>0.8801287412643433</v>
+        <v>0.5669752955436707</v>
       </c>
     </row>
     <row r="1099">
       <c r="A1099" t="n">
-        <v>0.2458247244358063</v>
+        <v>0.7875356674194336</v>
       </c>
     </row>
     <row r="1100">
       <c r="A1100" t="n">
-        <v>0.703538715839386</v>
+        <v>0.1044545844197273</v>
       </c>
     </row>
     <row r="1101">
       <c r="A1101" t="n">
-        <v>0.8172365427017212</v>
+        <v>0.7622612118721008</v>
       </c>
     </row>
     <row r="1102">
       <c r="A1102" t="n">
-        <v>0.6943806409835815</v>
+        <v>0.657819390296936</v>
       </c>
     </row>
     <row r="1103">
       <c r="A1103" t="n">
-        <v>0.2387837320566177</v>
+        <v>0.4024988412857056</v>
       </c>
     </row>
     <row r="1104">
       <c r="A1104" t="n">
-        <v>0.1329422891139984</v>
+        <v>0.4867991805076599</v>
       </c>
     </row>
     <row r="1105">
       <c r="A1105" t="n">
-        <v>0.4840445518493652</v>
+        <v>0.4158279895782471</v>
       </c>
     </row>
     <row r="1106">
       <c r="A1106" t="n">
-        <v>0.4959677457809448</v>
+        <v>-0.1160049587488174</v>
       </c>
     </row>
     <row r="1107">
       <c r="A1107" t="n">
-        <v>0.5686870813369751</v>
+        <v>0.6530773043632507</v>
       </c>
     </row>
     <row r="1108">
       <c r="A1108" t="n">
-        <v>0.4616116285324097</v>
+        <v>0.3786476254463196</v>
       </c>
     </row>
     <row r="1109">
       <c r="A1109" t="n">
-        <v>0.6349668502807617</v>
+        <v>0.5888832807540894</v>
       </c>
     </row>
     <row r="1110">
       <c r="A1110" t="n">
-        <v>0.2716126441955566</v>
+        <v>0.6751905083656311</v>
       </c>
     </row>
     <row r="1111">
       <c r="A1111" t="n">
-        <v>0.3707949817180634</v>
+        <v>0.194389209151268</v>
       </c>
     </row>
     <row r="1112">
       <c r="A1112" t="n">
-        <v>-0.005021534860134125</v>
+        <v>0.4464589953422546</v>
       </c>
     </row>
     <row r="1113">
       <c r="A1113" t="n">
-        <v>0.7842886447906494</v>
+        <v>0.1725844144821167</v>
       </c>
     </row>
     <row r="1114">
       <c r="A1114" t="n">
-        <v>0.527225136756897</v>
+        <v>0.9306776523590088</v>
       </c>
     </row>
     <row r="1115">
       <c r="A1115" t="n">
-        <v>0.7764521837234497</v>
+        <v>0.1138347312808037</v>
       </c>
     </row>
     <row r="1116">
       <c r="A1116" t="n">
-        <v>1.072475790977478</v>
+        <v>0.4203560948371887</v>
       </c>
     </row>
     <row r="1117">
       <c r="A1117" t="n">
-        <v>0.7423399090766907</v>
+        <v>0.49844890832901</v>
       </c>
     </row>
     <row r="1118">
       <c r="A1118" t="n">
-        <v>0.1119069904088974</v>
+        <v>0.3608650267124176</v>
       </c>
     </row>
     <row r="1119">
       <c r="A1119" t="n">
-        <v>0.5845515727996826</v>
+        <v>0.4680049121379852</v>
       </c>
     </row>
     <row r="1120">
       <c r="A1120" t="n">
-        <v>1.026970386505127</v>
+        <v>0.7633376717567444</v>
       </c>
     </row>
     <row r="1121">
       <c r="A1121" t="n">
-        <v>0.8042330145835876</v>
+        <v>0.4270834922790527</v>
       </c>
     </row>
     <row r="1122">
       <c r="A1122" t="n">
-        <v>-0.01666276156902313</v>
+        <v>0.5649344921112061</v>
       </c>
     </row>
     <row r="1123">
       <c r="A1123" t="n">
-        <v>0.6874063014984131</v>
+        <v>1.135362863540649</v>
       </c>
     </row>
     <row r="1124">
       <c r="A1124" t="n">
-        <v>0.2317205220460892</v>
+        <v>0.8887450695037842</v>
       </c>
     </row>
     <row r="1125">
       <c r="A1125" t="n">
-        <v>0.2162531316280365</v>
+        <v>0.05411671102046967</v>
       </c>
     </row>
     <row r="1126">
       <c r="A1126" t="n">
-        <v>0.2788825035095215</v>
+        <v>0.5917990803718567</v>
       </c>
     </row>
     <row r="1127">
       <c r="A1127" t="n">
-        <v>0.4088937044143677</v>
+        <v>0.6177901029586792</v>
       </c>
     </row>
     <row r="1128">
       <c r="A1128" t="n">
-        <v>1.068805575370789</v>
+        <v>0.6314319968223572</v>
       </c>
     </row>
     <row r="1129">
       <c r="A1129" t="n">
-        <v>0.006381288170814514</v>
+        <v>0.06832157075405121</v>
       </c>
     </row>
     <row r="1130">
       <c r="A1130" t="n">
-        <v>0.953870952129364</v>
+        <v>0.2587774395942688</v>
       </c>
     </row>
     <row r="1131">
       <c r="A1131" t="n">
-        <v>0.4785827100276947</v>
+        <v>-0.067539282143116</v>
       </c>
     </row>
     <row r="1132">
       <c r="A1132" t="n">
-        <v>0.5488349199295044</v>
+        <v>-2.335427761077881</v>
       </c>
     </row>
     <row r="1133">
       <c r="A1133" t="n">
-        <v>0.7265617847442627</v>
+        <v>0.7553977966308594</v>
       </c>
     </row>
     <row r="1134">
       <c r="A1134" t="n">
-        <v>0.6723759770393372</v>
+        <v>0.3910546898841858</v>
       </c>
     </row>
     <row r="1135">
       <c r="A1135" t="n">
-        <v>0.795005738735199</v>
+        <v>0.3414183259010315</v>
       </c>
     </row>
     <row r="1136">
       <c r="A1136" t="n">
-        <v>0.455748438835144</v>
+        <v>0.4728400111198425</v>
       </c>
     </row>
     <row r="1137">
       <c r="A1137" t="n">
-        <v>0.1321346163749695</v>
+        <v>0.4017140865325928</v>
       </c>
     </row>
     <row r="1138">
       <c r="A1138" t="n">
-        <v>0.2926205694675446</v>
+        <v>0.6842402219772339</v>
       </c>
     </row>
     <row r="1139">
       <c r="A1139" t="n">
-        <v>0.2317606508731842</v>
+        <v>0.3839254975318909</v>
       </c>
     </row>
     <row r="1140">
       <c r="A1140" t="n">
-        <v>0.7337523698806763</v>
+        <v>0.2143945395946503</v>
       </c>
     </row>
     <row r="1141">
       <c r="A1141" t="n">
-        <v>0.3645940721035004</v>
+        <v>0.3638750314712524</v>
       </c>
     </row>
     <row r="1142">
       <c r="A1142" t="n">
-        <v>0.3789428472518921</v>
+        <v>0.4611102342605591</v>
       </c>
     </row>
     <row r="1143">
       <c r="A1143" t="n">
-        <v>0.8086921572685242</v>
+        <v>0.7400543689727783</v>
       </c>
     </row>
     <row r="1144">
       <c r="A1144" t="n">
-        <v>0.9080577492713928</v>
+        <v>0.9492994546890259</v>
       </c>
     </row>
     <row r="1145">
       <c r="A1145" t="n">
-        <v>0.2296080589294434</v>
+        <v>0.638984739780426</v>
       </c>
     </row>
     <row r="1146">
       <c r="A1146" t="n">
-        <v>0.3698655664920807</v>
+        <v>0.5157523155212402</v>
       </c>
     </row>
     <row r="1147">
       <c r="A1147" t="n">
-        <v>0.7963571548461914</v>
+        <v>0.5408124923706055</v>
       </c>
     </row>
     <row r="1148">
       <c r="A1148" t="n">
-        <v>0.6066346168518066</v>
+        <v>-0.127883568406105</v>
       </c>
     </row>
     <row r="1149">
       <c r="A1149" t="n">
-        <v>0.8442821502685547</v>
+        <v>0.4272661805152893</v>
       </c>
     </row>
     <row r="1150">
       <c r="A1150" t="n">
-        <v>0.1096261143684387</v>
+        <v>0.04415592551231384</v>
       </c>
     </row>
     <row r="1151">
       <c r="A1151" t="n">
-        <v>0.1393965184688568</v>
+        <v>0.6117455959320068</v>
       </c>
     </row>
     <row r="1152">
       <c r="A1152" t="n">
-        <v>-0.01160521060228348</v>
+        <v>0.4536067843437195</v>
       </c>
     </row>
     <row r="1153">
       <c r="A1153" t="n">
-        <v>0.5333362817764282</v>
+        <v>0.5735322237014771</v>
       </c>
     </row>
     <row r="1154">
       <c r="A1154" t="n">
-        <v>1.039346933364868</v>
+        <v>0.689400315284729</v>
       </c>
     </row>
     <row r="1155">
       <c r="A1155" t="n">
-        <v>0.2875999212265015</v>
+        <v>0.3945453763008118</v>
       </c>
     </row>
     <row r="1156">
       <c r="A1156" t="n">
-        <v>0.2353411316871643</v>
+        <v>0.7382744550704956</v>
       </c>
     </row>
     <row r="1157">
       <c r="A1157" t="n">
-        <v>0.2164802551269531</v>
+        <v>0.09264686703681946</v>
       </c>
     </row>
     <row r="1158">
       <c r="A1158" t="n">
-        <v>0.1149892285466194</v>
+        <v>0.8118603825569153</v>
       </c>
     </row>
     <row r="1159">
       <c r="A1159" t="n">
-        <v>0.3686447739601135</v>
+        <v>0.07680726796388626</v>
       </c>
     </row>
     <row r="1160">
       <c r="A1160" t="n">
-        <v>0.247339740395546</v>
+        <v>0.4523262977600098</v>
       </c>
     </row>
     <row r="1161">
       <c r="A1161" t="n">
-        <v>0.06421476602554321</v>
+        <v>0.02149416506290436</v>
       </c>
     </row>
     <row r="1162">
       <c r="A1162" t="n">
-        <v>0.1233936846256256</v>
+        <v>0.421407550573349</v>
       </c>
     </row>
     <row r="1163">
       <c r="A1163" t="n">
-        <v>0.6330077648162842</v>
+        <v>0.2345264256000519</v>
       </c>
     </row>
     <row r="1164">
       <c r="A1164" t="n">
-        <v>0.4464670121669769</v>
+        <v>0.1224301606416702</v>
       </c>
     </row>
     <row r="1165">
       <c r="A1165" t="n">
-        <v>0.1370606124401093</v>
+        <v>0.1716554462909698</v>
       </c>
     </row>
     <row r="1166">
       <c r="A1166" t="n">
-        <v>0.536863386631012</v>
+        <v>1.013870239257812</v>
       </c>
     </row>
     <row r="1167">
       <c r="A1167" t="n">
-        <v>1.063182353973389</v>
+        <v>0.875554084777832</v>
       </c>
     </row>
     <row r="1168">
       <c r="A1168" t="n">
-        <v>0.2092352658510208</v>
+        <v>0.5070780515670776</v>
       </c>
     </row>
     <row r="1169">
       <c r="A1169" t="n">
-        <v>0.1780680269002914</v>
+        <v>0.4998122453689575</v>
       </c>
     </row>
     <row r="1170">
       <c r="A1170" t="n">
-        <v>0.7051857113838196</v>
+        <v>0.1145380288362503</v>
       </c>
     </row>
     <row r="1171">
       <c r="A1171" t="n">
-        <v>0.6112681031227112</v>
+        <v>0.1576925218105316</v>
       </c>
     </row>
     <row r="1172">
       <c r="A1172" t="n">
-        <v>0.1424975395202637</v>
+        <v>0.4581730961799622</v>
       </c>
     </row>
     <row r="1173">
       <c r="A1173" t="n">
-        <v>0.2090849131345749</v>
+        <v>0.6620139479637146</v>
       </c>
     </row>
     <row r="1174">
       <c r="A1174" t="n">
-        <v>0.558645486831665</v>
+        <v>0.388115406036377</v>
       </c>
     </row>
     <row r="1175">
       <c r="A1175" t="n">
-        <v>0.7573971152305603</v>
+        <v>0.3276727199554443</v>
       </c>
     </row>
     <row r="1176">
       <c r="A1176" t="n">
-        <v>0.1825208961963654</v>
+        <v>0.345778226852417</v>
       </c>
     </row>
     <row r="1177">
       <c r="A1177" t="n">
-        <v>1.015820026397705</v>
+        <v>0.6378827095031738</v>
       </c>
     </row>
     <row r="1178">
       <c r="A1178" t="n">
-        <v>0.2870417237281799</v>
+        <v>0.475941002368927</v>
       </c>
     </row>
     <row r="1179">
       <c r="A1179" t="n">
-        <v>0.401813268661499</v>
+        <v>-0.04328738898038864</v>
       </c>
     </row>
     <row r="1180">
       <c r="A1180" t="n">
-        <v>0.7992363572120667</v>
+        <v>0.0912291407585144</v>
       </c>
     </row>
     <row r="1181">
       <c r="A1181" t="n">
-        <v>0.1863455772399902</v>
+        <v>0.4332277476787567</v>
       </c>
     </row>
     <row r="1182">
       <c r="A1182" t="n">
-        <v>0.9139115810394287</v>
+        <v>1.163600444793701</v>
       </c>
     </row>
     <row r="1183">
       <c r="A1183" t="n">
-        <v>0.9708715081214905</v>
+        <v>0.2372194826602936</v>
       </c>
     </row>
     <row r="1184">
       <c r="A1184" t="n">
-        <v>0.5085650682449341</v>
+        <v>0.6373769044876099</v>
       </c>
     </row>
     <row r="1185">
       <c r="A1185" t="n">
-        <v>0.6981524229049683</v>
+        <v>-0.0858161449432373</v>
       </c>
     </row>
     <row r="1186">
       <c r="A1186" t="n">
-        <v>0.4088061451911926</v>
+        <v>0.6762847900390625</v>
       </c>
     </row>
     <row r="1187">
       <c r="A1187" t="n">
-        <v>0.2763096988201141</v>
+        <v>0.3996339440345764</v>
       </c>
     </row>
     <row r="1188">
       <c r="A1188" t="n">
-        <v>0.2478922009468079</v>
+        <v>0.5150529146194458</v>
       </c>
     </row>
     <row r="1189">
       <c r="A1189" t="n">
-        <v>0.7583317756652832</v>
+        <v>0.3095778524875641</v>
       </c>
     </row>
     <row r="1190">
       <c r="A1190" t="n">
-        <v>0.1654108017683029</v>
+        <v>0.2962647080421448</v>
       </c>
     </row>
     <row r="1191">
       <c r="A1191" t="n">
-        <v>0.5025214552879333</v>
+        <v>0.3464279174804688</v>
       </c>
     </row>
     <row r="1192">
       <c r="A1192" t="n">
-        <v>0.5346463322639465</v>
+        <v>-0.06022346019744873</v>
       </c>
     </row>
     <row r="1193">
       <c r="A1193" t="n">
-        <v>0.3636523485183716</v>
+        <v>0.8414547443389893</v>
       </c>
     </row>
     <row r="1194">
       <c r="A1194" t="n">
-        <v>0.1099361628293991</v>
+        <v>0.4232286214828491</v>
       </c>
     </row>
     <row r="1195">
       <c r="A1195" t="n">
-        <v>0.3136523962020874</v>
+        <v>0.0544879212975502</v>
       </c>
     </row>
     <row r="1196">
       <c r="A1196" t="n">
-        <v>0.3211051225662231</v>
+        <v>0.6229575872421265</v>
       </c>
     </row>
     <row r="1197">
       <c r="A1197" t="n">
-        <v>0.8258694410324097</v>
+        <v>0.963044285774231</v>
       </c>
     </row>
     <row r="1198">
       <c r="A1198" t="n">
-        <v>0.1435793340206146</v>
+        <v>0.3399259448051453</v>
       </c>
     </row>
     <row r="1199">
       <c r="A1199" t="n">
-        <v>0.8288462162017822</v>
+        <v>-0.09841280430555344</v>
       </c>
     </row>
     <row r="1200">
       <c r="A1200" t="n">
-        <v>0.2231400609016418</v>
+        <v>0.3432187438011169</v>
       </c>
     </row>
     <row r="1201">
       <c r="A1201" t="n">
-        <v>0.4879159331321716</v>
+        <v>0.5253363251686096</v>
       </c>
     </row>
     <row r="1202">
       <c r="A1202" t="n">
-        <v>0.1761544197797775</v>
+        <v>0.7763131260871887</v>
       </c>
     </row>
     <row r="1203">
       <c r="A1203" t="n">
-        <v>0.1314555406570435</v>
+        <v>0.1852127015590668</v>
       </c>
     </row>
     <row r="1204">
       <c r="A1204" t="n">
-        <v>0.1221162229776382</v>
+        <v>0.2003743648529053</v>
       </c>
     </row>
     <row r="1205">
       <c r="A1205" t="n">
-        <v>0.8748507499694824</v>
+        <v>0.3824185132980347</v>
       </c>
     </row>
     <row r="1206">
       <c r="A1206" t="n">
-        <v>0.1709015667438507</v>
+        <v>0.4728374481201172</v>
       </c>
     </row>
     <row r="1207">
       <c r="A1207" t="n">
-        <v>0.6717175245285034</v>
+        <v>0.1316578686237335</v>
       </c>
     </row>
     <row r="1208">
       <c r="A1208" t="n">
-        <v>0.3951020836830139</v>
+        <v>0.41365647315979</v>
       </c>
     </row>
     <row r="1209">
       <c r="A1209" t="n">
-        <v>0.7022901773452759</v>
+        <v>0.7632400989532471</v>
       </c>
     </row>
     <row r="1210">
       <c r="A1210" t="n">
-        <v>0.7902546525001526</v>
+        <v>0.663501501083374</v>
       </c>
     </row>
     <row r="1211">
       <c r="A1211" t="n">
-        <v>0.4120709896087646</v>
+        <v>1.01447582244873</v>
       </c>
     </row>
     <row r="1212">
       <c r="A1212" t="n">
-        <v>0.5082141757011414</v>
+        <v>0.3639234900474548</v>
       </c>
     </row>
     <row r="1213">
       <c r="A1213" t="n">
-        <v>1.12392520904541</v>
+        <v>0.4469165802001953</v>
       </c>
     </row>
     <row r="1214">
       <c r="A1214" t="n">
-        <v>-0.01016202569007874</v>
+        <v>0.4053881168365479</v>
       </c>
     </row>
     <row r="1215">
       <c r="A1215" t="n">
-        <v>0.2447336167097092</v>
+        <v>0.5305341482162476</v>
       </c>
     </row>
     <row r="1216">
       <c r="A1216" t="n">
-        <v>0.9126185178756714</v>
+        <v>0.2582496404647827</v>
       </c>
     </row>
     <row r="1217">
       <c r="A1217" t="n">
-        <v>0.1054770424962044</v>
+        <v>0.7285834550857544</v>
       </c>
     </row>
     <row r="1218">
       <c r="A1218" t="n">
-        <v>0.4184472858905792</v>
+        <v>0.5081059336662292</v>
       </c>
     </row>
     <row r="1219">
       <c r="A1219" t="n">
-        <v>0.2169094383716583</v>
+        <v>0.9458673000335693</v>
       </c>
     </row>
     <row r="1220">
       <c r="A1220" t="n">
-        <v>0.6600410938262939</v>
+        <v>0.3031145930290222</v>
       </c>
     </row>
     <row r="1221">
       <c r="A1221" t="n">
-        <v>0.8232572078704834</v>
+        <v>0.3238602876663208</v>
       </c>
     </row>
     <row r="1222">
       <c r="A1222" t="n">
-        <v>0.4553677439689636</v>
+        <v>0.8400523662567139</v>
       </c>
     </row>
     <row r="1223">
       <c r="A1223" t="n">
-        <v>0.450595885515213</v>
+        <v>0.2893872559070587</v>
       </c>
     </row>
     <row r="1224">
       <c r="A1224" t="n">
-        <v>1.056809425354004</v>
+        <v>0.07050018012523651</v>
       </c>
     </row>
     <row r="1225">
       <c r="A1225" t="n">
-        <v>0.8427643179893494</v>
+        <v>0.5055879950523376</v>
       </c>
     </row>
     <row r="1226">
       <c r="A1226" t="n">
-        <v>0.04235805571079254</v>
+        <v>0.3229289650917053</v>
       </c>
     </row>
     <row r="1227">
       <c r="A1227" t="n">
-        <v>0.3697257936000824</v>
+        <v>0.1549524515867233</v>
       </c>
     </row>
     <row r="1228">
       <c r="A1228" t="n">
-        <v>0.3780277669429779</v>
+        <v>0.2329392433166504</v>
       </c>
     </row>
     <row r="1229">
       <c r="A1229" t="n">
-        <v>0.6594329476356506</v>
+        <v>0.07033367455005646</v>
       </c>
     </row>
     <row r="1230">
       <c r="A1230" t="n">
-        <v>0.3986052870750427</v>
+        <v>0.761077344417572</v>
       </c>
     </row>
     <row r="1231">
       <c r="A1231" t="n">
-        <v>0.1143302023410797</v>
+        <v>0.2610138058662415</v>
       </c>
     </row>
     <row r="1232">
       <c r="A1232" t="n">
-        <v>0.3777507543563843</v>
+        <v>0.2623888254165649</v>
       </c>
     </row>
     <row r="1233">
       <c r="A1233" t="n">
-        <v>0.7296662330627441</v>
+        <v>0.6676962971687317</v>
       </c>
     </row>
     <row r="1234">
       <c r="A1234" t="n">
-        <v>1.224459052085876</v>
+        <v>0.3989837765693665</v>
       </c>
     </row>
     <row r="1235">
       <c r="A1235" t="n">
-        <v>0.3418581485748291</v>
+        <v>0.9536927342414856</v>
       </c>
     </row>
     <row r="1236">
       <c r="A1236" t="n">
-        <v>0.2363308668136597</v>
+        <v>0.3439344763755798</v>
       </c>
     </row>
     <row r="1237">
       <c r="A1237" t="n">
-        <v>0.1617400348186493</v>
+        <v>0.01668952405452728</v>
       </c>
     </row>
     <row r="1238">
       <c r="A1238" t="n">
-        <v>0.3884099721908569</v>
+        <v>-0.1685005873441696</v>
       </c>
     </row>
     <row r="1239">
       <c r="A1239" t="n">
-        <v>0.4977657198905945</v>
+        <v>0.2975667417049408</v>
       </c>
     </row>
     <row r="1240">
       <c r="A1240" t="n">
-        <v>0.5280970335006714</v>
+        <v>0.709551990032196</v>
       </c>
     </row>
     <row r="1241">
       <c r="A1241" t="n">
-        <v>0.1094205975532532</v>
+        <v>0.1670892536640167</v>
       </c>
     </row>
     <row r="1242">
       <c r="A1242" t="n">
-        <v>0.4722836315631866</v>
+        <v>0.2971479296684265</v>
       </c>
     </row>
     <row r="1243">
       <c r="A1243" t="n">
-        <v>0.7296662330627441</v>
+        <v>0.1853705048561096</v>
       </c>
     </row>
     <row r="1244">
       <c r="A1244" t="n">
-        <v>0.7565821409225464</v>
+        <v>0.1983291208744049</v>
       </c>
     </row>
     <row r="1245">
       <c r="A1245" t="n">
-        <v>0.451361209154129</v>
+        <v>0.5026997923851013</v>
       </c>
     </row>
     <row r="1246">
       <c r="A1246" t="n">
-        <v>0.4568595886230469</v>
+        <v>0.9587383270263672</v>
       </c>
     </row>
     <row r="1247">
       <c r="A1247" t="n">
-        <v>0.06221193075180054</v>
+        <v>0.03381621837615967</v>
       </c>
     </row>
     <row r="1248">
       <c r="A1248" t="n">
-        <v>0.3981982469558716</v>
+        <v>0.4354300200939178</v>
       </c>
     </row>
     <row r="1249">
       <c r="A1249" t="n">
-        <v>0.1534547656774521</v>
+        <v>0.9959139227867126</v>
       </c>
     </row>
     <row r="1250">
       <c r="A1250" t="n">
-        <v>0.439593106508255</v>
+        <v>0.4837068617343903</v>
       </c>
     </row>
     <row r="1251">
       <c r="A1251" t="n">
-        <v>1.030007600784302</v>
+        <v>0.7777026891708374</v>
       </c>
     </row>
     <row r="1252">
       <c r="A1252" t="n">
-        <v>0.5120053291320801</v>
+        <v>0.5748195052146912</v>
       </c>
     </row>
     <row r="1253">
       <c r="A1253" t="n">
-        <v>0.7663066387176514</v>
+        <v>0.316100150346756</v>
       </c>
     </row>
     <row r="1254">
       <c r="A1254" t="n">
-        <v>0.4661535620689392</v>
+        <v>0.5358375906944275</v>
       </c>
     </row>
     <row r="1255">
       <c r="A1255" t="n">
-        <v>0.1116921305656433</v>
+        <v>0.7914230227470398</v>
       </c>
     </row>
     <row r="1256">
       <c r="A1256" t="n">
-        <v>0.8848119378089905</v>
+        <v>0.9423682689666748</v>
       </c>
     </row>
     <row r="1257">
       <c r="A1257" t="n">
-        <v>0.3088887333869934</v>
+        <v>0.30362668633461</v>
       </c>
     </row>
     <row r="1258">
       <c r="A1258" t="n">
-        <v>0.1742411106824875</v>
+        <v>0.6082062125205994</v>
       </c>
     </row>
     <row r="1259">
       <c r="A1259" t="n">
-        <v>0.1693845093250275</v>
+        <v>0.9764581918716431</v>
       </c>
     </row>
     <row r="1260">
       <c r="A1260" t="n">
-        <v>0.6355213522911072</v>
+        <v>0.741774320602417</v>
       </c>
     </row>
     <row r="1261">
       <c r="A1261" t="n">
-        <v>0.1884845346212387</v>
+        <v>0.777534008026123</v>
       </c>
     </row>
     <row r="1262">
       <c r="A1262" t="n">
-        <v>0.9789755344390869</v>
+        <v>1.33648681640625</v>
       </c>
     </row>
     <row r="1263">
       <c r="A1263" t="n">
-        <v>0.04531772434711456</v>
+        <v>0.4128170609474182</v>
       </c>
     </row>
     <row r="1264">
       <c r="A1264" t="n">
-        <v>0.3709336817264557</v>
+        <v>0.6111546754837036</v>
       </c>
     </row>
     <row r="1265">
       <c r="A1265" t="n">
-        <v>0.07306644320487976</v>
+        <v>1.212409734725952</v>
       </c>
     </row>
     <row r="1266">
       <c r="A1266" t="n">
-        <v>0.4128594398498535</v>
+        <v>0.4558278620243073</v>
       </c>
     </row>
     <row r="1267">
       <c r="A1267" t="n">
-        <v>0.4959351718425751</v>
+        <v>-0.06968730688095093</v>
       </c>
     </row>
     <row r="1268">
       <c r="A1268" t="n">
-        <v>0.6077628135681152</v>
+        <v>1.163731932640076</v>
       </c>
     </row>
     <row r="1269">
       <c r="A1269" t="n">
-        <v>0.6179623007774353</v>
+        <v>0.467960000038147</v>
       </c>
     </row>
     <row r="1270">
       <c r="A1270" t="n">
-        <v>0.1463441103696823</v>
+        <v>0.182747557759285</v>
       </c>
     </row>
     <row r="1271">
       <c r="A1271" t="n">
-        <v>0.2166147530078888</v>
+        <v>0.139156699180603</v>
       </c>
     </row>
     <row r="1272">
       <c r="A1272" t="n">
-        <v>0.2530553340911865</v>
+        <v>0.5310288071632385</v>
       </c>
     </row>
     <row r="1273">
       <c r="A1273" t="n">
-        <v>0.05255797505378723</v>
+        <v>0.333979606628418</v>
       </c>
     </row>
     <row r="1274">
       <c r="A1274" t="n">
-        <v>0.511508584022522</v>
+        <v>0.02283618599176407</v>
       </c>
     </row>
     <row r="1275">
       <c r="A1275" t="n">
-        <v>0.2928575575351715</v>
+        <v>0.2089651823043823</v>
       </c>
     </row>
     <row r="1276">
       <c r="A1276" t="n">
-        <v>1.025968790054321</v>
+        <v>0.2235013991594315</v>
       </c>
     </row>
     <row r="1277">
       <c r="A1277" t="n">
-        <v>0.6553313136100769</v>
+        <v>0.2971239387989044</v>
       </c>
     </row>
     <row r="1278">
       <c r="A1278" t="n">
-        <v>0.539948582649231</v>
+        <v>0.4760062694549561</v>
       </c>
     </row>
     <row r="1279">
       <c r="A1279" t="n">
-        <v>0.7511206269264221</v>
+        <v>0.9119763970375061</v>
       </c>
     </row>
     <row r="1280">
       <c r="A1280" t="n">
-        <v>0.1336844116449356</v>
+        <v>0.3637406826019287</v>
       </c>
     </row>
     <row r="1281">
       <c r="A1281" t="n">
-        <v>0.224443256855011</v>
+        <v>0.2406746298074722</v>
       </c>
     </row>
     <row r="1282">
       <c r="A1282" t="n">
-        <v>0.8967854976654053</v>
+        <v>0.1560779213905334</v>
       </c>
     </row>
     <row r="1283">
       <c r="A1283" t="n">
-        <v>0.6968628168106079</v>
+        <v>0.2770686745643616</v>
       </c>
     </row>
     <row r="1284">
       <c r="A1284" t="n">
-        <v>0.2721471190452576</v>
+        <v>0.2738853693008423</v>
       </c>
     </row>
     <row r="1285">
       <c r="A1285" t="n">
-        <v>0.2284576147794724</v>
+        <v>0.8468238115310669</v>
       </c>
     </row>
     <row r="1286">
       <c r="A1286" t="n">
-        <v>0.0445481613278389</v>
+        <v>0.3943244814872742</v>
       </c>
     </row>
     <row r="1287">
       <c r="A1287" t="n">
-        <v>0.677955150604248</v>
+        <v>0.7578006386756897</v>
       </c>
     </row>
     <row r="1288">
       <c r="A1288" t="n">
-        <v>0.4722496867179871</v>
+        <v>0.8170371651649475</v>
       </c>
     </row>
     <row r="1289">
       <c r="A1289" t="n">
-        <v>0.5273544192314148</v>
+        <v>0.2133744657039642</v>
       </c>
     </row>
     <row r="1290">
       <c r="A1290" t="n">
-        <v>0.410379946231842</v>
+        <v>0.4136564135551453</v>
       </c>
     </row>
     <row r="1291">
       <c r="A1291" t="n">
-        <v>0.3800129592418671</v>
+        <v>0.5554792881011963</v>
       </c>
     </row>
     <row r="1292">
       <c r="A1292" t="n">
-        <v>-0.1114129722118378</v>
+        <v>0.02876926213502884</v>
       </c>
     </row>
     <row r="1293">
       <c r="A1293" t="n">
-        <v>0.2194704115390778</v>
+        <v>0.2570159137248993</v>
       </c>
     </row>
     <row r="1294">
       <c r="A1294" t="n">
-        <v>0.5337024331092834</v>
+        <v>0.9644602537155151</v>
       </c>
     </row>
   </sheetData>

--- a/output/oof_predictions.xlsx
+++ b/output/oof_predictions.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="mlp" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="resnet" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="transformer" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -22052,4 +22053,6495 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1294"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>predictions</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.08356986939907074</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.2881019115447998</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.8496898412704468</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.8725976943969727</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1.073325872421265</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.33598792552948</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.245430514216423</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.8669973611831665</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.2753309309482574</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.07133802771568298</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.1552308648824692</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.2227995246648788</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.3541099429130554</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.1746412664651871</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.5191574096679688</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.5136280655860901</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.6818406581878662</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.8367697596549988</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.4408113658428192</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.1439874768257141</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1.04820442199707</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.9966776371002197</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.5071119666099548</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.1810228824615479</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.4322196245193481</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.4863479733467102</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.1674345135688782</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.9670548439025879</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.3217391967773438</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.2699437141418457</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.8601349592208862</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.4627887606620789</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.3164829313755035</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.8600485920906067</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.1727986633777618</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.3201775252819061</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.3500223755836487</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.4760493040084839</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.57892906665802</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.1625826358795166</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0.1566489636898041</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.5156530141830444</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0.7859109044075012</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0.2459065020084381</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0.3063060343265533</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0.574104368686676</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>0.9524084329605103</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>0.8783333301544189</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0.7778927683830261</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0.3834373950958252</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0.3982219099998474</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.7189385294914246</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0.2018800228834152</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.6108049750328064</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0.6515032052993774</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0.5858810544013977</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0.1799578964710236</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0.1137589439749718</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0.5454832315444946</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0.8658366203308105</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0.466183602809906</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1.086440086364746</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0.2310646176338196</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0.2321387827396393</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1.02349066734314</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0.07952739298343658</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>0.5393260717391968</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0.4796720147132874</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>0.2205120176076889</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>0.693836510181427</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1.021043300628662</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>0.3420628011226654</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>0.2520937621593475</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>0.1088462918996811</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>0.6298017501831055</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>0.5592267513275146</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>0.7850181460380554</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>0.9046818614006042</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>0.9108777642250061</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>0.2030994892120361</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>0.49910968542099</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>0.9621642827987671</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>0.310933530330658</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>0.4580058455467224</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0.4655967950820923</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>0.6566299796104431</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0.46497642993927</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0.8577579855918884</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>0.1894933134317398</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>0.3085173964500427</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>0.2242094576358795</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>0.1301754713058472</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>0.8650549054145813</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>0.2182396203279495</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>0.1020570546388626</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>0.5069230198860168</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>1.035616397857666</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>1.007173776626587</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>0.5174387693405151</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>0.1252432614564896</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>0.4651794731616974</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>0.9453809261322021</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>0.4300455749034882</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0.2852069735527039</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0.5550669431686401</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0.4137852787971497</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0.04117146134376526</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0.7814960479736328</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0.2710257768630981</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0.3793811798095703</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0.3478578329086304</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0.09023129940032959</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0.5910303592681885</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0.2503391802310944</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0.488189160823822</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0.8665156960487366</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0.06575487554073334</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0.592900812625885</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0.2919250130653381</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0.1181503012776375</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0.506244957447052</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>0.1865178346633911</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>0.3799100518226624</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0.4911466240882874</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>-0.1089998036623001</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0.2938410043716431</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0.2473683655261993</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0.4823142886161804</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>0.1676093637943268</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0.1004058122634888</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>0.306354820728302</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>0.3051297664642334</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0.5269176363945007</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0.951903760433197</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0.1910861134529114</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0.4454891383647919</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0.2104985862970352</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0.2971324622631073</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>0.4827820062637329</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0.5382542014122009</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0.9183279275894165</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>0.01966190338134766</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>0.1189220398664474</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>1.021277666091919</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>0.5128693580627441</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>0.7222481369972229</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0.9119049906730652</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>0.8417721390724182</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>0.3450528681278229</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>0.2327457070350647</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0.6697827577590942</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>0.1739816963672638</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>1.022480607032776</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>0.2292149811983109</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>0.2440832555294037</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0.8712326288223267</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>0.3631508350372314</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>0.1788821220397949</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>0.2624513208866119</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0.6639288663864136</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>0.362867146730423</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0.1952534168958664</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0.5835052728652954</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0.7171673774719238</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0.4374834299087524</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0.3058269023895264</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0.1779588609933853</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0.03492851555347443</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0.9337959885597229</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0.1953702121973038</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0.6573596000671387</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0.7199891209602356</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0.81179279088974</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0.7030029296875</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0.2589768171310425</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0.08307987451553345</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0.1143614202737808</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>0.5521316528320312</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>0.3916505575180054</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>0.8468936085700989</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>0.1600100547075272</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>0.1713116466999054</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>0.651903510093689</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>0.3560607135295868</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>0.3133722543716431</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>0.07395021617412567</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>0.1630086451768875</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>0.840695321559906</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>1.043704152107239</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>0.8036323189735413</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>0.1592653840780258</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>0.3215431571006775</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>0.577692449092865</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>0.1827923655509949</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>0.4855280220508575</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>0.3046896457672119</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>0.231847807765007</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>0.1578299999237061</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>0.929206907749176</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>0.8726965188980103</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>0.9222908616065979</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>0.1738962978124619</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>0.564085841178894</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>0.554057776927948</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>0.2027482092380524</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>0.2097592651844025</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>0.5901600122451782</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>0.803864598274231</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>0.5183210968971252</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>0.3112162053585052</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>0.5708873271942139</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>0.8640872836112976</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>0.2885435223579407</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>1.059093475341797</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>0.134437084197998</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>0.06173139810562134</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>0.1540031731128693</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>0.8744164705276489</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>0.8721684813499451</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>0.8387484550476074</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>0.1731194853782654</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>0.4972583055496216</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>0.3865290880203247</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>0.8935663104057312</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>0.3072024583816528</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>0.598921000957489</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>0.9904372096061707</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>0.7856566309928894</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>0.2312984615564346</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>0.1833365261554718</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>0.9482823610305786</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>0.2525271773338318</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>0.6938803195953369</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>0.2735948860645294</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>0.6719186305999756</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>0.4479728937149048</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>0.6319326758384705</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>0.2854290008544922</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>0.3035791516304016</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>0.6045600771903992</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>0.7100289463996887</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>0.2232869863510132</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>0.03293672204017639</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>0.1982386112213135</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>0.3782240748405457</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>0.3577465713024139</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>0.3602248728275299</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>0.3112280368804932</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>0.771604597568512</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>0.9404105544090271</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>0.8369778394699097</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>0.3616899251937866</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>0.1867725849151611</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>0.6718502640724182</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>0.8849800825119019</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>0.3447898328304291</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>0.6758236885070801</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>0.8506198525428772</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>0.3573991358280182</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>0.1545255035161972</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>0.8255466222763062</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>0.8309063315391541</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>0.1734531223773956</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>0.8607112765312195</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>0.8826526999473572</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>0.2412261664867401</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>0.1068390309810638</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>0.248954102396965</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>0.1749751418828964</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>0.5603743195533752</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>0.8916193246841431</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>0.9604907631874084</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>0.2027601450681686</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>0.8491449952125549</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>0.5853109359741211</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>0.219422772526741</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>0.1622726023197174</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>0.6785979270935059</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>0.8394716382026672</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>0.3439171314239502</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>1.150100469589233</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>0.3653607666492462</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>0.8216845393180847</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>0.6268969178199768</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>0.1585504561662674</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>0.0008030533790588379</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>0.1574147790670395</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>0.06460870802402496</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>0.7472398281097412</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>0.5246766805648804</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>0.2070505917072296</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>1.0580735206604</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>0.7084869146347046</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>0.3312965631484985</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>0.8268884420394897</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>0.2631840705871582</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>0.5265038013458252</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>0.8296085000038147</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>0.1212364360690117</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>0.1341080516576767</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>0.08157487213611603</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>0.3063561320304871</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>0.4239257276058197</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>0.1675621867179871</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>0.5016367435455322</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>0.1175605729222298</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>0.2787226438522339</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>1.017884492874146</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>0.4597780108451843</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>0.1509737968444824</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>0.6695636510848999</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>0.3114568293094635</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>0.9744734764099121</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>0.2414633333683014</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>0.4516659379005432</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>0.506546676158905</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>0.3770113587379456</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>0.4127399921417236</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>0.5187053680419922</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>0.7347331643104553</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>0.1568436026573181</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>0.06537267565727234</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>1.000080704689026</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>0.3990224897861481</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>0.5890445113182068</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>0.3253534436225891</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>0.9102265238761902</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>0.1080429255962372</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>0.6433412432670593</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>0.9941899180412292</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>0.1913380324840546</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>0.7263692021369934</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>0.9558095932006836</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>0.1046155989170074</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>0.4138598442077637</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>0.531627893447876</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>0.6548271775245667</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>0.1845432370901108</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>0.9068837761878967</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>0.2968731820583344</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>0.0727476179599762</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>0.8193587064743042</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>0.2048434764146805</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>0.1687079519033432</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>0.7177988290786743</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>0.4493035972118378</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>0.6624507308006287</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>0.08157107979059219</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>0.847308874130249</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>0.287580668926239</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>0.836418092250824</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>0.151677668094635</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>0.863360583782196</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>0.4441264271736145</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>0.7995122671127319</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>0.5091981887817383</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>0.6654583215713501</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>0.4901168644428253</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>0.1386047601699829</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>0.2684798240661621</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>0.624620258808136</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>0.139688104391098</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>0.6570737957954407</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>0.521703839302063</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>0.5886198878288269</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>0.3675975203514099</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>0.1921708285808563</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>0.3299768567085266</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>0.2613419890403748</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>0.08672170341014862</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>0.5812831521034241</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>0.3352285027503967</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>0.2512854933738708</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>0.2940659523010254</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>0.2655453085899353</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>1.04392409324646</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>0.5279227495193481</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>0.9062920212745667</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>0.5069230198860168</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>0.9652270078659058</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>0.08861283957958221</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>0.7242966294288635</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>0.6245231032371521</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>0.8183712959289551</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>0.3542567193508148</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>0.1477678716182709</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>0.2159403115510941</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>0.9579095244407654</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>0.8501599431037903</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>0.13618503510952</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>0.5508962273597717</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>0.1458514928817749</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>0.8264740705490112</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>0.7945361137390137</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>0.1006655097007751</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>0.06982891261577606</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>0.4698745012283325</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>0.384225606918335</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>0.1609943360090256</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>0.2822346091270447</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>0.4485085904598236</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>0.729466438293457</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>0.1753246486186981</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>0.5718713402748108</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>0.1949810683727264</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>0.5874975919723511</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>0.8696699142456055</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>0.9452601075172424</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>0.2511429190635681</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>0.1268238872289658</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>0.3765888810157776</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>0.298067569732666</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>0.5863538980484009</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>0.1755500882863998</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>0.4510284662246704</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>0.04047420620918274</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>0.5914313793182373</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>0.3524468839168549</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>0.4591374397277832</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>0.1385945379734039</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>0.7012100219726562</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>0.8705117702484131</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>0.2010630965232849</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>0.03257310390472412</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>-0.06118637323379517</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>0.3072124123573303</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>0.3639987111091614</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>0.5774272680282593</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>0.6656450033187866</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>0.8602083921432495</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>0.3088180720806122</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>0.0216217041015625</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>0.251441478729248</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>0.6061345338821411</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>0.2796184420585632</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>0.9714527726173401</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>0.4717842936515808</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>0.8696699142456055</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>0.2644984722137451</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>0.02077367901802063</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>0.4404395222663879</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>0.2068732976913452</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>0.9204761385917664</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>0.188199058175087</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>0.3131107091903687</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>0.1590187251567841</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>0.0023355633020401</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>0.1799008250236511</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>0.1155304089188576</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>0.9389728903770447</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>0.3241099119186401</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>0.2714382410049438</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>0.1121271923184395</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>0.2595852017402649</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>0.2106453627347946</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>0.4725847542285919</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>0.236164852976799</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>1.011923551559448</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>0.2316825687885284</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>0.2708152234554291</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>0.4056254625320435</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>0.3290961980819702</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>0.6484822034835815</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>0.8251035809516907</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>0.3086923062801361</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>0.08738230168819427</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>0.7702401280403137</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>0.4591031670570374</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>0.1614653468132019</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>0.306206077337265</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>0.3691554665565491</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>0.4670689105987549</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>0.9724569320678711</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>0.252838134765625</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>1.019966959953308</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>0.7562845349311829</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>0.3013061285018921</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>0.1672362983226776</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>0.6796568632125854</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>0.2282353639602661</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>0.1842624098062515</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>0.6982139348983765</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>0.5624018907546997</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>0.2584842443466187</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>0.181308388710022</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>0.364912360906601</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>0.117860846221447</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>0.6704639792442322</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>0.1974567770957947</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>0.4294622540473938</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>0.5709649920463562</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>0.1980096101760864</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>0.4699141085147858</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>0.05750018358230591</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>0.19523586332798</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>0.3792150318622589</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>0.2929016351699829</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>0.8436267375946045</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>0.695588231086731</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>0.1533288061618805</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>0.6057716608047485</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>0.393111914396286</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="n">
+        <v>1.022683382034302</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>0.13299860060215</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="n">
+        <v>0.6326814293861389</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="n">
+        <v>0.6072264313697815</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="n">
+        <v>0.6692017316818237</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="n">
+        <v>0.8357977271080017</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="n">
+        <v>0.5955291986465454</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="n">
+        <v>0.7510244250297546</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>0.5949893593788147</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>0.1363411396741867</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>0.6105114221572876</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>0.4272847771644592</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>0.02548572421073914</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>0.7009856104850769</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>0.4526162147521973</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="n">
+        <v>0.7808710336685181</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="n">
+        <v>0.1894614100456238</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="n">
+        <v>0.6688173413276672</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="n">
+        <v>0.3663966059684753</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="n">
+        <v>0.07640461623668671</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="n">
+        <v>0.4845685958862305</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="n">
+        <v>0.3613855540752411</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="n">
+        <v>0.9079497456550598</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="n">
+        <v>0.157524436712265</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="n">
+        <v>0.180968165397644</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="n">
+        <v>0.9604009985923767</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="n">
+        <v>0.8636741042137146</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="n">
+        <v>0.6027072072029114</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="n">
+        <v>0.2531633973121643</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>0.6519153714179993</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="n">
+        <v>0.8459956049919128</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="n">
+        <v>0.01782064139842987</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="n">
+        <v>0.02055364847183228</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>0.2805162072181702</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="n">
+        <v>0.1096018701791763</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="n">
+        <v>0.7972738742828369</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="n">
+        <v>0.3564399480819702</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="n">
+        <v>0.9232226014137268</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="n">
+        <v>0.2333446443080902</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="n">
+        <v>0.8744050860404968</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="n">
+        <v>1.055657744407654</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="n">
+        <v>0.8078001141548157</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="n">
+        <v>0.1021157950162888</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="n">
+        <v>0.8783333301544189</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="n">
+        <v>0.787039577960968</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="n">
+        <v>0.9282480478286743</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="n">
+        <v>0.1954129040241241</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="n">
+        <v>0.4986215233802795</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="n">
+        <v>0.4869131743907928</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="n">
+        <v>0.111587718129158</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="n">
+        <v>0.792003333568573</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="n">
+        <v>0.8375847339630127</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="n">
+        <v>0.201058954000473</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="n">
+        <v>0.8127868175506592</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="n">
+        <v>0.1665754318237305</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="n">
+        <v>0.212394580245018</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="n">
+        <v>0.1527968794107437</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="n">
+        <v>0.5222042202949524</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="n">
+        <v>0.4420332312583923</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="n">
+        <v>0.1557929068803787</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="n">
+        <v>0.2176682651042938</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="n">
+        <v>0.156509056687355</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="n">
+        <v>0.967962920665741</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="n">
+        <v>0.5809874534606934</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="n">
+        <v>0.169738382101059</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="n">
+        <v>0.2886365652084351</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="n">
+        <v>0.2676622867584229</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="n">
+        <v>0.1260976791381836</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="n">
+        <v>0.6666523814201355</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="n">
+        <v>0.1055419370532036</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="n">
+        <v>0.3873485922813416</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="n">
+        <v>0.1600697487592697</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="n">
+        <v>0.2463242560625076</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="n">
+        <v>0.2199353575706482</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="n">
+        <v>0.3769488930702209</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="n">
+        <v>0.5389676094055176</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="n">
+        <v>0.7529707551002502</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="n">
+        <v>0.07377031445503235</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="n">
+        <v>0.06338505446910858</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="n">
+        <v>0.3657284379005432</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="n">
+        <v>0.05542561411857605</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="n">
+        <v>0.08981746435165405</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="n">
+        <v>0.1634787023067474</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="n">
+        <v>0.2953546345233917</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="n">
+        <v>0.4085195064544678</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="n">
+        <v>0.2963629364967346</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="n">
+        <v>0.8279898166656494</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="n">
+        <v>0.8492907881736755</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="n">
+        <v>1.099489688873291</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="n">
+        <v>0.3782013654708862</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="n">
+        <v>0.2583358883857727</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="n">
+        <v>0.1206468939781189</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="n">
+        <v>0.06043291091918945</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="n">
+        <v>0.4946256875991821</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="n">
+        <v>0.002428203821182251</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="n">
+        <v>0.2510058283805847</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="n">
+        <v>0.1474755108356476</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="n">
+        <v>0.8292256593704224</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="n">
+        <v>0.9541379809379578</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="n">
+        <v>0.9121989011764526</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="n">
+        <v>0.200331911444664</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="n">
+        <v>0.6246071457862854</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="n">
+        <v>0.8072203993797302</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="n">
+        <v>0.1015915870666504</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="n">
+        <v>0.06342434883117676</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="n">
+        <v>0.5718129277229309</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="n">
+        <v>0.4368522167205811</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="n">
+        <v>0.2223812639713287</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="n">
+        <v>-0.03654831647872925</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="n">
+        <v>0.2932122349739075</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="n">
+        <v>0.1774725466966629</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="n">
+        <v>0.6331596970558167</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="n">
+        <v>0.1324398666620255</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="n">
+        <v>0.2204851061105728</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="n">
+        <v>0.1415983587503433</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="n">
+        <v>0.7084869146347046</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="n">
+        <v>0.899306058883667</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="n">
+        <v>0.08137719333171844</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="n">
+        <v>0.4516342878341675</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="n">
+        <v>0.03079727292060852</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="n">
+        <v>0.2500171959400177</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="n">
+        <v>0.728497326374054</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="n">
+        <v>0.3647157251834869</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="n">
+        <v>0.6451938152313232</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="n">
+        <v>0.2929927706718445</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="n">
+        <v>0.5766399502754211</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="n">
+        <v>0.1143780052661896</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="n">
+        <v>0.1635740399360657</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="n">
+        <v>0.2075665593147278</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="n">
+        <v>0.6291577816009521</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="n">
+        <v>1.012736201286316</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="n">
+        <v>0.4439283609390259</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="n">
+        <v>0.7222481369972229</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="n">
+        <v>0.05017538368701935</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="n">
+        <v>0.6678014397621155</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="n">
+        <v>0.6591902375221252</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="n">
+        <v>0.1820088028907776</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="n">
+        <v>0.4683057367801666</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="n">
+        <v>0.2181459069252014</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="n">
+        <v>0.1142566502094269</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="n">
+        <v>0.1410049200057983</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="n">
+        <v>0.5105355381965637</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="n">
+        <v>0.08448033034801483</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="n">
+        <v>0.2167747616767883</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="n">
+        <v>0.8256087899208069</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="n">
+        <v>0.1746412664651871</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="n">
+        <v>0.27269047498703</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="n">
+        <v>0.1730927079916</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="n">
+        <v>0.05523616075515747</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="n">
+        <v>0.2674115896224976</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="n">
+        <v>0.8537095189094543</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="n">
+        <v>0.9541003108024597</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="n">
+        <v>0.8354707360267639</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="n">
+        <v>0.2128275334835052</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="n">
+        <v>0.1583236008882523</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="n">
+        <v>0.2794702053070068</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="n">
+        <v>0.3494759500026703</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="n">
+        <v>0.1762340813875198</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="n">
+        <v>0.2643771171569824</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="n">
+        <v>0.5584673285484314</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="n">
+        <v>0.3804234862327576</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="n">
+        <v>0.3449648022651672</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="n">
+        <v>0.8779454827308655</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="n">
+        <v>0.1624465584754944</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="n">
+        <v>0.7963945269584656</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="n">
+        <v>0.1905495077371597</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="n">
+        <v>0.05570220947265625</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="n">
+        <v>0.4817092418670654</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="n">
+        <v>0.6181180477142334</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="n">
+        <v>0.03695642948150635</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="n">
+        <v>0.4313451051712036</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="n">
+        <v>0.3959026038646698</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="n">
+        <v>0.3947442770004272</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="n">
+        <v>0.8594732880592346</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="n">
+        <v>0.8491449952125549</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="n">
+        <v>0.2862484455108643</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="n">
+        <v>0.1705260574817657</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="n">
+        <v>0.5819687843322754</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="n">
+        <v>0.9880145192146301</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="n">
+        <v>0.1971436142921448</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="n">
+        <v>0.09511370956897736</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="n">
+        <v>0.4164743423461914</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="n">
+        <v>0.1108081489801407</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="n">
+        <v>0.5625898241996765</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="n">
+        <v>0.2571989297866821</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="n">
+        <v>0.3363970816135406</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="n">
+        <v>0.1935179829597473</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="n">
+        <v>0.06604625284671783</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="n">
+        <v>0.0916668176651001</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="n">
+        <v>0.2881509065628052</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="n">
+        <v>0.1553315222263336</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="n">
+        <v>0.07660099864006042</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="n">
+        <v>0.07150059193372726</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="n">
+        <v>0.8302586078643799</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="n">
+        <v>0.5914313793182373</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="n">
+        <v>0.1106406971812248</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="n">
+        <v>0.5277499556541443</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="n">
+        <v>0.9258599281311035</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="n">
+        <v>0.0881405845284462</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="n">
+        <v>0.1590610146522522</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="n">
+        <v>0.3933009505271912</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="n">
+        <v>0.5801421403884888</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="n">
+        <v>0.1011966913938522</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="n">
+        <v>1.024714946746826</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="n">
+        <v>-0.0109378844499588</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="n">
+        <v>0.06209135055541992</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="n">
+        <v>0.3441176116466522</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="n">
+        <v>0.6415752172470093</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="n">
+        <v>0.9391960501670837</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="n">
+        <v>0.4677271246910095</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="n">
+        <v>0.1316641718149185</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="n">
+        <v>0.1532430201768875</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="n">
+        <v>0.1602301895618439</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="n">
+        <v>0.1534910202026367</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="n">
+        <v>0.5970490574836731</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="n">
+        <v>0.8475677967071533</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="n">
+        <v>0.200331911444664</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="n">
+        <v>0.5149258971214294</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="n">
+        <v>0.2075665593147278</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="n">
+        <v>0.07032571732997894</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="n">
+        <v>0.1796117722988129</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="n">
+        <v>0.2214944213628769</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="n">
+        <v>0.1258150637149811</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="n">
+        <v>0.3906281888484955</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="n">
+        <v>0.3412168622016907</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="n">
+        <v>0.1583584696054459</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="n">
+        <v>0.4967707991600037</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="n">
+        <v>0.2878298759460449</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="n">
+        <v>0.364224910736084</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="n">
+        <v>0.07162190228700638</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="n">
+        <v>0.8397128582000732</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="n">
+        <v>0.1812276989221573</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="n">
+        <v>-0.02892737090587616</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="n">
+        <v>1.123900294303894</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="n">
+        <v>0.4500861167907715</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="n">
+        <v>-0.009166359901428223</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="n">
+        <v>0.5480496287345886</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="n">
+        <v>0.9419263005256653</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="n">
+        <v>0.202756866812706</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="n">
+        <v>0.5715710520744324</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="n">
+        <v>0.5971206426620483</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="n">
+        <v>0.5356383919715881</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="n">
+        <v>0.1463299989700317</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="n">
+        <v>1.03047251701355</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="n">
+        <v>0.5279496908187866</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="n">
+        <v>0.4482877254486084</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="n">
+        <v>0.1578320264816284</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="n">
+        <v>0.6342616081237793</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="n">
+        <v>0.1043405383825302</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="n">
+        <v>0.4874201118946075</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="n">
+        <v>0.002428203821182251</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="n">
+        <v>0.2473683655261993</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="n">
+        <v>0.1480802595615387</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="n">
+        <v>0.07358131557703018</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="n">
+        <v>0.4779097437858582</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="n">
+        <v>0.2409694939851761</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="n">
+        <v>0.2497454285621643</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="n">
+        <v>0.3537226617336273</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="n">
+        <v>0.1391827911138535</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="n">
+        <v>0.8309326767921448</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="n">
+        <v>0.8309063315391541</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="n">
+        <v>0.2731564044952393</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="n">
+        <v>0.6096263527870178</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="n">
+        <v>0.1638967543840408</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="n">
+        <v>0.1966113299131393</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="n">
+        <v>0.1842397153377533</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="n">
+        <v>0.350452184677124</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="n">
+        <v>0.3437139987945557</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="n">
+        <v>0.1059247255325317</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="n">
+        <v>0.1690667569637299</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="n">
+        <v>0.1595851182937622</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="n">
+        <v>0.3229237198829651</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="n">
+        <v>0.5028815269470215</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="n">
+        <v>0.8014518022537231</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="n">
+        <v>1.023600220680237</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="n">
+        <v>0.1831639260053635</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="n">
+        <v>0.7280524969100952</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="n">
+        <v>0.7768601775169373</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="n">
+        <v>-0.03675681352615356</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="n">
+        <v>0.2255683988332748</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="n">
+        <v>0.131029412150383</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="n">
+        <v>0.5067256093025208</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="n">
+        <v>0.4648984670639038</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="n">
+        <v>0.3572565019130707</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="n">
+        <v>0.1643340587615967</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="n">
+        <v>0.2955655455589294</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="n">
+        <v>0.6277073621749878</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="n">
+        <v>0.9546584486961365</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="n">
+        <v>0.6801769137382507</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="n">
+        <v>0.2617436647415161</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="n">
+        <v>0.351823627948761</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="n">
+        <v>0.2313728332519531</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="n">
+        <v>0.1754073053598404</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="n">
+        <v>0.662595808506012</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="n">
+        <v>0.09538689255714417</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="n">
+        <v>0.6736697554588318</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="n">
+        <v>0.5058795213699341</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="n">
+        <v>0.838749885559082</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="n">
+        <v>0.207192063331604</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="n">
+        <v>0.220172107219696</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="n">
+        <v>0.1843532025814056</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="n">
+        <v>0.4257421791553497</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="n">
+        <v>0.446883887052536</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="n">
+        <v>0.8632085919380188</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="n">
+        <v>0.2488902807235718</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="n">
+        <v>0.223854660987854</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="n">
+        <v>0.5355677604675293</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="n">
+        <v>0.08191734552383423</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="n">
+        <v>0.2216110378503799</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="n">
+        <v>0.9402139186859131</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="n">
+        <v>0.2955246865749359</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="n">
+        <v>0.7339941263198853</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="n">
+        <v>0.1387995928525925</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="n">
+        <v>0.173475369811058</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="n">
+        <v>0.1901168823242188</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="n">
+        <v>0.261435866355896</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="n">
+        <v>0.9586692452430725</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="n">
+        <v>0.2413152903318405</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="n">
+        <v>0.1749217212200165</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="n">
+        <v>1.023047685623169</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="n">
+        <v>0.194225937128067</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="n">
+        <v>0.6448477506637573</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="n">
+        <v>0.3965480923652649</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="n">
+        <v>0.3192356824874878</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="n">
+        <v>0.1784339398145676</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="n">
+        <v>0.468514621257782</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="n">
+        <v>1.017785668373108</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="n">
+        <v>0.07190725207328796</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="n">
+        <v>0.8664492964744568</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="n">
+        <v>0.1807385385036469</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="n">
+        <v>0.4348951876163483</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="n">
+        <v>0.4548377990722656</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="n">
+        <v>0.3871821165084839</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="n">
+        <v>0.1842919886112213</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="n">
+        <v>0.09266535937786102</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="n">
+        <v>0.2941352128982544</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="n">
+        <v>0.2330039739608765</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="n">
+        <v>0.1680455505847931</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="n">
+        <v>0.6892522573471069</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="n">
+        <v>0.1413641571998596</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="n">
+        <v>0.5165925621986389</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="n">
+        <v>0.8494722247123718</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="n">
+        <v>0.9935152530670166</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="n">
+        <v>0.7327425479888916</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="n">
+        <v>0.08845961093902588</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="n">
+        <v>0.1016821935772896</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="n">
+        <v>0.9355606436729431</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="n">
+        <v>0.8642045259475708</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="n">
+        <v>0.05635389685630798</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="n">
+        <v>0.5059351325035095</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="n">
+        <v>0.396196722984314</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="n">
+        <v>0.1052355393767357</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="n">
+        <v>0.6328385472297668</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="n">
+        <v>0.8114256858825684</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="n">
+        <v>0.5188271403312683</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="n">
+        <v>0.1557093560695648</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="n">
+        <v>1.001509189605713</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="n">
+        <v>0.9311951994895935</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="n">
+        <v>0.2699732780456543</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="n">
+        <v>0.3367236256599426</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="n">
+        <v>0.07305119186639786</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="n">
+        <v>1.000659823417664</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="n">
+        <v>0.7240939140319824</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="n">
+        <v>0.07072418928146362</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="n">
+        <v>0.4663428664207458</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="n">
+        <v>0.9735010862350464</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="n">
+        <v>0.5246925354003906</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="n">
+        <v>0.1669423282146454</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="n">
+        <v>0.382499486207962</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="n">
+        <v>0.7024818062782288</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="n">
+        <v>0.2770018875598907</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="n">
+        <v>0.1546487212181091</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="n">
+        <v>0.08058212697505951</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="n">
+        <v>0.8432593941688538</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="n">
+        <v>0.1456376016139984</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="n">
+        <v>0.2078576982021332</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="n">
+        <v>0.3429457545280457</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="n">
+        <v>0.1275177001953125</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="n">
+        <v>0.8165818452835083</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="n">
+        <v>0.5803719758987427</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="n">
+        <v>0.1700925230979919</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="n">
+        <v>0.6526368856430054</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="n">
+        <v>0.8071867227554321</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="n">
+        <v>0.9884846806526184</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="n">
+        <v>0.28109011054039</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="n">
+        <v>0.5809488296508789</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="n">
+        <v>0.2089542150497437</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="n">
+        <v>0.1777219623327255</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="n">
+        <v>0.7125568389892578</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="n">
+        <v>0.1775613874197006</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="n">
+        <v>0.9150044918060303</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="n">
+        <v>0.2223812639713287</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="n">
+        <v>0.1665345430374146</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="n">
+        <v>0.9593638777732849</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="n">
+        <v>0.1227949410676956</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="n">
+        <v>0.8980936408042908</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="n">
+        <v>0.2443651109933853</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="n">
+        <v>0.5391606688499451</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="n">
+        <v>0.103939563035965</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="n">
+        <v>0.1015042513608932</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="n">
+        <v>0.2852008938789368</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="n">
+        <v>0.1283567696809769</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="n">
+        <v>-0.05868256092071533</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="n">
+        <v>1.02707850933075</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="n">
+        <v>0.4843630492687225</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="n">
+        <v>0.9781827330589294</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="n">
+        <v>0.7678837180137634</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="n">
+        <v>0.1963276267051697</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="n">
+        <v>0.347885936498642</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="n">
+        <v>0.1473075449466705</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="n">
+        <v>0.8110764622688293</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="n">
+        <v>0.1692893803119659</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="n">
+        <v>0.5110623836517334</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="n">
+        <v>0.8665156960487366</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="n">
+        <v>0.3717749714851379</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="n">
+        <v>0.7442407011985779</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="n">
+        <v>0.7953411340713501</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="n">
+        <v>0.3901025652885437</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="n">
+        <v>0.7452811002731323</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="n">
+        <v>0.4750034213066101</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="n">
+        <v>0.1210310533642769</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="n">
+        <v>0.391273021697998</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="n">
+        <v>0.09452543407678604</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="n">
+        <v>0.1413240432739258</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="n">
+        <v>0.5031218528747559</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="n">
+        <v>0.8396894335746765</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="n">
+        <v>0.369350254535675</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="n">
+        <v>0.9107754230499268</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="n">
+        <v>0.3192267715930939</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="n">
+        <v>0.2014201432466507</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="n">
+        <v>0.5330087542533875</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="n">
+        <v>0.3792150318622589</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="n">
+        <v>0.7407351136207581</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="n">
+        <v>0.659463107585907</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="n">
+        <v>0.9006109833717346</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="n">
+        <v>0.3683584630489349</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="n">
+        <v>0.3822160065174103</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="n">
+        <v>-0.0004681646823883057</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="n">
+        <v>0.9252542853355408</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="n">
+        <v>0.7569300532341003</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="n">
+        <v>1.007887125015259</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="n">
+        <v>0.510952353477478</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="n">
+        <v>0.1780891716480255</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="n">
+        <v>0.9624511003494263</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="n">
+        <v>0.4223043024539948</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="n">
+        <v>0.2869000732898712</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="n">
+        <v>0.06493788957595825</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="n">
+        <v>0.5100670456886292</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="n">
+        <v>0.5371357798576355</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="n">
+        <v>0.1566826701164246</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="n">
+        <v>-0.03030750155448914</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="n">
+        <v>0.3136015236377716</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="n">
+        <v>0.3255181312561035</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="n">
+        <v>0.8634147047996521</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="n">
+        <v>0.1584387570619583</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="n">
+        <v>0.90423583984375</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="n">
+        <v>0.1984231621026993</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="n">
+        <v>0.5960266590118408</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="n">
+        <v>0.152162104845047</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="n">
+        <v>0.8918022513389587</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="n">
+        <v>0.8175671100616455</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="n">
+        <v>0.8599587082862854</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="n">
+        <v>0.7515338659286499</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="n">
+        <v>0.7125568389892578</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="n">
+        <v>0.3680209219455719</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="n">
+        <v>0.2210927605628967</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="n">
+        <v>0.3759927451610565</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="n">
+        <v>0.02803294360637665</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="n">
+        <v>-0.06366395950317383</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="n">
+        <v>0.5365097522735596</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="n">
+        <v>0.8746688961982727</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="n">
+        <v>0.8601349592208862</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="n">
+        <v>0.1564275920391083</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="n">
+        <v>0.3712306022644043</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="n">
+        <v>0.4751600325107574</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="n">
+        <v>0.9463137984275818</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="n">
+        <v>0.19179967045784</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="n">
+        <v>0.1687894016504288</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="n">
+        <v>0.5228177905082703</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="n">
+        <v>0.9606642127037048</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="n">
+        <v>0.1108798682689667</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="n">
+        <v>0.1558706164360046</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="n">
+        <v>0.6854693293571472</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="n">
+        <v>0.064022496342659</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="n">
+        <v>0.2511770725250244</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="n">
+        <v>0.2579347491264343</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="n">
+        <v>0.1633988618850708</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="n">
+        <v>0.8503121733665466</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="n">
+        <v>0.1850314438343048</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="n">
+        <v>0.07357639074325562</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="n">
+        <v>0.86457759141922</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="n">
+        <v>0.3368705809116364</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="n">
+        <v>0.7332735657691956</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="n">
+        <v>0.4039115011692047</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="n">
+        <v>0.8876322507858276</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="n">
+        <v>0.799515426158905</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="n">
+        <v>0.9020481705665588</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="n">
+        <v>0.3125389516353607</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="n">
+        <v>0.6630954742431641</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="n">
+        <v>0.6806476712226868</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="n">
+        <v>0.1157189011573792</v>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="n">
+        <v>0.3361364603042603</v>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="n">
+        <v>0.6682981252670288</v>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="n">
+        <v>0.7383796572685242</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="n">
+        <v>0.4698454737663269</v>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="n">
+        <v>0.3918372988700867</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="n">
+        <v>0.08157607913017273</v>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="n">
+        <v>0.5216650366783142</v>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="n">
+        <v>0.4340279102325439</v>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="n">
+        <v>0.2193460017442703</v>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="n">
+        <v>0.1824853420257568</v>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="n">
+        <v>0.1057653427124023</v>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="n">
+        <v>0.1934183537960052</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="n">
+        <v>0.3735973536968231</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="n">
+        <v>0.4277907609939575</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="n">
+        <v>0.1329322755336761</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="n">
+        <v>0.3832761943340302</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="n">
+        <v>0.2685391306877136</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="n">
+        <v>0.1319187581539154</v>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="n">
+        <v>0.4201598167419434</v>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="n">
+        <v>0.619560182094574</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="n">
+        <v>0.8201266527175903</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="n">
+        <v>1.025277614593506</v>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="n">
+        <v>0.7103762626647949</v>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="n">
+        <v>0.2308995872735977</v>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="n">
+        <v>0.152933731675148</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="n">
+        <v>0.2566749155521393</v>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="n">
+        <v>0.280135452747345</v>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="n">
+        <v>0.2032337188720703</v>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="n">
+        <v>0.4906455278396606</v>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="n">
+        <v>0.5369898080825806</v>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="n">
+        <v>0.3219747543334961</v>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="n">
+        <v>0.8796148300170898</v>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="n">
+        <v>0.505037784576416</v>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="n">
+        <v>0.4893543124198914</v>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="n">
+        <v>0.3663314580917358</v>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="n">
+        <v>0.1901688277721405</v>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="n">
+        <v>0.7345459461212158</v>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="n">
+        <v>-0.04256829619407654</v>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="n">
+        <v>0.2474935948848724</v>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="n">
+        <v>0.3901025652885437</v>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="n">
+        <v>0.5711421370506287</v>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="n">
+        <v>0.386542946100235</v>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="n">
+        <v>0.5953653454780579</v>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="n">
+        <v>0.05432772636413574</v>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="n">
+        <v>0.6877744197845459</v>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="n">
+        <v>0.3584305346012115</v>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="n">
+        <v>0.5243232846260071</v>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="n">
+        <v>0.08157492429018021</v>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="n">
+        <v>0.3056052625179291</v>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="n">
+        <v>0.1186480447649956</v>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="n">
+        <v>0.8284690380096436</v>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="n">
+        <v>0.5445030927658081</v>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="n">
+        <v>0.1793576180934906</v>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="n">
+        <v>0.9222908616065979</v>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="n">
+        <v>0.2955641150474548</v>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="n">
+        <v>0.5445904731750488</v>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="n">
+        <v>0.3213543295860291</v>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="n">
+        <v>0.9737576842308044</v>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="n">
+        <v>0.634312629699707</v>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="n">
+        <v>0.9781827330589294</v>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="n">
+        <v>0.2481966912746429</v>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="n">
+        <v>0.5835201144218445</v>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="n">
+        <v>0.06981419771909714</v>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="n">
+        <v>0.3407633900642395</v>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="n">
+        <v>0.6551845669746399</v>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="n">
+        <v>0.479014128446579</v>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="n">
+        <v>0.5795108079910278</v>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="n">
+        <v>0.7278478145599365</v>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="n">
+        <v>0.5403335094451904</v>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="n">
+        <v>0.3429149687290192</v>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="n">
+        <v>0.6050019264221191</v>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="n">
+        <v>0.1242570802569389</v>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="n">
+        <v>0.6295945644378662</v>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="n">
+        <v>0.1585364192724228</v>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="n">
+        <v>0.1448993235826492</v>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="n">
+        <v>1.077420115470886</v>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="n">
+        <v>0.1946058571338654</v>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="n">
+        <v>0.7276456952095032</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="n">
+        <v>0.8591209053993225</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="n">
+        <v>0.1754706501960754</v>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="n">
+        <v>0.2076221853494644</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="n">
+        <v>0.1352320611476898</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="n">
+        <v>0.6590491533279419</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="n">
+        <v>0.2479889392852783</v>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="n">
+        <v>0.1753063946962357</v>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="n">
+        <v>0.987103283405304</v>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="n">
+        <v>0.6026148796081543</v>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="n">
+        <v>0.872373640537262</v>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="n">
+        <v>0.9316731095314026</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="n">
+        <v>0.9158754944801331</v>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="n">
+        <v>0.7145904898643494</v>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="n">
+        <v>0.3690447807312012</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="n">
+        <v>0.1610416173934937</v>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="n">
+        <v>0.3531703054904938</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="n">
+        <v>0.6361182332038879</v>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="n">
+        <v>0.09174026548862457</v>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="n">
+        <v>0.7864753603935242</v>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="n">
+        <v>0.5594941973686218</v>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="n">
+        <v>0.5735419392585754</v>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="n">
+        <v>0.6231099367141724</v>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="n">
+        <v>0.5848219394683838</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="n">
+        <v>0.2617636322975159</v>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="n">
+        <v>0.7073522210121155</v>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="n">
+        <v>0.5197067856788635</v>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="n">
+        <v>0.1075489297509193</v>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="n">
+        <v>0.5361618399620056</v>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="n">
+        <v>0.7115070223808289</v>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="n">
+        <v>0.347885936498642</v>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="n">
+        <v>0.01872026920318604</v>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="n">
+        <v>1.004344582557678</v>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="n">
+        <v>0.1633431911468506</v>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="n">
+        <v>0.5105370283126831</v>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="n">
+        <v>0.663190484046936</v>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" t="n">
+        <v>0.2331898212432861</v>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" t="n">
+        <v>0.7749839425086975</v>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" t="n">
+        <v>0.1607549488544464</v>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" t="n">
+        <v>0.2396729290485382</v>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" t="n">
+        <v>0.4869897067546844</v>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" t="n">
+        <v>0.7499476671218872</v>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="n">
+        <v>0.7988483309745789</v>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="n">
+        <v>0.1634395718574524</v>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" t="n">
+        <v>0.5456852316856384</v>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" t="n">
+        <v>0.1804032623767853</v>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" t="n">
+        <v>0.6940843462944031</v>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="n">
+        <v>0.1294362097978592</v>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" t="n">
+        <v>0.3738712668418884</v>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" t="n">
+        <v>0.6938263773918152</v>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="n">
+        <v>0.1873662769794464</v>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="n">
+        <v>0.7570265531539917</v>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="n">
+        <v>0.475994348526001</v>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" t="n">
+        <v>0.4070429503917694</v>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" t="n">
+        <v>0.4710447490215302</v>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" t="n">
+        <v>0.7104301452636719</v>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" t="n">
+        <v>0.1819081902503967</v>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" t="n">
+        <v>0.1923924386501312</v>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" t="n">
+        <v>0.4652726650238037</v>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" t="n">
+        <v>0.2561123073101044</v>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" t="n">
+        <v>0.43934565782547</v>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" t="n">
+        <v>0.6698541641235352</v>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="n">
+        <v>0.8442581295967102</v>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" t="n">
+        <v>0.7361072301864624</v>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="n">
+        <v>0.5040824413299561</v>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="n">
+        <v>0.690610945224762</v>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" t="n">
+        <v>0.1691163182258606</v>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" t="n">
+        <v>0.3285240828990936</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="n">
+        <v>-0.08106021583080292</v>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="n">
+        <v>0.4906331598758698</v>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" t="n">
+        <v>0.6715492010116577</v>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" t="n">
+        <v>0.4087451994419098</v>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" t="n">
+        <v>0.6685554981231689</v>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" t="n">
+        <v>0.3970953524112701</v>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" t="n">
+        <v>0.8298538327217102</v>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" t="n">
+        <v>0.2992291450500488</v>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" t="n">
+        <v>0.5694846510887146</v>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" t="n">
+        <v>0.1054577529430389</v>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" t="n">
+        <v>0.4782639145851135</v>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" t="n">
+        <v>0.1091717779636383</v>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" t="n">
+        <v>0.3864113092422485</v>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="n">
+        <v>0.201058954000473</v>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="n">
+        <v>0.1708712875843048</v>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="n">
+        <v>0.1600100547075272</v>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" t="n">
+        <v>0.05304062366485596</v>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="n">
+        <v>0.6294155120849609</v>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" t="n">
+        <v>0.3874742090702057</v>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" t="n">
+        <v>0.8737198710441589</v>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" t="n">
+        <v>0.1820010393857956</v>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171" t="n">
+        <v>0.04821081459522247</v>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" t="n">
+        <v>0.1893033236265182</v>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" t="n">
+        <v>0.5594741702079773</v>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" t="n">
+        <v>0.2565777897834778</v>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" t="n">
+        <v>0.5754282474517822</v>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" t="n">
+        <v>0.4332633018493652</v>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" t="n">
+        <v>0.4784286320209503</v>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" t="n">
+        <v>0.7170453667640686</v>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" t="n">
+        <v>0.1512195765972137</v>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" t="n">
+        <v>0.0396486222743988</v>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181" t="n">
+        <v>0.2160253375768661</v>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182" t="n">
+        <v>0.9262701869010925</v>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183" t="n">
+        <v>0.2162317335605621</v>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" t="n">
+        <v>0.4005555212497711</v>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" t="n">
+        <v>0.1460704207420349</v>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" t="n">
+        <v>0.6441313624382019</v>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" t="n">
+        <v>0.3575838804244995</v>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188" t="n">
+        <v>0.54815673828125</v>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189" t="n">
+        <v>0.6163457632064819</v>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" t="n">
+        <v>0.2146859169006348</v>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" t="n">
+        <v>0.2652608454227448</v>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" t="n">
+        <v>0.1794499009847641</v>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" t="n">
+        <v>0.7533832788467407</v>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" t="n">
+        <v>0.452927827835083</v>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" t="n">
+        <v>0.3629449903964996</v>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196" t="n">
+        <v>0.3236804604530334</v>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" t="n">
+        <v>1.028136491775513</v>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" t="n">
+        <v>0.1844998300075531</v>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" t="n">
+        <v>0.4114460349082947</v>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="n">
+        <v>0.2558574080467224</v>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" t="n">
+        <v>0.1669951677322388</v>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" t="n">
+        <v>0.960443377494812</v>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" t="n">
+        <v>0.08283901214599609</v>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" t="n">
+        <v>0.2081382572650909</v>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" t="n">
+        <v>0.2480547726154327</v>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" t="n">
+        <v>0.47594353556633</v>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" t="n">
+        <v>0.1918185949325562</v>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>0.5114758014678955</v>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>0.6542561650276184</v>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>0.3111839890480042</v>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>0.9588869214057922</v>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>0.5775682330131531</v>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>0.4566552042961121</v>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>0.4158577024936676</v>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>0.4774297773838043</v>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>0.5485025644302368</v>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>0.7946527600288391</v>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>0.7733621597290039</v>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>0.8834576606750488</v>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>0.3174952268600464</v>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>0.2814798057079315</v>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>0.8078001141548157</v>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>0.1881868243217468</v>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>0.2001599818468094</v>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>0.4570011496543884</v>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>0.2686118185520172</v>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>0.02447471022605896</v>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>0.2407163977622986</v>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>0.8625972270965576</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>0.378167450428009</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>0.1650722175836563</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>0.2805405259132385</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>0.6351102590560913</v>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>0.8524534106254578</v>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1.043704152107239</v>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>0.1895280629396439</v>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>0.04503455758094788</v>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>0.1478968858718872</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>0.1895667165517807</v>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>0.5853289365768433</v>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>0.2875300049781799</v>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242" t="n">
+        <v>0.5333341360092163</v>
+      </c>
+    </row>
+    <row r="1243">
+      <c r="A1243" t="n">
+        <v>0.1717783957719803</v>
+      </c>
+    </row>
+    <row r="1244">
+      <c r="A1244" t="n">
+        <v>0.1152380853891373</v>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245" t="n">
+        <v>0.338397204875946</v>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="A1246" t="n">
+        <v>0.9307331442832947</v>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247" t="n">
+        <v>0.07674010843038559</v>
+      </c>
+    </row>
+    <row r="1248">
+      <c r="A1248" t="n">
+        <v>0.3689695596694946</v>
+      </c>
+    </row>
+    <row r="1249">
+      <c r="A1249" t="n">
+        <v>0.5861666202545166</v>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" t="n">
+        <v>0.3131681680679321</v>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" t="n">
+        <v>0.8027236461639404</v>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" t="n">
+        <v>0.6551433801651001</v>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" t="n">
+        <v>0.4162515103816986</v>
+      </c>
+    </row>
+    <row r="1254">
+      <c r="A1254" t="n">
+        <v>0.09270995855331421</v>
+      </c>
+    </row>
+    <row r="1255">
+      <c r="A1255" t="n">
+        <v>0.8769840598106384</v>
+      </c>
+    </row>
+    <row r="1256">
+      <c r="A1256" t="n">
+        <v>0.6748969554901123</v>
+      </c>
+    </row>
+    <row r="1257">
+      <c r="A1257" t="n">
+        <v>0.7153263688087463</v>
+      </c>
+    </row>
+    <row r="1258">
+      <c r="A1258" t="n">
+        <v>0.8819555640220642</v>
+      </c>
+    </row>
+    <row r="1259">
+      <c r="A1259" t="n">
+        <v>0.7599876523017883</v>
+      </c>
+    </row>
+    <row r="1260">
+      <c r="A1260" t="n">
+        <v>0.7351298332214355</v>
+      </c>
+    </row>
+    <row r="1261">
+      <c r="A1261" t="n">
+        <v>0.3807128071784973</v>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="A1262" t="n">
+        <v>0.6746984124183655</v>
+      </c>
+    </row>
+    <row r="1263">
+      <c r="A1263" t="n">
+        <v>0.6268745064735413</v>
+      </c>
+    </row>
+    <row r="1264">
+      <c r="A1264" t="n">
+        <v>0.8342023491859436</v>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265" t="n">
+        <v>0.578966498374939</v>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266" t="n">
+        <v>0.4751600325107574</v>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267" t="n">
+        <v>0.1308662593364716</v>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268" t="n">
+        <v>0.9369491934776306</v>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" t="n">
+        <v>0.5855124592781067</v>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270" t="n">
+        <v>0.2248640358448029</v>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="A1271" t="n">
+        <v>0.06399314105510712</v>
+      </c>
+    </row>
+    <row r="1272">
+      <c r="A1272" t="n">
+        <v>0.2189939916133881</v>
+      </c>
+    </row>
+    <row r="1273">
+      <c r="A1273" t="n">
+        <v>0.2326529026031494</v>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" t="n">
+        <v>0.1480320394039154</v>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" t="n">
+        <v>0.2292149811983109</v>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" t="n">
+        <v>0.3810434639453888</v>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" t="n">
+        <v>0.2204270660877228</v>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" t="n">
+        <v>0.6567572355270386</v>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" t="n">
+        <v>0.9008878469467163</v>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" t="n">
+        <v>0.1971138566732407</v>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281" t="n">
+        <v>0.04740029573440552</v>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" t="n">
+        <v>0.2150253802537918</v>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283" t="n">
+        <v>0.4159415066242218</v>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" t="n">
+        <v>0.08575215935707092</v>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" t="n">
+        <v>0.6538510322570801</v>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" t="n">
+        <v>0.5046164989471436</v>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287" t="n">
+        <v>0.8471502661705017</v>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" t="n">
+        <v>0.8444588780403137</v>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" t="n">
+        <v>0.1438008099794388</v>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" t="n">
+        <v>0.5114758610725403</v>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" t="n">
+        <v>0.4807659089565277</v>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292" t="n">
+        <v>0.2876125276088715</v>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293" t="n">
+        <v>0.1110767647624016</v>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" t="n">
+        <v>0.5464619398117065</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/output/oof_predictions.xlsx
+++ b/output/oof_predictions.xlsx
@@ -20,6 +20,7 @@
     <sheet name="linear_regression" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="ridge" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="ExactGP" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="tabpfn" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -35046,6 +35047,6497 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1294"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>predictions</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.08190186321735382</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.5827972888946533</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.9086663722991943</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.9492037296295166</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.9995654821395874</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.3595153987407684</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.453550398349762</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.8245590329170227</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.4371303021907806</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.1001452133059502</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.6853055953979492</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.3394874930381775</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.4528819918632507</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.4295594394207001</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.7023918628692627</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.5229899883270264</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.8015353679656982</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.8014640212059021</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.4782383143901825</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.1493530124425888</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1.080812931060791</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.9955839514732361</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.5165978670120239</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.2935768663883209</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.4765569567680359</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.5385564565658569</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.408693253993988</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.8986958265304565</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.2743448615074158</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.7586960792541504</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.8569725155830383</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.3612439632415771</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.435008704662323</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.956247091293335</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.3641110360622406</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.5516762137413025</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.4795078635215759</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.3547775447368622</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.6832934617996216</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.2349451780319214</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0.1670715361833572</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.6144191026687622</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0.4697944521903992</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0.2670128345489502</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0.6954234838485718</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0.6094909310340881</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>0.3948444128036499</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>0.933032214641571</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0.7351956367492676</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0.4672162532806396</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0.4737629890441895</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.8049867153167725</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0.2747067809104919</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.5241619348526001</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0.5730578899383545</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0.483923077583313</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0.2754936814308167</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0.155573695898056</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0.6080700755119324</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0.829981803894043</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0.4799970984458923</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1.058979034423828</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0.2074454426765442</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0.1631289273500443</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1.053152084350586</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0.1644690036773682</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>0.5515240430831909</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0.5826420783996582</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>0.3056302666664124</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>0.4707751274108887</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>0.989258348941803</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>0.6358699798583984</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>0.3445742428302765</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>0.1952890157699585</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>0.4608386158943176</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>0.5260055065155029</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>0.7641481757164001</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>0.7599374055862427</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>0.867048978805542</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>0.3967446088790894</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>0.6102827787399292</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>0.9196133613586426</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>0.5438127517700195</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>0.4968330562114716</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0.4255074858665466</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>0.4326671361923218</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0.5436224341392517</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0.8718955516815186</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>0.3932287096977234</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>0.429929256439209</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>0.7624149322509766</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>0.364904522895813</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>0.6272585391998291</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>0.2772848606109619</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>0.107383981347084</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>0.4087780117988586</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>0.6445648074150085</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>0.8869822025299072</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>0.4661215543746948</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>0.2627923786640167</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>0.5899220108985901</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>0.9256345629692078</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>0.3742116093635559</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0.1188249439001083</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0.7253342270851135</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0.4929484128952026</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0.211585521697998</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0.8129435181617737</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0.4601529836654663</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0.3979635536670685</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0.3216610550880432</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0.1193492710590363</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0.4663498401641846</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0.2728922069072723</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0.6028540730476379</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0.9471120834350586</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0.2192724943161011</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0.5570865869522095</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0.3999264240264893</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0.3131670951843262</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0.4256123304367065</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>0.237179309129715</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>0.7051579356193542</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0.5830140709877014</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>0.09137268364429474</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0.2931438684463501</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0.2774331271648407</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0.5177333354949951</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>0.1355383992195129</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0.3232722282409668</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>0.5896377563476562</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>0.5521169900894165</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0.8934618234634399</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0.6429358124732971</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0.1726066768169403</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0.3624037802219391</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0.4460758566856384</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0.2926703095436096</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>0.4938240647315979</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0.7563698291778564</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0.890943706035614</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>0.1062920093536377</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>0.1101355403661728</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>1.053078055381775</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>0.5834692716598511</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>0.5074254274368286</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0.6802453994750977</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>0.8297210931777954</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>0.4824352264404297</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>0.3559888303279877</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0.5711479783058167</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>0.2653973698616028</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>1.071744322776794</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>0.3549162149429321</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>0.4972822666168213</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0.8839267492294312</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>0.7462626695632935</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>0.373139500617981</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>0.4488474130630493</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0.6070514917373657</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>0.5111910104751587</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0.1626033782958984</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0.6322121024131775</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0.7625895738601685</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0.5248974561691284</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0.2679986953735352</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0.2680712342262268</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0.2366411685943604</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0.7925265431404114</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0.3820023536682129</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0.6649511456489563</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0.434700071811676</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0.8156319856643677</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0.623569667339325</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0.224205881357193</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0.2228942811489105</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0.3270664811134338</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>0.7220197319984436</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>0.6331457495689392</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>0.8009382486343384</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>0.3044105470180511</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>0.1668401956558228</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>0.626827597618103</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>0.4974903762340546</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>0.3501995205879211</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>0.1462805867195129</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>0.3382145166397095</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>0.8118316531181335</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>0.9907684326171875</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>0.5251452326774597</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>0.2657230496406555</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>0.3578515648841858</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>0.396994411945343</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>0.1453480422496796</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>0.6041898727416992</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>0.3392370045185089</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>0.5293848514556885</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>0.1481478661298752</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>0.632250189781189</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>0.8292292356491089</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>0.8738106489181519</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>0.163029819726944</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>0.6582856178283691</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>0.5990628600120544</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>0.347916454076767</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>0.3483656048774719</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>0.5535603761672974</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>0.7444009780883789</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>0.5175118446350098</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>0.542808473110199</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>0.5584638714790344</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>0.8775935173034668</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>0.3658404946327209</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>1.062057971954346</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>0.1442950963973999</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>0.2462666481733322</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>0.1481715440750122</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>0.8180695176124573</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>0.8856823444366455</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>0.6774284243583679</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>0.472105085849762</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>0.4541407227516174</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>0.5588445067405701</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>0.845905065536499</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>0.325555145740509</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>0.5160840153694153</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>0.846767783164978</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>0.5822769403457642</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>0.2648410201072693</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>0.5331850051879883</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>0.8691985607147217</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>0.5713752508163452</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>0.7458512783050537</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>0.3448854088783264</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>0.7863918542861938</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>0.4086688160896301</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>0.5220910906791687</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>0.4469702839851379</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>0.3607471585273743</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>0.709658145904541</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>0.6718152165412903</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>0.4906823635101318</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>0.4607395529747009</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>0.2292812317609787</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>0.3942718803882599</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>0.6430072784423828</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>0.2410871833562851</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>0.3278438448905945</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>0.7452664971351624</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>0.7633612155914307</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>0.4447064995765686</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>0.5517256259918213</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>0.1955045759677887</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>0.7790032029151917</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>0.8316154479980469</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>0.4769264757633209</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>0.6924296617507935</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>0.7582388520240784</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>0.4681252837181091</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>0.3124333620071411</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>0.5283232927322388</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>0.834841251373291</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>0.2062649726867676</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>0.6031308770179749</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>0.5046595335006714</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>0.2897703945636749</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>0.1024960204958916</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>0.2783121168613434</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>0.2556822299957275</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>0.4828320443630219</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>0.9090337753295898</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>0.8574379086494446</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>0.3469712138175964</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>0.768951952457428</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>0.4370709359645844</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>0.1929213255643845</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>0.1627536118030548</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>0.5255028605461121</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>0.5717370510101318</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>0.3306844830513</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>0.6734710931777954</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>0.3066935241222382</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>0.8848060369491577</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>0.6418532729148865</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>0.4470714032649994</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>0.2905803322792053</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>0.3141031861305237</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>0.08362802863121033</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>0.6417772769927979</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>0.5376331210136414</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>0.4347680509090424</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>0.695204496383667</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>0.8176733255386353</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>0.3356634974479675</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>0.6809346079826355</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>0.3461962342262268</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>0.6120285391807556</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>0.7277653217315674</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>0.1218537911772728</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>0.2780634462833405</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>0.1076381653547287</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>0.2877123951911926</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>0.5171140432357788</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>0.4339092373847961</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>0.5505685210227966</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>0.12893345952034</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>0.423091322183609</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>0.802223801612854</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>0.4917287528514862</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>0.2912220358848572</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>0.5655137300491333</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>0.5244615077972412</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>0.9452441930770874</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>0.5307238698005676</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>0.5809285640716553</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>0.5801682472229004</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>0.3164719939231873</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>0.3818433284759521</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>0.5214226245880127</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>0.6330655813217163</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>0.2960988283157349</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>0.1410364657640457</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>0.7596733570098877</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>0.2906788885593414</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>0.6422431468963623</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>0.3776668608188629</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>0.9343907237052917</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>0.2274869084358215</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>0.6398893594741821</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>0.810020923614502</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>0.334461510181427</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>0.4576916098594666</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>0.6072640419006348</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>0.1914985030889511</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>0.6186960935592651</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>0.6839286684989929</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>0.6072515249252319</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>0.1677995473146439</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>0.4897857904434204</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>0.561750054359436</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>0.09030081331729889</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>0.6965941190719604</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>0.3029463589191437</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>0.2784325480461121</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>0.5245964527130127</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>0.3969235122203827</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>0.5118504762649536</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>0.1550872325897217</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>0.7058563828468323</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>0.4181846082210541</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>0.6714672446250916</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>0.2805306613445282</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>0.9140995144844055</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>0.5142449736595154</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>0.827100932598114</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>0.548048734664917</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>0.6483682990074158</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>0.6758452653884888</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>0.166396364569664</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>0.3057844042778015</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>0.7364915609359741</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>0.1169199869036674</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>0.7541961669921875</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>0.5444132089614868</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>0.629127025604248</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>0.4413354992866516</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>0.6792694926261902</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>0.5187602043151855</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>0.3557393848896027</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>0.4091539978981018</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>0.7356339693069458</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>0.3490747213363647</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>0.5560135841369629</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>0.3263547420501709</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>0.4762343764305115</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>0.9944553375244141</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>0.6929938793182373</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>0.7016342878341675</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>0.4087780117988586</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>0.8497145771980286</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>0.2825785875320435</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>0.5935291051864624</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>0.6007111072540283</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>0.801511824131012</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>0.2828666567802429</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>0.1459281891584396</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>0.3376143872737885</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>0.9781713485717773</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>0.8361606597900391</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>0.1612779796123505</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>0.5065789222717285</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>0.2686770558357239</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>0.5481879711151123</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>0.9024222493171692</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>0.1081181019544601</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>0.5354664325714111</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>0.5258809328079224</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>0.3611703515052795</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>0.5516520738601685</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>0.3041154742240906</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>0.3508952260017395</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>0.3391924798488617</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>0.1946910917758942</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>0.4808219969272614</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>0.309830904006958</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>0.7770357131958008</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>0.6063581705093384</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>0.9386519193649292</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>0.2425576746463776</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>0.2927649617195129</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>0.5432326793670654</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>0.2992792129516602</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>0.8079659342765808</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>0.2673298418521881</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>0.6293923854827881</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>0.4343052506446838</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>0.5953794717788696</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>0.3392437100410461</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>0.5139816999435425</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>0.2858317792415619</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>0.4335030615329742</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>0.452241837978363</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>0.5207049250602722</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>0.1617126166820526</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>0.09272702783346176</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>0.2258399873971939</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>0.5295213460922241</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>0.3900820910930634</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>0.7784198522567749</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>0.6982042789459229</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>0.2768087089061737</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>0.1299961805343628</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>0.3465649783611298</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>0.6107518672943115</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>0.3567932844161987</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>0.8963183164596558</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>0.6863523125648499</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>0.6063581705093384</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>0.4986320436000824</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>0.05669936165213585</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>0.4763213396072388</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>0.2484192401170731</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>0.8251191973686218</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>0.4079115390777588</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>0.4250580072402954</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>0.1629745811223984</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>0.1094571948051453</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>0.204294815659523</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>0.1563952416181564</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>0.6745697259902954</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>0.5481367707252502</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>0.5816076993942261</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>0.2825556397438049</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>0.3252330720424652</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>0.456184983253479</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>0.5163115262985229</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>0.554760217666626</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>0.712401807308197</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>0.2773788571357727</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>0.3873636722564697</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>0.3354530334472656</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>0.3273122012615204</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>0.6440964937210083</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>0.5010085105895996</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>0.3752039670944214</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>0.2704106569290161</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>0.7558847069740295</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>0.5060588717460632</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>0.5429781079292297</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>0.5178915858268738</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>0.4822075664997101</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>0.2884213328361511</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>0.7569714784622192</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>0.3958276808261871</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>0.7085618376731873</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>0.9561423063278198</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>0.5072567462921143</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>0.3461204171180725</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>0.7080934047698975</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>0.2670742273330688</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>0.2755437195301056</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>0.7828642129898071</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>0.5868055820465088</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>0.1846737265586853</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>0.2038047909736633</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>0.2554232478141785</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>0.1237945854663849</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>0.5850488543510437</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>0.24774369597435</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>0.5566318035125732</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>0.5928405523300171</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>0.2237344682216644</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>0.5359227061271667</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>0.3267635703086853</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>0.4033337831497192</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>0.4876134395599365</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>0.3169149160385132</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>0.8302252292633057</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>0.7789639234542847</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>0.345441073179245</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>0.4881540238857269</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>0.5413433909416199</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="n">
+        <v>1.071632862091064</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>0.5321304202079773</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="n">
+        <v>0.697090744972229</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="n">
+        <v>0.6826327443122864</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="n">
+        <v>0.6773531436920166</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="n">
+        <v>0.5986850261688232</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="n">
+        <v>0.5309709310531616</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="n">
+        <v>0.6777699589729309</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>0.5395504236221313</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>0.3050135374069214</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>0.632030189037323</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>0.5129367709159851</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>0.4443970620632172</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>0.7108824253082275</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>0.6339507102966309</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="n">
+        <v>0.8360921144485474</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="n">
+        <v>0.2816950976848602</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="n">
+        <v>0.87300044298172</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="n">
+        <v>0.47402423620224</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="n">
+        <v>0.3005883991718292</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="n">
+        <v>0.4878727197647095</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="n">
+        <v>0.514504611492157</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="n">
+        <v>0.666036069393158</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="n">
+        <v>0.1856132298707962</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="n">
+        <v>0.2935117483139038</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="n">
+        <v>0.7561219930648804</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="n">
+        <v>0.8777246475219727</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="n">
+        <v>0.4356001615524292</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="n">
+        <v>0.8492686748504639</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>0.6884421110153198</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="n">
+        <v>0.841671884059906</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="n">
+        <v>0.6861476898193359</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="n">
+        <v>0.1648433655500412</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>0.4094147682189941</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="n">
+        <v>0.1026868522167206</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="n">
+        <v>0.8115561008453369</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="n">
+        <v>0.301568865776062</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="n">
+        <v>0.9001434445381165</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="n">
+        <v>0.2510564923286438</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="n">
+        <v>0.5444523096084595</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="n">
+        <v>1.066256761550903</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="n">
+        <v>0.765544593334198</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="n">
+        <v>0.1336446404457092</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="n">
+        <v>0.933032214641571</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="n">
+        <v>0.7796669006347656</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="n">
+        <v>0.6897510886192322</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="n">
+        <v>0.2898753881454468</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="n">
+        <v>0.592903196811676</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="n">
+        <v>0.2987461984157562</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="n">
+        <v>0.1650763005018234</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="n">
+        <v>0.600925087928772</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="n">
+        <v>0.8265047669410706</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="n">
+        <v>0.3408903181552887</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="n">
+        <v>0.9306797981262207</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="n">
+        <v>0.3409506678581238</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="n">
+        <v>0.244022399187088</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="n">
+        <v>0.1102360710501671</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="n">
+        <v>0.6525784730911255</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="n">
+        <v>0.4961769580841064</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="n">
+        <v>0.131247416138649</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="n">
+        <v>0.2611486911773682</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="n">
+        <v>0.1478168219327927</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="n">
+        <v>0.8518961071968079</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="n">
+        <v>0.4188474118709564</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="n">
+        <v>0.4574132561683655</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="n">
+        <v>0.2130636870861053</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="n">
+        <v>0.3029597103595734</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="n">
+        <v>0.2992638349533081</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="n">
+        <v>0.3802085816860199</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="n">
+        <v>0.1014958769083023</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="n">
+        <v>0.5990584492683411</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="n">
+        <v>0.3923717737197876</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="n">
+        <v>0.3072926998138428</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="n">
+        <v>0.2793678641319275</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="n">
+        <v>0.5963773727416992</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="n">
+        <v>0.3450703024864197</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="n">
+        <v>0.6851162910461426</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="n">
+        <v>0.2259645164012909</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="n">
+        <v>0.1667271703481674</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="n">
+        <v>0.4788739383220673</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="n">
+        <v>0.151879608631134</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="n">
+        <v>0.1484123468399048</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="n">
+        <v>0.2555651366710663</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="n">
+        <v>0.3230246305465698</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="n">
+        <v>0.4109078049659729</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="n">
+        <v>0.3667483627796173</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="n">
+        <v>0.5795748233795166</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="n">
+        <v>0.6310237646102905</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="n">
+        <v>1.056097030639648</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="n">
+        <v>0.5549390316009521</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="n">
+        <v>0.275187760591507</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="n">
+        <v>0.128072589635849</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="n">
+        <v>0.1851736754179001</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="n">
+        <v>0.7688226699829102</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="n">
+        <v>0.1085337549448013</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="n">
+        <v>0.893402636051178</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="n">
+        <v>0.3921934068202972</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="n">
+        <v>0.7502217292785645</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="n">
+        <v>0.9998024106025696</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="n">
+        <v>0.7443922758102417</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="n">
+        <v>0.2110029757022858</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="n">
+        <v>0.5538650751113892</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="n">
+        <v>1.030556678771973</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="n">
+        <v>0.1247856765985489</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="n">
+        <v>0.2890888452529907</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="n">
+        <v>0.5569265484809875</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="n">
+        <v>0.3160396814346313</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="n">
+        <v>0.320058286190033</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="n">
+        <v>0.1380162984132767</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="n">
+        <v>0.5543193817138672</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="n">
+        <v>0.1055853068828583</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="n">
+        <v>0.6128177642822266</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="n">
+        <v>0.3063517212867737</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="n">
+        <v>0.265643984079361</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="n">
+        <v>0.2260366380214691</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="n">
+        <v>0.8176733255386353</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="n">
+        <v>0.8260698318481445</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="n">
+        <v>0.1190705746412277</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="n">
+        <v>0.5825746059417725</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="n">
+        <v>0.221678763628006</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="n">
+        <v>0.320871889591217</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="n">
+        <v>0.5163421034812927</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="n">
+        <v>0.4469341337680817</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="n">
+        <v>0.670318603515625</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="n">
+        <v>0.4452924132347107</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="n">
+        <v>0.6220375299453735</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="n">
+        <v>0.4275403618812561</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="n">
+        <v>0.1090797185897827</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="n">
+        <v>0.3274035453796387</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="n">
+        <v>0.5089354515075684</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="n">
+        <v>1.000696301460266</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="n">
+        <v>0.510089635848999</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="n">
+        <v>0.5074254274368286</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="n">
+        <v>0.2662129700183868</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="n">
+        <v>0.7638383507728577</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="n">
+        <v>0.6835122108459473</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="n">
+        <v>0.1489627361297607</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="n">
+        <v>0.5466920733451843</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="n">
+        <v>0.3285002708435059</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="n">
+        <v>0.5978549122810364</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="n">
+        <v>0.10272266715765</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="n">
+        <v>0.6926614046096802</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="n">
+        <v>0.2382413297891617</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="n">
+        <v>0.1229267418384552</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="n">
+        <v>0.8691585063934326</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="n">
+        <v>0.4295594394207001</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="n">
+        <v>0.3747186064720154</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="n">
+        <v>0.2209836542606354</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="n">
+        <v>0.129562646150589</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="n">
+        <v>0.5620853900909424</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="n">
+        <v>0.8821207284927368</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="n">
+        <v>0.8670376539230347</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="n">
+        <v>0.8361108899116516</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="n">
+        <v>0.2443971037864685</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="n">
+        <v>0.269673228263855</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="n">
+        <v>0.2790266275405884</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="n">
+        <v>0.3934452831745148</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="n">
+        <v>0.1846518814563751</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="n">
+        <v>0.2346559315919876</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="n">
+        <v>0.8659874796867371</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="n">
+        <v>0.4584499597549438</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="n">
+        <v>0.3290491700172424</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="n">
+        <v>0.4166344106197357</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="n">
+        <v>0.2871591448783875</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="n">
+        <v>0.4945344924926758</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="n">
+        <v>0.2602969408035278</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="n">
+        <v>0.1349418461322784</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="n">
+        <v>0.5796676874160767</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="n">
+        <v>0.6107385754585266</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="n">
+        <v>0.1570779383182526</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="n">
+        <v>0.4226122796535492</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="n">
+        <v>0.5192835927009583</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="n">
+        <v>0.4833589196205139</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="n">
+        <v>0.3870091736316681</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="n">
+        <v>0.768951952457428</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="n">
+        <v>0.4448736310005188</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="n">
+        <v>0.1670555919408798</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="n">
+        <v>0.7860344648361206</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="n">
+        <v>0.8572654724121094</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="n">
+        <v>0.2603075802326202</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="n">
+        <v>0.2907769978046417</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="n">
+        <v>0.6335240602493286</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="n">
+        <v>0.2162523120641708</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="n">
+        <v>0.4170376062393188</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="n">
+        <v>0.460680365562439</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="n">
+        <v>0.3228503465652466</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="n">
+        <v>0.2121444940567017</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="n">
+        <v>0.1279390603303909</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="n">
+        <v>0.1544401794672012</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="n">
+        <v>0.596118688583374</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="n">
+        <v>0.3149333894252777</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="n">
+        <v>0.1239109858870506</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="n">
+        <v>0.1000788733363152</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="n">
+        <v>0.8565473556518555</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="n">
+        <v>0.5953794717788696</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="n">
+        <v>0.2446413487195969</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="n">
+        <v>0.672240138053894</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="n">
+        <v>0.6981707215309143</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="n">
+        <v>0.3000403046607971</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="n">
+        <v>0.1974833756685257</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="n">
+        <v>0.5810744762420654</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="n">
+        <v>0.6790488362312317</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="n">
+        <v>0.1046030670404434</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="n">
+        <v>0.805329442024231</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="n">
+        <v>0.5973129868507385</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="n">
+        <v>0.1301481425762177</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="n">
+        <v>0.5010119676589966</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="n">
+        <v>0.7621459364891052</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="n">
+        <v>0.8138107061386108</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="n">
+        <v>0.803346574306488</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="n">
+        <v>0.3179309666156769</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="n">
+        <v>0.2856740057468414</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="n">
+        <v>0.2002641409635544</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="n">
+        <v>0.6775269508361816</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="n">
+        <v>0.5900416970252991</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="n">
+        <v>0.8366260528564453</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="n">
+        <v>0.2110029757022858</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="n">
+        <v>0.5462258458137512</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="n">
+        <v>0.3274035453796387</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="n">
+        <v>0.2799407839775085</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="n">
+        <v>0.2643709778785706</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="n">
+        <v>0.2918813228607178</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="n">
+        <v>0.1269250810146332</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="n">
+        <v>0.5337284207344055</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="n">
+        <v>0.5967587232589722</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="n">
+        <v>0.2166149467229843</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="n">
+        <v>0.4890758395195007</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="n">
+        <v>0.3165901005268097</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="n">
+        <v>0.3680116236209869</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="n">
+        <v>0.09070175141096115</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="n">
+        <v>0.8269115686416626</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="n">
+        <v>0.2796903848648071</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="n">
+        <v>0.05824599787592888</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="n">
+        <v>1.06231689453125</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="n">
+        <v>0.4981319308280945</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="n">
+        <v>0.1666734516620636</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="n">
+        <v>0.5891599059104919</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="n">
+        <v>0.9505802989006042</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="n">
+        <v>0.3020907044410706</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="n">
+        <v>0.6012864112854004</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="n">
+        <v>0.3449809551239014</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="n">
+        <v>0.5485780835151672</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="n">
+        <v>0.1917959749698639</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="n">
+        <v>1.026548981666565</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="n">
+        <v>0.5237789750099182</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="n">
+        <v>0.4954307079315186</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="n">
+        <v>0.1378677189350128</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="n">
+        <v>0.4650881290435791</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="n">
+        <v>0.3777202367782593</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="n">
+        <v>0.6059222221374512</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="n">
+        <v>0.1085337549448013</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="n">
+        <v>0.2774331271648407</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="n">
+        <v>0.1939929127693176</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="n">
+        <v>0.1473965346813202</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="n">
+        <v>0.653639554977417</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="n">
+        <v>0.5970447063446045</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="n">
+        <v>0.3066661953926086</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="n">
+        <v>0.4739789664745331</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="n">
+        <v>0.2808924913406372</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="n">
+        <v>0.6579538583755493</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="n">
+        <v>0.834841251373291</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="n">
+        <v>0.3754588663578033</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="n">
+        <v>0.5389237999916077</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="n">
+        <v>0.2792213559150696</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="n">
+        <v>0.2065209448337555</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="n">
+        <v>0.2606192231178284</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="n">
+        <v>0.3451550602912903</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="n">
+        <v>0.4129793047904968</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="n">
+        <v>0.09863097965717316</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="n">
+        <v>0.3343176245689392</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="n">
+        <v>0.1826637387275696</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="n">
+        <v>0.3319472670555115</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="n">
+        <v>0.5764855146408081</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="n">
+        <v>0.6729986667633057</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="n">
+        <v>1.072011709213257</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="n">
+        <v>0.2045093774795532</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="n">
+        <v>0.8505673408508301</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="n">
+        <v>0.612038254737854</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="n">
+        <v>0.06202956289052963</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="n">
+        <v>0.2942168712615967</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="n">
+        <v>0.3581666350364685</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="n">
+        <v>0.445133239030838</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="n">
+        <v>0.4757613837718964</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="n">
+        <v>0.3694259524345398</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="n">
+        <v>0.2807565331459045</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="n">
+        <v>0.7022837996482849</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="n">
+        <v>0.8069242238998413</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="n">
+        <v>0.8741265535354614</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="n">
+        <v>0.6567654609680176</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="n">
+        <v>0.2826718091964722</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="n">
+        <v>0.342964231967926</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="n">
+        <v>0.2634359002113342</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="n">
+        <v>0.06033079326152802</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="n">
+        <v>0.5582345128059387</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="n">
+        <v>0.1690424978733063</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="n">
+        <v>0.5306156873703003</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="n">
+        <v>0.2710270583629608</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="n">
+        <v>0.9278813600540161</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="n">
+        <v>0.2609910368919373</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="n">
+        <v>0.4261252880096436</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="n">
+        <v>0.1739804595708847</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="n">
+        <v>0.5405291318893433</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="n">
+        <v>0.612549901008606</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="n">
+        <v>0.6452960968017578</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="n">
+        <v>0.2747088968753815</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="n">
+        <v>0.6423622965812683</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="n">
+        <v>0.7738515138626099</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="n">
+        <v>0.1833172291517258</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="n">
+        <v>0.2280135750770569</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="n">
+        <v>0.8332423567771912</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="n">
+        <v>0.6005122065544128</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="n">
+        <v>0.7348449230194092</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="n">
+        <v>0.2598226368427277</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="n">
+        <v>0.1793473064899445</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="n">
+        <v>0.3171886205673218</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="n">
+        <v>0.3695796132087708</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="n">
+        <v>0.8881709575653076</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="n">
+        <v>0.5995563268661499</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="n">
+        <v>0.276468425989151</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="n">
+        <v>1.053089380264282</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="n">
+        <v>0.3566530048847198</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="n">
+        <v>0.7708910703659058</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="n">
+        <v>0.8279352784156799</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="n">
+        <v>0.3952263593673706</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="n">
+        <v>0.2621465921401978</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="n">
+        <v>0.6426805853843689</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="n">
+        <v>0.7624415755271912</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="n">
+        <v>0.09196504950523376</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="n">
+        <v>0.9482764601707458</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="n">
+        <v>0.1549326628446579</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="n">
+        <v>0.5359922051429749</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="n">
+        <v>0.7623524069786072</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="n">
+        <v>0.5500980615615845</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="n">
+        <v>0.16779825091362</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="n">
+        <v>0.1214978620409966</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="n">
+        <v>0.4840137958526611</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="n">
+        <v>0.2277874797582626</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="n">
+        <v>0.4239381551742554</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="n">
+        <v>0.7671239972114563</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="n">
+        <v>0.2447102665901184</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="n">
+        <v>0.5500060319900513</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="n">
+        <v>0.9216049909591675</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="n">
+        <v>1.059608101844788</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="n">
+        <v>0.6965309977531433</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="n">
+        <v>0.296444296836853</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="n">
+        <v>0.3458094000816345</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="n">
+        <v>0.744439959526062</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="n">
+        <v>0.7923042178153992</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="n">
+        <v>0.1333813667297363</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="n">
+        <v>0.3947083353996277</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="n">
+        <v>0.3228387236595154</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="n">
+        <v>0.1016555279493332</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="n">
+        <v>0.5711888670921326</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="n">
+        <v>0.7189513444900513</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="n">
+        <v>0.4016171097755432</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="n">
+        <v>0.1118461117148399</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="n">
+        <v>1.059524893760681</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="n">
+        <v>0.5613895058631897</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="n">
+        <v>0.4595180749893188</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="n">
+        <v>0.4163088798522949</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="n">
+        <v>0.1944321542978287</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="n">
+        <v>0.9320529699325562</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="n">
+        <v>0.8280205726623535</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="n">
+        <v>0.2951900660991669</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="n">
+        <v>0.4751862287521362</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="n">
+        <v>0.8982250690460205</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="n">
+        <v>0.5431778430938721</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="n">
+        <v>0.1669415533542633</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="n">
+        <v>0.3960637152194977</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="n">
+        <v>0.6107237339019775</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="n">
+        <v>0.2658449113368988</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="n">
+        <v>0.4718772768974304</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="n">
+        <v>0.1327431201934814</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="n">
+        <v>0.6816665530204773</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="n">
+        <v>0.1609282791614532</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="n">
+        <v>0.4168570041656494</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="n">
+        <v>0.3600483536720276</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="n">
+        <v>0.120034322142601</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="n">
+        <v>0.7311173677444458</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="n">
+        <v>0.5771545171737671</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="n">
+        <v>0.135887086391449</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="n">
+        <v>0.5941250324249268</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="n">
+        <v>0.7154358625411987</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="n">
+        <v>0.8567565679550171</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="n">
+        <v>0.4334399700164795</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="n">
+        <v>0.5993342399597168</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="n">
+        <v>0.3132284879684448</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="n">
+        <v>0.4781610369682312</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="n">
+        <v>0.4436958432197571</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="n">
+        <v>0.2223051488399506</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="n">
+        <v>0.7759683132171631</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="n">
+        <v>0.320058286190033</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="n">
+        <v>0.1677987575531006</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="n">
+        <v>0.6439878344535828</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="n">
+        <v>0.465274453163147</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="n">
+        <v>0.5945198535919189</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="n">
+        <v>0.266121506690979</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="n">
+        <v>0.7408031225204468</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="n">
+        <v>0.3094789087772369</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="n">
+        <v>0.4642687141895294</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="n">
+        <v>0.4033939242362976</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="n">
+        <v>0.2671396136283875</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="n">
+        <v>0.6305163502693176</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="n">
+        <v>0.8876283168792725</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="n">
+        <v>0.5469894409179688</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="n">
+        <v>0.7840538024902344</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="n">
+        <v>0.6239125728607178</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="n">
+        <v>0.2665045261383057</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="n">
+        <v>0.4964913427829742</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="n">
+        <v>0.129298135638237</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="n">
+        <v>0.8094777464866638</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="n">
+        <v>0.1289010643959045</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="n">
+        <v>0.5876120328903198</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="n">
+        <v>0.9471120834350586</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="n">
+        <v>0.5020303726196289</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="n">
+        <v>0.7521692514419556</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="n">
+        <v>0.7966890931129456</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="n">
+        <v>0.5957487821578979</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="n">
+        <v>0.7368716597557068</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="n">
+        <v>0.6049237847328186</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="n">
+        <v>0.1030297130346298</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="n">
+        <v>0.539614737033844</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="n">
+        <v>0.1855658143758774</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="n">
+        <v>0.190468966960907</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="n">
+        <v>0.6493492722511292</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="n">
+        <v>0.7553319931030273</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="n">
+        <v>0.3188157677650452</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="n">
+        <v>0.7412155270576477</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="n">
+        <v>0.3642951548099518</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="n">
+        <v>0.177000105381012</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="n">
+        <v>0.5380693078041077</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="n">
+        <v>0.4876134395599365</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="n">
+        <v>0.5421390533447266</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="n">
+        <v>0.4076603651046753</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="n">
+        <v>0.9141937494277954</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="n">
+        <v>0.3202979564666748</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="n">
+        <v>0.5759358406066895</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="n">
+        <v>0.08836266398429871</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="n">
+        <v>0.6699104309082031</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="n">
+        <v>0.78993159532547</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="n">
+        <v>0.6384000778198242</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="n">
+        <v>0.5512774586677551</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="n">
+        <v>0.1485126167535782</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="n">
+        <v>0.8193525075912476</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="n">
+        <v>0.3606415092945099</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="n">
+        <v>0.4955394864082336</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="n">
+        <v>0.6587069034576416</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="n">
+        <v>0.5737109780311584</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="n">
+        <v>0.4807696938514709</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="n">
+        <v>0.166572704911232</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="n">
+        <v>0.4039860367774963</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="n">
+        <v>0.2697035074234009</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="n">
+        <v>0.3474447429180145</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="n">
+        <v>0.4106705486774445</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="n">
+        <v>0.1390234231948853</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="n">
+        <v>0.8939794301986694</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="n">
+        <v>0.3196197152137756</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="n">
+        <v>0.3451607525348663</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="n">
+        <v>0.1777486801147461</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="n">
+        <v>0.834010124206543</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="n">
+        <v>0.685038149356842</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="n">
+        <v>0.9173158407211304</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="n">
+        <v>0.786618173122406</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="n">
+        <v>0.4436958432197571</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="n">
+        <v>0.5904326438903809</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="n">
+        <v>0.3283853828907013</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="n">
+        <v>0.2760298848152161</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="n">
+        <v>0.09508536010980606</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="n">
+        <v>0.1209917962551117</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="n">
+        <v>0.8014523983001709</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="n">
+        <v>1.035898447036743</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="n">
+        <v>0.8569725155830383</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="n">
+        <v>0.1588058769702911</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="n">
+        <v>0.3560562133789062</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="n">
+        <v>0.5821089744567871</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="n">
+        <v>1.053464651107788</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="n">
+        <v>0.1294102668762207</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="n">
+        <v>0.2530730366706848</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="n">
+        <v>0.5900118947029114</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="n">
+        <v>0.8500596880912781</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="n">
+        <v>0.295346200466156</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="n">
+        <v>0.1029864996671677</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="n">
+        <v>0.4048881530761719</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="n">
+        <v>0.09550487995147705</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="n">
+        <v>0.8947363495826721</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="n">
+        <v>0.5708230137825012</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="n">
+        <v>0.2435550391674042</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="n">
+        <v>0.8411140441894531</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="n">
+        <v>0.1230684444308281</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="n">
+        <v>0.08998356759548187</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="n">
+        <v>0.5055426359176636</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="n">
+        <v>0.2401567399501801</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="n">
+        <v>0.6297374367713928</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="n">
+        <v>0.7102363705635071</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="n">
+        <v>0.6691099405288696</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="n">
+        <v>0.827094554901123</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="n">
+        <v>0.8482635617256165</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="n">
+        <v>0.3793588280677795</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="n">
+        <v>0.5406501293182373</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="n">
+        <v>0.6546592116355896</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="n">
+        <v>0.1649231314659119</v>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="n">
+        <v>0.4865474700927734</v>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="n">
+        <v>0.6768952012062073</v>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="n">
+        <v>0.5833516120910645</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="n">
+        <v>0.5259040594100952</v>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="n">
+        <v>0.445678174495697</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="n">
+        <v>0.2006774246692657</v>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="n">
+        <v>0.5686206221580505</v>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="n">
+        <v>0.5154528021812439</v>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="n">
+        <v>0.2660389840602875</v>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="n">
+        <v>0.261961966753006</v>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="n">
+        <v>0.1014949977397919</v>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="n">
+        <v>0.2114467322826385</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="n">
+        <v>0.608256459236145</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="n">
+        <v>0.3820624351501465</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="n">
+        <v>0.2224875390529633</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="n">
+        <v>0.6694266200065613</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="n">
+        <v>0.2895883917808533</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="n">
+        <v>0.164434552192688</v>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="n">
+        <v>0.3888827860355377</v>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="n">
+        <v>0.6410561800003052</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="n">
+        <v>0.7543275952339172</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="n">
+        <v>0.8747662901878357</v>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="n">
+        <v>0.7024626731872559</v>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="n">
+        <v>0.1346977353096008</v>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="n">
+        <v>0.2660488486289978</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="n">
+        <v>0.2868058681488037</v>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="n">
+        <v>0.4906222820281982</v>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="n">
+        <v>0.3495701551437378</v>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="n">
+        <v>0.7031846046447754</v>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="n">
+        <v>0.5739669799804688</v>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="n">
+        <v>0.2746279239654541</v>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="n">
+        <v>0.5224065780639648</v>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="n">
+        <v>0.3443912267684937</v>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="n">
+        <v>0.5412227511405945</v>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="n">
+        <v>0.4396161437034607</v>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="n">
+        <v>0.2803786396980286</v>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="n">
+        <v>0.7440236806869507</v>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="n">
+        <v>0.09740819036960602</v>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="n">
+        <v>0.2810463309288025</v>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="n">
+        <v>0.5957487821578979</v>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="n">
+        <v>0.5061818957328796</v>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="n">
+        <v>0.501376748085022</v>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="n">
+        <v>0.6053351759910583</v>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="n">
+        <v>0.1487936973571777</v>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="n">
+        <v>0.7307975888252258</v>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="n">
+        <v>0.4342754483222961</v>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="n">
+        <v>0.5486782193183899</v>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="n">
+        <v>0.07417598366737366</v>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="n">
+        <v>0.4818498194217682</v>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="n">
+        <v>0.2835390865802765</v>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="n">
+        <v>0.7193849682807922</v>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="n">
+        <v>0.6085681915283203</v>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="n">
+        <v>0.2584828734397888</v>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="n">
+        <v>0.8738106489181519</v>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="n">
+        <v>0.6883902549743652</v>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="n">
+        <v>0.6614189743995667</v>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="n">
+        <v>0.2333692461252213</v>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="n">
+        <v>0.8868072032928467</v>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="n">
+        <v>0.4509014189243317</v>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="n">
+        <v>0.7840538024902344</v>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="n">
+        <v>0.4914667010307312</v>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="n">
+        <v>0.7944006323814392</v>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="n">
+        <v>0.2689559459686279</v>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="n">
+        <v>0.3697181940078735</v>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="n">
+        <v>0.7815250158309937</v>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="n">
+        <v>0.485064685344696</v>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="n">
+        <v>0.7235177159309387</v>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="n">
+        <v>0.8489366769790649</v>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="n">
+        <v>0.5728213787078857</v>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="n">
+        <v>0.5910428762435913</v>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="n">
+        <v>0.6226929426193237</v>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="n">
+        <v>0.1821747124195099</v>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="n">
+        <v>0.6087970733642578</v>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="n">
+        <v>0.09940120577812195</v>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="n">
+        <v>0.2302461862564087</v>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="n">
+        <v>0.7982331514358521</v>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="n">
+        <v>0.3280077278614044</v>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="n">
+        <v>0.5413023233413696</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="n">
+        <v>0.8208478689193726</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="n">
+        <v>0.2438989877700806</v>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="n">
+        <v>0.1456038802862167</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="n">
+        <v>0.315717339515686</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="n">
+        <v>0.6364948749542236</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="n">
+        <v>0.2032345533370972</v>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="n">
+        <v>0.2420410513877869</v>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="n">
+        <v>0.539919376373291</v>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="n">
+        <v>0.5170202851295471</v>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="n">
+        <v>0.8839695453643799</v>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="n">
+        <v>1.005663633346558</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="n">
+        <v>0.8087884187698364</v>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="n">
+        <v>0.8485455513000488</v>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="n">
+        <v>0.6137523651123047</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="n">
+        <v>0.1666705906391144</v>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="n">
+        <v>0.5894752740859985</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="n">
+        <v>0.9776103496551514</v>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="n">
+        <v>0.1810835003852844</v>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="n">
+        <v>0.9531437158584595</v>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="n">
+        <v>0.6365841627120972</v>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="n">
+        <v>0.3366127610206604</v>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="n">
+        <v>0.6087265014648438</v>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="n">
+        <v>0.4110638797283173</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="n">
+        <v>0.2823386192321777</v>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="n">
+        <v>0.8377365469932556</v>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="n">
+        <v>0.5054054856300354</v>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="n">
+        <v>0.5574486255645752</v>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="n">
+        <v>0.7895241379737854</v>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="n">
+        <v>0.6310316324234009</v>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="n">
+        <v>0.4964913427829742</v>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="n">
+        <v>0.4584893584251404</v>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="n">
+        <v>0.8836342096328735</v>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="n">
+        <v>0.1347201615571976</v>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="n">
+        <v>0.6670661568641663</v>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="n">
+        <v>0.6511299014091492</v>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" t="n">
+        <v>0.3686708807945251</v>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" t="n">
+        <v>0.4812257289886475</v>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" t="n">
+        <v>0.5430647134780884</v>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" t="n">
+        <v>0.5809108018875122</v>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" t="n">
+        <v>0.5725708603858948</v>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" t="n">
+        <v>0.8250023126602173</v>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="n">
+        <v>0.756335437297821</v>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="n">
+        <v>0.188863217830658</v>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" t="n">
+        <v>0.7396396398544312</v>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" t="n">
+        <v>0.6064514517784119</v>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" t="n">
+        <v>0.5496417284011841</v>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="n">
+        <v>0.1288607567548752</v>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" t="n">
+        <v>0.3961953222751617</v>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" t="n">
+        <v>0.4428033828735352</v>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="n">
+        <v>0.5091820955276489</v>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="n">
+        <v>0.5667916536331177</v>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="n">
+        <v>0.5874156355857849</v>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" t="n">
+        <v>0.3776649236679077</v>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" t="n">
+        <v>0.5201660394668579</v>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" t="n">
+        <v>0.6745142936706543</v>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" t="n">
+        <v>0.4269052743911743</v>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" t="n">
+        <v>0.4236300587654114</v>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" t="n">
+        <v>0.2084157466888428</v>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" t="n">
+        <v>0.3293518126010895</v>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" t="n">
+        <v>0.4857568144798279</v>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" t="n">
+        <v>0.7332340478897095</v>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="n">
+        <v>0.7862818837165833</v>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" t="n">
+        <v>0.7560406923294067</v>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="n">
+        <v>0.5252757668495178</v>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="n">
+        <v>0.7463324069976807</v>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" t="n">
+        <v>0.1217806488275528</v>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" t="n">
+        <v>0.4402780532836914</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="n">
+        <v>0.2886474132537842</v>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="n">
+        <v>0.5321025848388672</v>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" t="n">
+        <v>0.5942500233650208</v>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" t="n">
+        <v>0.6154730916023254</v>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" t="n">
+        <v>0.715935230255127</v>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" t="n">
+        <v>0.5589195489883423</v>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" t="n">
+        <v>0.7855004072189331</v>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" t="n">
+        <v>0.2874948978424072</v>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" t="n">
+        <v>0.7668183445930481</v>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" t="n">
+        <v>0.2585544586181641</v>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" t="n">
+        <v>0.5232423543930054</v>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" t="n">
+        <v>0.2824491858482361</v>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" t="n">
+        <v>0.3795957267284393</v>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="n">
+        <v>0.3408903181552887</v>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="n">
+        <v>0.08222538977861404</v>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="n">
+        <v>0.3044105470180511</v>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" t="n">
+        <v>0.4930329322814941</v>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="n">
+        <v>0.6636195778846741</v>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" t="n">
+        <v>0.4562820792198181</v>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" t="n">
+        <v>0.40168696641922</v>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" t="n">
+        <v>0.1567230224609375</v>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171" t="n">
+        <v>0.09556379169225693</v>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" t="n">
+        <v>0.6313239932060242</v>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" t="n">
+        <v>0.6374861001968384</v>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" t="n">
+        <v>0.4349018335342407</v>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" t="n">
+        <v>0.3810081481933594</v>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" t="n">
+        <v>0.2741741538047791</v>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" t="n">
+        <v>0.5139740705490112</v>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" t="n">
+        <v>0.3273559510707855</v>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" t="n">
+        <v>0.09654391556978226</v>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" t="n">
+        <v>0.3763920664787292</v>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181" t="n">
+        <v>0.4581717848777771</v>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182" t="n">
+        <v>0.7919687032699585</v>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183" t="n">
+        <v>0.1561520546674728</v>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" t="n">
+        <v>0.4843983054161072</v>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" t="n">
+        <v>0.08772893249988556</v>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" t="n">
+        <v>0.5619171857833862</v>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" t="n">
+        <v>0.4324030876159668</v>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188" t="n">
+        <v>0.4737213253974915</v>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189" t="n">
+        <v>0.5226770043373108</v>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" t="n">
+        <v>0.3016495108604431</v>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" t="n">
+        <v>0.4969821572303772</v>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" t="n">
+        <v>0.2039151787757874</v>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" t="n">
+        <v>0.7549757957458496</v>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" t="n">
+        <v>0.4900493621826172</v>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" t="n">
+        <v>0.2799676954746246</v>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196" t="n">
+        <v>0.6572633981704712</v>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" t="n">
+        <v>1.058636903762817</v>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" t="n">
+        <v>0.2326718419790268</v>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" t="n">
+        <v>0.3450407981872559</v>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="n">
+        <v>0.3626376986503601</v>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" t="n">
+        <v>0.5898981094360352</v>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" t="n">
+        <v>0.8089256286621094</v>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" t="n">
+        <v>0.1037959307432175</v>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" t="n">
+        <v>0.1290998011827469</v>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" t="n">
+        <v>0.511054515838623</v>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" t="n">
+        <v>0.4392364323139191</v>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" t="n">
+        <v>0.515862762928009</v>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>0.7413556575775146</v>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>0.7517337799072266</v>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>0.5258982181549072</v>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>0.8292742967605591</v>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>0.5350878238677979</v>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>0.528476893901825</v>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>0.4332381784915924</v>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>0.5715550780296326</v>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>0.5810762643814087</v>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>0.6729450225830078</v>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>0.5519933104515076</v>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>0.7981538772583008</v>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>0.2990387082099915</v>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>0.2734675109386444</v>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>0.765544593334198</v>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>0.2905832827091217</v>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>0.2151499837636948</v>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>0.4792056381702423</v>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>0.452525794506073</v>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>0.2407404184341431</v>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>0.2787749767303467</v>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>0.5837453007698059</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>0.5689614415168762</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>0.3212206959724426</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>0.3719263672828674</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>0.6515891551971436</v>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>0.596021294593811</v>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>0.9907684326171875</v>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>0.3588329553604126</v>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>0.2322597503662109</v>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>0.3674097061157227</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>0.4357824325561523</v>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>0.707599401473999</v>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>0.4393824934959412</v>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242" t="n">
+        <v>0.6051068902015686</v>
+      </c>
+    </row>
+    <row r="1243">
+      <c r="A1243" t="n">
+        <v>0.2369336932897568</v>
+      </c>
+    </row>
+    <row r="1244">
+      <c r="A1244" t="n">
+        <v>0.1076212376356125</v>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245" t="n">
+        <v>0.5247344970703125</v>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="A1246" t="n">
+        <v>0.8643656969070435</v>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247" t="n">
+        <v>0.2571765780448914</v>
+      </c>
+    </row>
+    <row r="1248">
+      <c r="A1248" t="n">
+        <v>0.4438375234603882</v>
+      </c>
+    </row>
+    <row r="1249">
+      <c r="A1249" t="n">
+        <v>0.6655266284942627</v>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" t="n">
+        <v>0.4645423293113708</v>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" t="n">
+        <v>0.70412677526474</v>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" t="n">
+        <v>0.7825433015823364</v>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" t="n">
+        <v>0.3765598237514496</v>
+      </c>
+    </row>
+    <row r="1254">
+      <c r="A1254" t="n">
+        <v>0.4482958316802979</v>
+      </c>
+    </row>
+    <row r="1255">
+      <c r="A1255" t="n">
+        <v>0.874305248260498</v>
+      </c>
+    </row>
+    <row r="1256">
+      <c r="A1256" t="n">
+        <v>0.6117191910743713</v>
+      </c>
+    </row>
+    <row r="1257">
+      <c r="A1257" t="n">
+        <v>0.2217214107513428</v>
+      </c>
+    </row>
+    <row r="1258">
+      <c r="A1258" t="n">
+        <v>0.7479331493377686</v>
+      </c>
+    </row>
+    <row r="1259">
+      <c r="A1259" t="n">
+        <v>0.57801353931427</v>
+      </c>
+    </row>
+    <row r="1260">
+      <c r="A1260" t="n">
+        <v>0.7380362153053284</v>
+      </c>
+    </row>
+    <row r="1261">
+      <c r="A1261" t="n">
+        <v>0.4042628109455109</v>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="A1262" t="n">
+        <v>0.8313362598419189</v>
+      </c>
+    </row>
+    <row r="1263">
+      <c r="A1263" t="n">
+        <v>0.6419013142585754</v>
+      </c>
+    </row>
+    <row r="1264">
+      <c r="A1264" t="n">
+        <v>0.8202937841415405</v>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265" t="n">
+        <v>0.4840912818908691</v>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266" t="n">
+        <v>0.5821089744567871</v>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267" t="n">
+        <v>0.5289362072944641</v>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268" t="n">
+        <v>0.921538770198822</v>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" t="n">
+        <v>0.5499745011329651</v>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270" t="n">
+        <v>0.2067762464284897</v>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="A1271" t="n">
+        <v>0.08650825172662735</v>
+      </c>
+    </row>
+    <row r="1272">
+      <c r="A1272" t="n">
+        <v>0.1916740834712982</v>
+      </c>
+    </row>
+    <row r="1273">
+      <c r="A1273" t="n">
+        <v>0.2858846485614777</v>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" t="n">
+        <v>0.2618780434131622</v>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" t="n">
+        <v>0.3549162149429321</v>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" t="n">
+        <v>0.348649650812149</v>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" t="n">
+        <v>0.3397193849086761</v>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" t="n">
+        <v>0.6029130816459656</v>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" t="n">
+        <v>0.8591992855072021</v>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" t="n">
+        <v>0.3955893218517303</v>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281" t="n">
+        <v>0.2081676572561264</v>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" t="n">
+        <v>0.2699885964393616</v>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283" t="n">
+        <v>0.3278951346874237</v>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" t="n">
+        <v>0.3354716897010803</v>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" t="n">
+        <v>0.7680960297584534</v>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" t="n">
+        <v>0.5717090368270874</v>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287" t="n">
+        <v>0.7982967495918274</v>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" t="n">
+        <v>0.8303530812263489</v>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" t="n">
+        <v>0.1928522139787674</v>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" t="n">
+        <v>0.7413557171821594</v>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" t="n">
+        <v>0.5796775817871094</v>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292" t="n">
+        <v>0.3524341285228729</v>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293" t="n">
+        <v>0.2730404734611511</v>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" t="n">
+        <v>0.4351556301116943</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/output/oof_predictions.xlsx
+++ b/output/oof_predictions.xlsx
@@ -48052,6467 +48052,6467 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.01742303371429443</v>
+        <v>0.003033846616744995</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.4672009944915771</v>
+        <v>0.4736223518848419</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.7767406105995178</v>
+        <v>0.8274931907653809</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.8350707292556763</v>
+        <v>0.9616941809654236</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.109747409820557</v>
+        <v>1.035393118858337</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.3380366861820221</v>
+        <v>0.3381192684173584</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.3968701362609863</v>
+        <v>0.4276883900165558</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.075637698173523</v>
+        <v>0.9819355010986328</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.4120272397994995</v>
+        <v>0.3240833282470703</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.1800912916660309</v>
+        <v>0.1755841970443726</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.7145441174507141</v>
+        <v>0.694504976272583</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.2800676822662354</v>
+        <v>0.3786748349666595</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.6878494024276733</v>
+        <v>0.4880224168300629</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.2024954110383987</v>
+        <v>0.06549769639968872</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.6374021768569946</v>
+        <v>0.2975445687770844</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.8121750950813293</v>
+        <v>0.7585427761077881</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.706509530544281</v>
+        <v>0.6529616713523865</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.7125392556190491</v>
+        <v>0.8051826953887939</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.5424376726150513</v>
+        <v>0.7957934737205505</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.2392943799495697</v>
+        <v>0.2071821093559265</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1.199864029884338</v>
+        <v>1.209249377250671</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1.605054974555969</v>
+        <v>0.684776246547699</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.504831850528717</v>
+        <v>0.5314288139343262</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.2657248079776764</v>
+        <v>0.1874841153621674</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.3532710075378418</v>
+        <v>0.5036171674728394</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.5671411156654358</v>
+        <v>0.5371674299240112</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.3552400469779968</v>
+        <v>0.2939541935920715</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.8740508556365967</v>
+        <v>0.9569882154464722</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.1515395045280457</v>
+        <v>0.3456834852695465</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.7405676245689392</v>
+        <v>0.6940782070159912</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.9212921857833862</v>
+        <v>0.8792886137962341</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.2507655620574951</v>
+        <v>0.275434672832489</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.3724821209907532</v>
+        <v>0.06124675273895264</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.8023333549499512</v>
+        <v>1.001372814178467</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.5122517943382263</v>
+        <v>0.4460096955299377</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-0.09162639826536179</v>
+        <v>0.1166763603687286</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.589891791343689</v>
+        <v>0.780329704284668</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.398297905921936</v>
+        <v>0.3375936448574066</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.6825734376907349</v>
+        <v>0.5964053869247437</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.2675095498561859</v>
+        <v>0.2609611451625824</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.2789360284805298</v>
+        <v>0.318118691444397</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.5587303638458252</v>
+        <v>0.6967053413391113</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.9867198467254639</v>
+        <v>0.8139899969100952</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.196389377117157</v>
+        <v>0.1255360841751099</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.310156226158142</v>
+        <v>0.8546408414840698</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.6976537704467773</v>
+        <v>0.7510993480682373</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.122213125228882</v>
+        <v>1.366750240325928</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.8474310636520386</v>
+        <v>0.7620530128479004</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.5335893630981445</v>
+        <v>0.7192689180374146</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.4255127310752869</v>
+        <v>0.387111634016037</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.3750967085361481</v>
+        <v>0.5108585357666016</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.8231220245361328</v>
+        <v>0.7842838764190674</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.1371473222970963</v>
+        <v>0.2028506100177765</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.5224471688270569</v>
+        <v>0.582438051700592</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.6431717872619629</v>
+        <v>0.7133500576019287</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.350145697593689</v>
+        <v>0.3921819031238556</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.4232965707778931</v>
+        <v>0.4024827182292938</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.203461080789566</v>
+        <v>0.1471055448055267</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.5197466611862183</v>
+        <v>0.576237678527832</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.7566959261894226</v>
+        <v>0.7732213735580444</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.4252407550811768</v>
+        <v>0.4036156535148621</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.9253937005996704</v>
+        <v>1.095104098320007</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.1766637563705444</v>
+        <v>0.2285171300172806</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.145073413848877</v>
+        <v>0.1836732625961304</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.14917516708374</v>
+        <v>1.084450960159302</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.2634636461734772</v>
+        <v>0.1962924003601074</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.553366482257843</v>
+        <v>0.5730076432228088</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.6080792546272278</v>
+        <v>0.516792893409729</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.3336726427078247</v>
+        <v>0.3630381524562836</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.6354963779449463</v>
+        <v>0.8836860656738281</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.9625810980796814</v>
+        <v>1.023567080497742</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.5274173021316528</v>
+        <v>0.5770536661148071</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.4840595126152039</v>
+        <v>0.4488156735897064</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.3030797243118286</v>
+        <v>0.2922340035438538</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.4792895615100861</v>
+        <v>0.1829083263874054</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.6264070272445679</v>
+        <v>0.5098264217376709</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.8702501058578491</v>
+        <v>0.8530677556991577</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.8214809894561768</v>
+        <v>1.022060394287109</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1.0406653881073</v>
+        <v>0.9964065551757812</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.5443786382675171</v>
+        <v>0.2894797027111053</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.5209130048751831</v>
+        <v>0.7056073546409607</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.7503721714019775</v>
+        <v>0.708095908164978</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.3889848589897156</v>
+        <v>0.2702131867408752</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.3842868804931641</v>
+        <v>0.7865810394287109</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.4901895225048065</v>
+        <v>0.5276264548301697</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.5770902633666992</v>
+        <v>0.3975571691989899</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.5114373564720154</v>
+        <v>0.4595154225826263</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.8623507022857666</v>
+        <v>0.8262913227081299</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.3693830370903015</v>
+        <v>0.3448092639446259</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.4865553975105286</v>
+        <v>0.3200357854366302</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.7882170677185059</v>
+        <v>0.6301283836364746</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.1595804244279861</v>
+        <v>0.03388136625289917</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.7998694181442261</v>
+        <v>0.8641184568405151</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.1457426846027374</v>
+        <v>0.2497164011001587</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.1453802436590195</v>
+        <v>0.09808506071567535</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.204687312245369</v>
+        <v>0.4038730263710022</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.6206167340278625</v>
+        <v>0.5469114184379578</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.8863226175308228</v>
+        <v>0.8573352694511414</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.2067982405424118</v>
+        <v>0.3533563613891602</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.1214976161718369</v>
+        <v>0.187448650598526</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.5368368029594421</v>
+        <v>0.5793400406837463</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.909818708896637</v>
+        <v>0.946613073348999</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.3909662961959839</v>
+        <v>0.3248454332351685</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-0.01173369586467743</v>
+        <v>0.1152746304869652</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.6311562061309814</v>
+        <v>0.7519856095314026</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.3330485224723816</v>
+        <v>0.4623054563999176</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.478784441947937</v>
+        <v>0.2793686389923096</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.7492792010307312</v>
+        <v>0.8821259737014771</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.234648197889328</v>
+        <v>0.2688247561454773</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.1563389599323273</v>
+        <v>0.2281292378902435</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.2625913023948669</v>
+        <v>0.3934139013290405</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.1749823242425919</v>
+        <v>0.09362567216157913</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.4324218034744263</v>
+        <v>0.5773310661315918</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.3132611513137817</v>
+        <v>0.3425810635089874</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.7288681864738464</v>
+        <v>0.5706238746643066</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1.279856443405151</v>
+        <v>1.582595586776733</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-0.022257000207901</v>
+        <v>0.01241035759449005</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.6633731126785278</v>
+        <v>0.7763464450836182</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.2697810530662537</v>
+        <v>0.3785397410392761</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.3167605698108673</v>
+        <v>0.250516265630722</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.3328944742679596</v>
+        <v>0.3077963888645172</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.273590087890625</v>
+        <v>0.2346385419368744</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.5194980502128601</v>
+        <v>0.5484426021575928</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.7317971587181091</v>
+        <v>0.7404947280883789</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-0.07086793333292007</v>
+        <v>-0.09652888774871826</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.3449265360832214</v>
+        <v>0.2972928285598755</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.2017515599727631</v>
+        <v>0.2066697478294373</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.509917676448822</v>
+        <v>0.3253295123577118</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.1165425702929497</v>
+        <v>0.1642155349254608</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.4617513418197632</v>
+        <v>0.3960537314414978</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-0.6041282415390015</v>
+        <v>0.07880726456642151</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.3696994483470917</v>
+        <v>0.5552330613136292</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.8498841524124146</v>
+        <v>0.9032577872276306</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.7186329960823059</v>
+        <v>1.093647003173828</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.07766400277614594</v>
+        <v>0.1230942010879517</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.1939530372619629</v>
+        <v>0.2035218775272369</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.5396975874900818</v>
+        <v>0.4457140564918518</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.2421394437551498</v>
+        <v>0.3146229386329651</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.3708129525184631</v>
+        <v>0.2243883013725281</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.9994672536849976</v>
+        <v>1.029158234596252</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.6616860032081604</v>
+        <v>0.6984364986419678</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.03021292388439178</v>
+        <v>0.07194516807794571</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.1817919909954071</v>
+        <v>0.1584841907024384</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>1.110183954238892</v>
+        <v>1.06401002407074</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.6715480089187622</v>
+        <v>0.5419906973838806</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.3117509484291077</v>
+        <v>0.3111715316772461</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.793168842792511</v>
+        <v>0.8538821339607239</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.8198280930519104</v>
+        <v>0.8375426530838013</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.4620003998279572</v>
+        <v>0.4942221641540527</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.4098643362522125</v>
+        <v>0.3726633489131927</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.7064093351364136</v>
+        <v>0.7535930275917053</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.3511785864830017</v>
+        <v>0.1357772797346115</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>1.034932017326355</v>
+        <v>1.025083541870117</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.2089651823043823</v>
+        <v>0.4931736886501312</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0.3124666512012482</v>
+        <v>0.3809973299503326</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0.6890140175819397</v>
+        <v>0.8222807645797729</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0.702862024307251</v>
+        <v>0.538200318813324</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.3684490919113159</v>
+        <v>0.4107152223587036</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.3841426372528076</v>
+        <v>0.3999800384044647</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0.4053144454956055</v>
+        <v>0.4662875235080719</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0.62632155418396</v>
+        <v>0.654805064201355</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.3122037053108215</v>
+        <v>0.2398722022771835</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.6384941935539246</v>
+        <v>0.7997700572013855</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.7142416834831238</v>
+        <v>0.7893005609512329</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.2534577250480652</v>
+        <v>0.3632251024246216</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0.2671219110488892</v>
+        <v>0.4335418939590454</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.2170558124780655</v>
+        <v>-0.01425701379776001</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>-0.0779421254992485</v>
+        <v>0.1348036229610443</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.5415010452270508</v>
+        <v>0.604057788848877</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0.240330696105957</v>
+        <v>0.2577118575572968</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0.740067183971405</v>
+        <v>0.7937182188034058</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.1650380194187164</v>
+        <v>0.6454837918281555</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0.6803208589553833</v>
+        <v>0.778903067111969</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.6869235634803772</v>
+        <v>0.6561199426651001</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0.3720024824142456</v>
+        <v>0.3705959022045135</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0.143238753080368</v>
+        <v>0.2226713597774506</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.4863706827163696</v>
+        <v>0.3943245708942413</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.5572230815887451</v>
+        <v>0.6554240584373474</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.5044370889663696</v>
+        <v>0.5654705762863159</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0.7753401398658752</v>
+        <v>0.7030278444290161</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0.1716554462909698</v>
+        <v>0.1556190848350525</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0.1139803528785706</v>
+        <v>0.1501534432172775</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0.6546832323074341</v>
+        <v>0.5119787454605103</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0.5194616317749023</v>
+        <v>0.2713468074798584</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.328110009431839</v>
+        <v>0.3885423839092255</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0.1720805466175079</v>
+        <v>0.003186434507369995</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.1687886565923691</v>
+        <v>-0.0482444167137146</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>1.056915163993835</v>
+        <v>0.827315092086792</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0.9536927342414856</v>
+        <v>0.8527562618255615</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0.8231863975524902</v>
+        <v>0.6926554441452026</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>0.2601927518844604</v>
+        <v>0.3409789502620697</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>3.605481624603271</v>
+        <v>0.07830950617790222</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0.4732097983360291</v>
+        <v>0.4944671094417572</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0.2264394015073776</v>
+        <v>0.2568056583404541</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0.535213828086853</v>
+        <v>0.6539237499237061</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0.1622034907341003</v>
+        <v>0.1400579512119293</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0.4290928244590759</v>
+        <v>0.5997220277786255</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0.02825352549552917</v>
+        <v>0.08014634251594543</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>1.313690900802612</v>
+        <v>1.052454710006714</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>0.8778976798057556</v>
+        <v>0.707700252532959</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>0.8503351807594299</v>
+        <v>0.8299510478973389</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>0.2136553078889847</v>
+        <v>0.08443069458007812</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>0.6164091825485229</v>
+        <v>0.491424024105072</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>0.316332221031189</v>
+        <v>0.5719670057296753</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>0.05740007758140564</v>
+        <v>0.2418863773345947</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>0.3570393919944763</v>
+        <v>0.4492686092853546</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>0.5521763563156128</v>
+        <v>0.5507273077964783</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>0.8255192041397095</v>
+        <v>0.6485783457756042</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>0.5074968934059143</v>
+        <v>0.5571786165237427</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>0.9840378165245056</v>
+        <v>0.9526033401489258</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>0.4560149312019348</v>
+        <v>0.5590113401412964</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>0.8772047758102417</v>
+        <v>1.028501391410828</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>0.4129090905189514</v>
+        <v>0.4311979413032532</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>1.019724369049072</v>
+        <v>0.9600064158439636</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>0.1645848006010056</v>
+        <v>0.1011328026652336</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>0.1663128435611725</v>
+        <v>0.1520896852016449</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>0.1176203489303589</v>
+        <v>0.0512692928314209</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>0.6136162877082825</v>
+        <v>0.7185548543930054</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>1.045856475830078</v>
+        <v>0.827135443687439</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>0.8450928926467896</v>
+        <v>0.6096651554107666</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>0.3189540207386017</v>
+        <v>0.3899748623371124</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>0.1830142736434937</v>
+        <v>0.5369721651077271</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>0.4236019849777222</v>
+        <v>0.5784446001052856</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>0.6712349057197571</v>
+        <v>0.6190304756164551</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>0.4228628873825073</v>
+        <v>0.3470893204212189</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>0.3843945860862732</v>
+        <v>0.5494056344032288</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>0.8055815696716309</v>
+        <v>1.023994207382202</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>0.6184540390968323</v>
+        <v>0.5610961318016052</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>0.2739666104316711</v>
+        <v>0.2408471703529358</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>-3.408295631408691</v>
+        <v>-2.898381233215332</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>0.8354236483573914</v>
+        <v>0.8934735655784607</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>0.6957076787948608</v>
+        <v>0.4585497081279755</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>0.5391272306442261</v>
+        <v>0.7092893123626709</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>-0.06795399636030197</v>
+        <v>0.4235637485980988</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>0.8926398754119873</v>
+        <v>1.030878901481628</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>0.3164641857147217</v>
+        <v>0.5852322578430176</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>0.5834891200065613</v>
+        <v>0.528099536895752</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>0.5341626405715942</v>
+        <v>0.5573154091835022</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>0.3258441090583801</v>
+        <v>0.6115502715110779</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>0.5761914253234863</v>
+        <v>0.6123553514480591</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>0.772891104221344</v>
+        <v>0.8174475431442261</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>0.3918575048446655</v>
+        <v>0.2711251378059387</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>0.2137327790260315</v>
+        <v>-0.01713048666715622</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>0.2107774913311005</v>
+        <v>0.1473712921142578</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>0.3880533576011658</v>
+        <v>0.3265176713466644</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>0.7105019092559814</v>
+        <v>0.4935150444507599</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>0.406103789806366</v>
+        <v>0.3547945320606232</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>0.3275759816169739</v>
+        <v>0.3826567828655243</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>0.9044581651687622</v>
+        <v>0.8223478198051453</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>0.9427686929702759</v>
+        <v>1.096335411071777</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>0.6329470872879028</v>
+        <v>0.5447202324867249</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>0.4405935406684875</v>
+        <v>0.668121337890625</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>-0.1722358912229538</v>
+        <v>-0.1106752157211304</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>0.8479354381561279</v>
+        <v>0.778461217880249</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>0.371249258518219</v>
+        <v>0.5819697380065918</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>0.4921222329139709</v>
+        <v>0.4094322621822357</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>0.8210140466690063</v>
+        <v>0.6695337295532227</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>0.8191472291946411</v>
+        <v>0.6745516061782837</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>0.5504167079925537</v>
+        <v>0.7706414461135864</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>0.5383045077323914</v>
+        <v>0.6884347200393677</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>0.3773240447044373</v>
+        <v>0.2891728579998016</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>0.7620481848716736</v>
+        <v>0.8896785974502563</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>0.2126756459474564</v>
+        <v>0.2766735553741455</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>0.598605751991272</v>
+        <v>0.6142525672912598</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>0.4157901406288147</v>
+        <v>0.2961611449718475</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>0.4466694593429565</v>
+        <v>0.3321714699268341</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>0.07953079044818878</v>
+        <v>0.0006690099835395813</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>0.1943008303642273</v>
+        <v>0.2248938977718353</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>0.1942457854747772</v>
+        <v>0.1749509871006012</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>0.4209150671958923</v>
+        <v>0.7463271617889404</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>1.215502738952637</v>
+        <v>1.0523282289505</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>0.8835951685905457</v>
+        <v>0.7268886566162109</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>0.05731844902038574</v>
+        <v>0.2400384545326233</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>0.9350365996360779</v>
+        <v>0.7565635442733765</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>0.3920223116874695</v>
+        <v>0.6567491292953491</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>0.4857033491134644</v>
+        <v>0.3560115098953247</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>0.1420409828424454</v>
+        <v>0.1266638189554214</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>0.5549857616424561</v>
+        <v>0.6669334173202515</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>0.8828625679016113</v>
+        <v>0.9842090606689453</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>0.6062333583831787</v>
+        <v>0.3433319926261902</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>1.010342597961426</v>
+        <v>0.869004487991333</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>0.2555028200149536</v>
+        <v>0.3587805032730103</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>1.011953115463257</v>
+        <v>0.8220900297164917</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>0.4127516150474548</v>
+        <v>0.425592303276062</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>-0.007207639515399933</v>
+        <v>0.1952930390834808</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>0.2785463035106659</v>
+        <v>0.1238830611109734</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>0.2474925816059113</v>
+        <v>0.3272571563720703</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>0.1128735467791557</v>
+        <v>0.1384179592132568</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>0.5016790628433228</v>
+        <v>0.4561212062835693</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>0.1512435972690582</v>
+        <v>0.3221216201782227</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>0.3760527372360229</v>
+        <v>0.4045479297637939</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>0.8306444883346558</v>
+        <v>0.7623882293701172</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>0.9440426230430603</v>
+        <v>0.9191272258758545</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>0.1844780892133713</v>
+        <v>0.5341145992279053</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>0.6821588277816772</v>
+        <v>0.6954668164253235</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>0.2236549407243729</v>
+        <v>0.228584498167038</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>0.562693178653717</v>
+        <v>0.4988543093204498</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>0.857088029384613</v>
+        <v>1.001854777336121</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>0.2940695881843567</v>
+        <v>0.2136787474155426</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>0.2797212600708008</v>
+        <v>0.1852042078971863</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>-0.01966038346290588</v>
+        <v>-0.2423050999641418</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>0.2668687701225281</v>
+        <v>0.1688766479492188</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>0.6221804022789001</v>
+        <v>0.6544862985610962</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>0.483618438243866</v>
+        <v>0.6386778354644775</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>0.5095980763435364</v>
+        <v>0.550761342048645</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>0.01258073747158051</v>
+        <v>0.1021631360054016</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>0.5421440601348877</v>
+        <v>0.2493027746677399</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>1.355430960655212</v>
+        <v>1.15134334564209</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>0.4099043011665344</v>
+        <v>0.3342472016811371</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>0.1967253386974335</v>
+        <v>0.2089104056358337</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>0.3728722333908081</v>
+        <v>0.4341382086277008</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>0.6772558689117432</v>
+        <v>0.6165840625762939</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>0.9078133702278137</v>
+        <v>0.7584770917892456</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>0.4548571705818176</v>
+        <v>0.4698760211467743</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>0.6299710273742676</v>
+        <v>0.5832732319831848</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>0.53321373462677</v>
+        <v>0.4882262945175171</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>0.1768864691257477</v>
+        <v>0.2530883252620697</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>0.450314998626709</v>
+        <v>0.3836365640163422</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>0.5265895128250122</v>
+        <v>0.3965087831020355</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>0.4202027320861816</v>
+        <v>0.4886824786663055</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>0.04734576493501663</v>
+        <v>0.325595885515213</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>0.07514907419681549</v>
+        <v>0.01631120592355728</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>0.7323548793792725</v>
+        <v>0.7545442581176758</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>0.6790088415145874</v>
+        <v>0.02755369991064072</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>0.883774995803833</v>
+        <v>1.030249357223511</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>0.3076522946357727</v>
+        <v>0.5188002586364746</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>0.7430139780044556</v>
+        <v>0.9846438765525818</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>0.2257165312767029</v>
+        <v>0.08847489953041077</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>0.7599425315856934</v>
+        <v>0.8069031834602356</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>0.640284538269043</v>
+        <v>0.9635286331176758</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>0.3160730004310608</v>
+        <v>0.3975234031677246</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>0.3975486755371094</v>
+        <v>0.2071422040462494</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>0.3272236585617065</v>
+        <v>0.6661770939826965</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>0.02110613882541656</v>
+        <v>0.1047728434205055</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>0.560125470161438</v>
+        <v>0.6463654041290283</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>0.6244917511940002</v>
+        <v>0.6272101402282715</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>0.9158958196640015</v>
+        <v>0.7598069906234741</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>0.1139527410268784</v>
+        <v>0.1505822092294693</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>0.6558334827423096</v>
+        <v>0.054984450340271</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>0.4455039501190186</v>
+        <v>0.527423083782196</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>-0.1589759886264801</v>
+        <v>-0.2167602330446243</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>0.8137931823730469</v>
+        <v>0.8429381847381592</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>0.9182249903678894</v>
+        <v>0.684160590171814</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>0.0915638655424118</v>
+        <v>0.2227461785078049</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>0.3676859438419342</v>
+        <v>0.2959484159946442</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>0.002616092562675476</v>
+        <v>0.1268115043640137</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>0.6341635584831238</v>
+        <v>0.7107160091400146</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>0.1816362142562866</v>
+        <v>0.1535541117191315</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>1.287120342254639</v>
+        <v>2.515406847000122</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>0.3717668652534485</v>
+        <v>0.5810041427612305</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>0.9575409293174744</v>
+        <v>0.9770143032073975</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>0.1855038106441498</v>
+        <v>0.1859219372272491</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>0.8817484378814697</v>
+        <v>0.8990098237991333</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>0.390249490737915</v>
+        <v>0.4439677298069</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>0.7644853591918945</v>
+        <v>0.8477416634559631</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>0.5727246999740601</v>
+        <v>0.5629836320877075</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>0.5122954845428467</v>
+        <v>0.5713038444519043</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>0.4291029274463654</v>
+        <v>0.6018304228782654</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>0.1275304853916168</v>
+        <v>0.1502550840377808</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>0.3682637810707092</v>
+        <v>0.2785871028900146</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>0.5408794283866882</v>
+        <v>0.5928575992584229</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>0.1645708382129669</v>
+        <v>0.2493116557598114</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>0.7793627381324768</v>
+        <v>0.7600966095924377</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>0.5013155341148376</v>
+        <v>0.5414640307426453</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>0.6352312564849854</v>
+        <v>0.796113908290863</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>0.1765923500061035</v>
+        <v>0.4004336297512054</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>0.4847564697265625</v>
+        <v>0.3623570203781128</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>0.4642436504364014</v>
+        <v>0.6303988099098206</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>0.2214419394731522</v>
+        <v>0.1553188562393188</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>0.6517466306686401</v>
+        <v>0.1300891935825348</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>0.8397515416145325</v>
+        <v>0.6522479653358459</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>0.1151107922196388</v>
+        <v>0.2164879143238068</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>0.3600608110427856</v>
+        <v>0.3131043910980225</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>0.1853757500648499</v>
+        <v>0.3626963496208191</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>0.3873683214187622</v>
+        <v>0.3888520300388336</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>0.9688937664031982</v>
+        <v>0.8652517795562744</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>0.3323985934257507</v>
+        <v>0.3407839834690094</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>0.6997302770614624</v>
+        <v>1.113603234291077</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>0.2046873420476913</v>
+        <v>0.4038730263710022</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>1.28305447101593</v>
+        <v>0.7877138257026672</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>0.3271344304084778</v>
+        <v>0.2910216748714447</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>0.7733092904090881</v>
+        <v>0.8997219800949097</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>0.65932697057724</v>
+        <v>0.7487616539001465</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>0.7269217967987061</v>
+        <v>0.844468355178833</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>0.3634201288223267</v>
+        <v>0.4016855359077454</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>0.1189504563808441</v>
+        <v>0.05649158358573914</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>0.2974874377250671</v>
+        <v>0.2292085886001587</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>0.8039264678955078</v>
+        <v>0.8877304196357727</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>0.771843433380127</v>
+        <v>0.8186042308807373</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>0.3121996223926544</v>
+        <v>0.2593549489974976</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>0.6633057594299316</v>
+        <v>0.721217930316925</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>-0.02605526149272919</v>
+        <v>0.4084740281105042</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>0.9043405055999756</v>
+        <v>0.39479660987854</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>0.981203556060791</v>
+        <v>0.9639341831207275</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>0.3952226638793945</v>
+        <v>0.1321945488452911</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>0.2499994039535522</v>
+        <v>0.4695030152797699</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>0.2313058972358704</v>
+        <v>0.1949686110019684</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>-0.03374944627285004</v>
+        <v>0.1248444318771362</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>0.5325644612312317</v>
+        <v>0.3454711735248566</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>0.4545568823814392</v>
+        <v>0.3883639276027679</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>0.2184288650751114</v>
+        <v>0.4666838645935059</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>0.229709580540657</v>
+        <v>0.3595475554466248</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>0.0776737779378891</v>
+        <v>0.04442696273326874</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>0.2316185981035233</v>
+        <v>0.4144731163978577</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>-0.0386812686920166</v>
+        <v>0.2365965843200684</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>0.7770060896873474</v>
+        <v>0.7291759252548218</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>0.8992664217948914</v>
+        <v>0.6705443859100342</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>0.9410929679870605</v>
+        <v>0.7878748178482056</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>0.2083461582660675</v>
+        <v>0.2386438548564911</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>0.2755548357963562</v>
+        <v>0.2598854303359985</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>0.5076681971549988</v>
+        <v>0.4803337752819061</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>0.3080975413322449</v>
+        <v>0.2095147967338562</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>0.7876027822494507</v>
+        <v>0.7418614625930786</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>0.3868914544582367</v>
+        <v>0.3094442784786224</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>0.399353951215744</v>
+        <v>0.4788286089897156</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>0.2271200865507126</v>
+        <v>0.2304991781711578</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>0.6573814153671265</v>
+        <v>0.5769168138504028</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>0.4002041518688202</v>
+        <v>0.4321196973323822</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>0.5218522548675537</v>
+        <v>0.4517700970172882</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>0.2268198430538177</v>
+        <v>0.3059682250022888</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>0.2573862373828888</v>
+        <v>0.2910546958446503</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>0.5164417028427124</v>
+        <v>0.06797724962234497</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>0.5925023555755615</v>
+        <v>0.4114747941493988</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>0.2258127778768539</v>
+        <v>0.2348205745220184</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>0.07222359627485275</v>
+        <v>0.02012673765420914</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>0.2214764058589935</v>
+        <v>0.2150625884532928</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>0.4815682768821716</v>
+        <v>0.492409735918045</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>0.4431478977203369</v>
+        <v>0.2460919320583344</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>0.7286890149116516</v>
+        <v>0.7094002366065979</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>0.6620272397994995</v>
+        <v>0.6367514729499817</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>0.3422951102256775</v>
+        <v>0.2270258069038391</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>0.04940684884786606</v>
+        <v>0.1594567596912384</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>0.4991611838340759</v>
+        <v>0.4682196974754333</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>0.6439684629440308</v>
+        <v>0.674496054649353</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>0.2372321486473083</v>
+        <v>0.4043098390102386</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>0.9479193091392517</v>
+        <v>0.9172525405883789</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>0.5494085550308228</v>
+        <v>0.6847882270812988</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>0.8992664217948914</v>
+        <v>0.6705443859100342</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>0.3517090678215027</v>
+        <v>0.3744686543941498</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>-0.0432504266500473</v>
+        <v>0.04699937254190445</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>0.3437678813934326</v>
+        <v>0.5001558661460876</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>0.117220938205719</v>
+        <v>0.1269281208515167</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>1.083092212677002</v>
+        <v>0.9222772121429443</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>0.3227315843105316</v>
+        <v>0.3467496931552887</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>0.6199800968170166</v>
+        <v>0.590908408164978</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>0.00636938214302063</v>
+        <v>0.02218487858772278</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>0.007523201406002045</v>
+        <v>-0.1916342973709106</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>0.1275335848331451</v>
+        <v>0.4021548330783844</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>0.1984384655952454</v>
+        <v>0.2205526828765869</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>0.6830959320068359</v>
+        <v>0.618003249168396</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>0.4158847033977509</v>
+        <v>0.3021780848503113</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>0.6351814866065979</v>
+        <v>0.4676544368267059</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>0.4150620698928833</v>
+        <v>0.1490073055028915</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>0.6349747776985168</v>
+        <v>0.4351459443569183</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>0.367328405380249</v>
+        <v>0.3885188102722168</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>0.434663712978363</v>
+        <v>0.4425032436847687</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>0.33188197016716</v>
+        <v>0.195389062166214</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>0.458023726940155</v>
+        <v>0.6977037787437439</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>0.1108786910772324</v>
+        <v>0.2388898432254791</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>0.3167362809181213</v>
+        <v>0.08345335721969604</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>0.5222736597061157</v>
+        <v>0.5132142901420593</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>0.2627412378787994</v>
+        <v>0.1680049002170563</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>0.5822661519050598</v>
+        <v>0.7685085535049438</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>0.6525518894195557</v>
+        <v>0.5800144672393799</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>0.2789534032344818</v>
+        <v>0.3255932033061981</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>0.1825784146785736</v>
+        <v>0.1657261848449707</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>0.6956717967987061</v>
+        <v>0.7304348945617676</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>0.4698635935783386</v>
+        <v>0.6780611276626587</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>0.5994405746459961</v>
+        <v>0.8122618794441223</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>0.1402297466993332</v>
+        <v>0.2538987100124359</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>0.378312349319458</v>
+        <v>0.4573675692081451</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>0.4768957495689392</v>
+        <v>0.3486444354057312</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>0.750909686088562</v>
+        <v>0.8940560817718506</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>0.09545533359050751</v>
+        <v>0.3911291658878326</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>0.8855668306350708</v>
+        <v>0.5914543271064758</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>0.9189250469207764</v>
+        <v>1.404992580413818</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>0.5467979907989502</v>
+        <v>0.4103811085224152</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>0.01081199198961258</v>
+        <v>-0.138776570558548</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>0.6909856200218201</v>
+        <v>0.6563749313354492</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>0.1852732300758362</v>
+        <v>0.1610086858272552</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>0.2448026835918427</v>
+        <v>0.3478240966796875</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>0.566670835018158</v>
+        <v>0.6266410946846008</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>0.5215933322906494</v>
+        <v>0.5977198481559753</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>0.2956506609916687</v>
+        <v>0.2006547451019287</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>-0.05132506787776947</v>
+        <v>0.03462767601013184</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>0.2578778862953186</v>
+        <v>0.2701147496700287</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>0.287316620349884</v>
+        <v>0.1779674291610718</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>0.4715767502784729</v>
+        <v>0.5346286296844482</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>0.1004884541034698</v>
+        <v>0.1220113933086395</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>0.7686165571212769</v>
+        <v>0.4775702059268951</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>0.2276677489280701</v>
+        <v>-0.6858335733413696</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>0.1877802014350891</v>
+        <v>0.1196408569812775</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>0.5072710514068604</v>
+        <v>0.4917629361152649</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>-0.003877073526382446</v>
+        <v>0.04535277932882309</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>0.3482100665569305</v>
+        <v>0.2118348479270935</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>0.4991915822029114</v>
+        <v>0.6461647748947144</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>0.3513894081115723</v>
+        <v>0.3314439356327057</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>0.8179771304130554</v>
+        <v>0.838817834854126</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>0.6805731058120728</v>
+        <v>0.786487340927124</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>0.3068722784519196</v>
+        <v>0.2232525795698166</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>0.4156187176704407</v>
+        <v>0.4359098970890045</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>0.4383544325828552</v>
+        <v>0.5277801752090454</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>1.042213797569275</v>
+        <v>1.027892351150513</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>0.4239749908447266</v>
+        <v>0.4229511916637421</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>0.6466834545135498</v>
+        <v>0.540579080581665</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>0.6862142086029053</v>
+        <v>0.6711564064025879</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>0.4747481346130371</v>
+        <v>0.4811499416828156</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>0.6918046474456787</v>
+        <v>0.8909229040145874</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>0.572888970375061</v>
+        <v>0.5335314273834229</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>0.6894426345825195</v>
+        <v>1.114479303359985</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>0.5419037938117981</v>
+        <v>0.4950839579105377</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>0.1296340823173523</v>
+        <v>0.1248112171888351</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>0.5524481534957886</v>
+        <v>0.6642683744430542</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>0.4821267127990723</v>
+        <v>0.4518557488918304</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>0.04030142724514008</v>
+        <v>0.1968760788440704</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>0.6825435161590576</v>
+        <v>0.5828109979629517</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>0.3992003202438354</v>
+        <v>0.4798715710639954</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>0.6449033617973328</v>
+        <v>0.683013916015625</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>0.2091284990310669</v>
+        <v>0.1475152671337128</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>0.8471366167068481</v>
+        <v>0.8589850664138794</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>0.2768527865409851</v>
+        <v>0.4313338398933411</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>0.04567702859640121</v>
+        <v>0.1147294342517853</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>0.8302134871482849</v>
+        <v>0.8731541037559509</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>0.606997549533844</v>
+        <v>0.5293649435043335</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>1.083020687103271</v>
+        <v>0.6305749416351318</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>0.1761714816093445</v>
+        <v>0.08718648552894592</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>0.2535858452320099</v>
+        <v>0.1825938522815704</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>0.8362524509429932</v>
+        <v>0.7826976180076599</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>0.9464835524559021</v>
+        <v>1.022804975509644</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>0.6708380579948425</v>
+        <v>0.4054616987705231</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>0.5222749710083008</v>
+        <v>0.4675426483154297</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>0.4481032490730286</v>
+        <v>0.8819697499275208</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>0.777733325958252</v>
+        <v>0.9201739430427551</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>0.9113474488258362</v>
+        <v>0.7947094440460205</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>0.1990431547164917</v>
+        <v>0.219186931848526</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>0.4552834630012512</v>
+        <v>0.5330185890197754</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>0.1109816804528236</v>
+        <v>0.08656475692987442</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>0.8819834589958191</v>
+        <v>0.8846350908279419</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>0.206327497959137</v>
+        <v>0.2138197422027588</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>0.9669848680496216</v>
+        <v>0.9713017344474792</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>0.2629002332687378</v>
+        <v>0.1824756860733032</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>0.6064832210540771</v>
+        <v>0.9410582780838013</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>1.129192113876343</v>
+        <v>1.180278778076172</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>0.8400523662567139</v>
+        <v>0.8944625854492188</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>-0.02689724415540695</v>
+        <v>0.1136158257722855</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>0.8474310636520386</v>
+        <v>0.7620530128479004</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>0.8219938278198242</v>
+        <v>0.9559519290924072</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>0.6457147598266602</v>
+        <v>0.9604200124740601</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>0.08692009001970291</v>
+        <v>0.1595517098903656</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>0.4502022266387939</v>
+        <v>0.562876284122467</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>0.2058052271604538</v>
+        <v>0.4382250010967255</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>0.1629343628883362</v>
+        <v>0.1368957161903381</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>0.7267128825187683</v>
+        <v>0.6291263103485107</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>0.8087304830551147</v>
+        <v>0.8928946852684021</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>0.2345264256000519</v>
+        <v>0.3187421858310699</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>0.9441395401954651</v>
+        <v>1.059128880500793</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>0.4314000606536865</v>
+        <v>0.6577380895614624</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>0.2681809365749359</v>
+        <v>-0.002799332141876221</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>0.08873594552278519</v>
+        <v>0.3234810531139374</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>0.3618602752685547</v>
+        <v>0.3775975406169891</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>0.4216352701187134</v>
+        <v>0.4400055408477783</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>0.1349766254425049</v>
+        <v>0.1012877523899078</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>0.1827350556850433</v>
+        <v>0.2345855236053467</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>-0.01627692580223083</v>
+        <v>0.06206655502319336</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>1.26252543926239</v>
+        <v>0.8242136240005493</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>0.5340195298194885</v>
+        <v>0.2729478180408478</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>0.4085259437561035</v>
+        <v>0.4421482086181641</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>0.3775988817214966</v>
+        <v>0.5102093815803528</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>0.3701814413070679</v>
+        <v>0.2869158387184143</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>0.1994517147541046</v>
+        <v>0.2018149793148041</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>0.8665053248405457</v>
+        <v>1.087585926055908</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>0.07223325222730637</v>
+        <v>0.07157725095748901</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>0.7687567472457886</v>
+        <v>0.7908366322517395</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>0.125202089548111</v>
+        <v>0.3846694529056549</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>0.4585031270980835</v>
+        <v>0.4661906659603119</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>0.2614704370498657</v>
+        <v>-0.04995319247245789</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>0.7716656923294067</v>
+        <v>0.5594272613525391</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>0.3859907388687134</v>
+        <v>0.4491989612579346</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>0.4273779392242432</v>
+        <v>0.3651616275310516</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>-0.04518982768058777</v>
+        <v>-0.3060027956962585</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>-0.08988028019666672</v>
+        <v>-0.1914570927619934</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>0.4973351359367371</v>
+        <v>0.3882754445075989</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>0.2808014154434204</v>
+        <v>0.2811344861984253</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>0.2165748924016953</v>
+        <v>0.181406170129776</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>0.4471136927604675</v>
+        <v>0.2601340115070343</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>0.3841631710529327</v>
+        <v>0.4571959376335144</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>0.3967404961585999</v>
+        <v>0.4611266851425171</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>0.4123903512954712</v>
+        <v>0.4508984684944153</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>0.05293162167072296</v>
+        <v>0.2387678027153015</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>1.195063591003418</v>
+        <v>0.9712619781494141</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>0.9008690118789673</v>
+        <v>0.8852297067642212</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>-0.09064622223377228</v>
+        <v>0.4384603798389435</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>0.7290862798690796</v>
+        <v>0.598649799823761</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>0.01184065639972687</v>
+        <v>0.103716179728508</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>-0.0200401246547699</v>
+        <v>0.1243028417229652</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>0.2189681082963943</v>
+        <v>0.1642993539571762</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>-0.0457550436258316</v>
+        <v>0.03332666307687759</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>0.8525652885437012</v>
+        <v>0.7715352177619934</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>0.6140913963317871</v>
+        <v>0.6411501169204712</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>0.7642098665237427</v>
+        <v>0.7452261447906494</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="n">
-        <v>1.117393970489502</v>
+        <v>0.8955029845237732</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="n">
-        <v>1.121851325035095</v>
+        <v>0.6004493236541748</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="n">
-        <v>0.1386310160160065</v>
+        <v>0.2257592082023621</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="n">
-        <v>0.6069333553314209</v>
+        <v>0.6553269624710083</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="n">
-        <v>1.025885105133057</v>
+        <v>0.9983859062194824</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="n">
-        <v>-0.02205927670001984</v>
+        <v>-0.02066436223685741</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="n">
-        <v>0.09861148148775101</v>
+        <v>0.1648541390895844</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="n">
-        <v>0.6764075756072998</v>
+        <v>0.8294123411178589</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="n">
-        <v>0.02387849986553192</v>
+        <v>0.2160810977220535</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="n">
-        <v>0.2234744429588318</v>
+        <v>-0.1931042820215225</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="n">
-        <v>-0.1710859686136246</v>
+        <v>0.1381140351295471</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="n">
-        <v>0.6772315502166748</v>
+        <v>0.5234760046005249</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="n">
-        <v>0.0510132908821106</v>
+        <v>-0.06571951508522034</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="n">
-        <v>0.7046199440956116</v>
+        <v>0.5419273972511292</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="n">
-        <v>0.3947543501853943</v>
+        <v>0.3538434505462646</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="n">
-        <v>-0.01790788024663925</v>
+        <v>0.1394563317298889</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="n">
-        <v>0.1086044982075691</v>
+        <v>0.2527863383293152</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="n">
-        <v>0.9440426230430603</v>
+        <v>0.9191272854804993</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="n">
-        <v>0.652026355266571</v>
+        <v>1.034849643707275</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="n">
-        <v>0.1361448466777802</v>
+        <v>0.1193937361240387</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="n">
-        <v>0.6422961950302124</v>
+        <v>0.599244236946106</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="n">
-        <v>0.1850584298372269</v>
+        <v>0.3217068016529083</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="n">
-        <v>0.2156665176153183</v>
+        <v>0.2037263214588165</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="n">
-        <v>0.5158085227012634</v>
+        <v>0.5400368571281433</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="n">
-        <v>0.6495460271835327</v>
+        <v>0.6053573489189148</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="n">
-        <v>0.6635511517524719</v>
+        <v>0.8495774269104004</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="n">
-        <v>0.4622287154197693</v>
+        <v>0.4672540128231049</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="n">
-        <v>0.6828283667564392</v>
+        <v>0.6050445437431335</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="n">
-        <v>0.2868834137916565</v>
+        <v>0.2980608642101288</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="n">
-        <v>0.1276599168777466</v>
+        <v>0.1961025595664978</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="n">
-        <v>0.3800798058509827</v>
+        <v>0.330670952796936</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="n">
-        <v>0.5378830432891846</v>
+        <v>0.4706839025020599</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="n">
-        <v>0.9121440649032593</v>
+        <v>0.922949492931366</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="n">
-        <v>0.4878955483436584</v>
+        <v>0.4565718472003937</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="n">
-        <v>0.3117509484291077</v>
+        <v>0.3111715018749237</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="n">
-        <v>0.580665111541748</v>
+        <v>1.093442678451538</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="n">
-        <v>0.6785523891448975</v>
+        <v>0.643556535243988</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="n">
-        <v>0.4952694475650787</v>
+        <v>0.4287135899066925</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="n">
-        <v>0.06499669700860977</v>
+        <v>0.1561045348644257</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="n">
-        <v>0.5361109972000122</v>
+        <v>0.5018419027328491</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="n">
-        <v>0.3661826252937317</v>
+        <v>0.3342673480510712</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="n">
-        <v>1.178984522819519</v>
+        <v>0.833658754825592</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="n">
-        <v>0.07861052453517914</v>
+        <v>0.1355396509170532</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="n">
-        <v>0.6769415140151978</v>
+        <v>0.5868738889694214</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="n">
-        <v>-0.1015454530715942</v>
+        <v>-0.001126311719417572</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="n">
-        <v>0.2445568591356277</v>
+        <v>0.1315358579158783</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="n">
-        <v>0.9979394674301147</v>
+        <v>1.011100292205811</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="n">
-        <v>0.2024954110383987</v>
+        <v>0.06549772620201111</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="n">
-        <v>0.1086949855089188</v>
+        <v>0.3110038638114929</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="n">
-        <v>0.2334041595458984</v>
+        <v>0.1158197820186615</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="n">
-        <v>-0.02966950833797455</v>
+        <v>0.009038843214511871</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="n">
-        <v>0.3841731548309326</v>
+        <v>0.262670636177063</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="n">
-        <v>0.8824558258056641</v>
+        <v>0.9425392150878906</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="n">
-        <v>0.948366105556488</v>
+        <v>0.7579845190048218</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="n">
-        <v>0.7081816792488098</v>
+        <v>0.6501016020774841</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="n">
-        <v>0.07141074538230896</v>
+        <v>0.1287138164043427</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="n">
-        <v>0.2418234944343567</v>
+        <v>0.2704302966594696</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="n">
-        <v>0.4087894558906555</v>
+        <v>0.3838943839073181</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="n">
-        <v>0.3609057664871216</v>
+        <v>0.2739399671554565</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="n">
-        <v>0.06433369219303131</v>
+        <v>0.0299566239118576</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="n">
-        <v>0.2840138971805573</v>
+        <v>0.7239347696304321</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="n">
-        <v>0.8748688101768494</v>
+        <v>0.8151326179504395</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="n">
-        <v>0.3505148887634277</v>
+        <v>0.5071539878845215</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="n">
-        <v>0.565192699432373</v>
+        <v>0.333392858505249</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="n">
-        <v>0.5672136545181274</v>
+        <v>0.6316256523132324</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="n">
-        <v>-0.1884550601243973</v>
+        <v>0.1430823504924774</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="n">
-        <v>0.924380362033844</v>
+        <v>0.8749593496322632</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="n">
-        <v>0.2467499971389771</v>
+        <v>0.1904191672801971</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="n">
-        <v>-0.01172013580799103</v>
+        <v>0.03678234666585922</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="n">
-        <v>0.5147536396980286</v>
+        <v>0.4994242489337921</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="n">
-        <v>0.529927134513855</v>
+        <v>0.7801226377487183</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="n">
-        <v>0.1704634875059128</v>
+        <v>0.2471957206726074</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="n">
-        <v>-0.04198222607374191</v>
+        <v>0.3747574985027313</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="n">
-        <v>0.2278648018836975</v>
+        <v>0.3375592827796936</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="n">
-        <v>0.3432543873786926</v>
+        <v>0.3097842037677765</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="n">
-        <v>0.2607296407222748</v>
+        <v>-0.234939843416214</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="n">
-        <v>0.9350365996360779</v>
+        <v>0.7565634846687317</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="n">
-        <v>0.2596901059150696</v>
+        <v>0.1186326071619987</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="n">
-        <v>0.1188359186053276</v>
+        <v>0.1632944494485855</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="n">
-        <v>0.8053193688392639</v>
+        <v>0.8474130034446716</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="n">
-        <v>0.853847861289978</v>
+        <v>1.09789776802063</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="n">
-        <v>0.219187006354332</v>
+        <v>0.3011791110038757</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="n">
-        <v>0.04020571708679199</v>
+        <v>0.1948874592781067</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="n">
-        <v>0.6474142074584961</v>
+        <v>0.6373257637023926</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="n">
-        <v>0.1004144325852394</v>
+        <v>0.1635769903659821</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="n">
-        <v>0.252768486738205</v>
+        <v>0.7206848859786987</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="n">
-        <v>0.4522446393966675</v>
+        <v>0.3537237346172333</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="n">
-        <v>0.193976953625679</v>
+        <v>0.1149035841226578</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="n">
-        <v>0.05338261276483536</v>
+        <v>0.2059710323810577</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="n">
-        <v>-0.03813313692808151</v>
+        <v>0.1169293820858002</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="n">
-        <v>0.09476853162050247</v>
+        <v>0.1245453506708145</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="n">
-        <v>0.7984526753425598</v>
+        <v>0.8057760000228882</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="n">
-        <v>0.03228142857551575</v>
+        <v>0.2942171394824982</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="n">
-        <v>0.1673958301544189</v>
+        <v>-0.08998051285743713</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="n">
-        <v>0.1796239912509918</v>
+        <v>0.1729800701141357</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="n">
-        <v>0.9748591780662537</v>
+        <v>0.8749822378158569</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="n">
-        <v>0.6573814153671265</v>
+        <v>0.5769168138504028</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="n">
-        <v>0.141650527715683</v>
+        <v>-0.0878349244594574</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="n">
-        <v>0.7008380889892578</v>
+        <v>0.8757591843605042</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="n">
-        <v>1.000508427619934</v>
+        <v>0.8904390335083008</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="n">
-        <v>0.1001617610454559</v>
+        <v>0.2094487547874451</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="n">
-        <v>-0.0008479505777359009</v>
+        <v>0.2081496119499207</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="n">
-        <v>0.5923311114311218</v>
+        <v>0.5900875926017761</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="n">
-        <v>0.7639248371124268</v>
+        <v>0.6167910099029541</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="n">
-        <v>0.08187276124954224</v>
+        <v>0.002905197441577911</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="n">
-        <v>0.6382520198822021</v>
+        <v>0.8946394324302673</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="n">
-        <v>0.4346408247947693</v>
+        <v>0.4057548344135284</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="n">
-        <v>-0.02631585299968719</v>
+        <v>0.00883118063211441</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="n">
-        <v>0.3908573985099792</v>
+        <v>0.7378489971160889</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="n">
-        <v>0.4659745097160339</v>
+        <v>0.7544599175453186</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="n">
-        <v>0.8562273979187012</v>
+        <v>0.8564307689666748</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="n">
-        <v>0.7324009537696838</v>
+        <v>1.326785206794739</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="n">
-        <v>0.2561852037906647</v>
+        <v>0.3205679953098297</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="n">
-        <v>0.4224961400032043</v>
+        <v>0.2336852848529816</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="n">
-        <v>0.2986462712287903</v>
+        <v>0.1827240884304047</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="n">
-        <v>0.3624381422996521</v>
+        <v>0.606480598449707</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="n">
-        <v>0.6418586373329163</v>
+        <v>0.6024998426437378</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="n">
-        <v>0.7769361734390259</v>
+        <v>0.8212397694587708</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="n">
-        <v>0.1386309266090393</v>
+        <v>0.2257592380046844</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="n">
-        <v>0.4646727442741394</v>
+        <v>0.5270272493362427</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="n">
-        <v>0.3800797760486603</v>
+        <v>0.330670952796936</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="n">
-        <v>0.2162535339593887</v>
+        <v>0.1771151423454285</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="n">
-        <v>0.4189726710319519</v>
+        <v>0.4110980927944183</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="n">
-        <v>0.1701803505420685</v>
+        <v>0.21567502617836</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="n">
-        <v>0.154575526714325</v>
+        <v>0.03007112443447113</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="n">
-        <v>0.2517267465591431</v>
+        <v>-0.04727882146835327</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="n">
-        <v>0.6503369212150574</v>
+        <v>0.5224710702896118</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="n">
-        <v>0.4433527588844299</v>
+        <v>0.2363707721233368</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="n">
-        <v>0.761494517326355</v>
+        <v>0.8482369184494019</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="n">
-        <v>0.07014864683151245</v>
+        <v>0.4941263496875763</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="n">
-        <v>0.1389496326446533</v>
+        <v>0.3017933964729309</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="n">
-        <v>0.08210650086402893</v>
+        <v>0.2001700699329376</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="n">
-        <v>0.808042049407959</v>
+        <v>0.8923832774162292</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="n">
-        <v>0.1347715854644775</v>
+        <v>0.3502711951732635</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="n">
-        <v>-0.007668502628803253</v>
+        <v>-0.03240703046321869</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="n">
-        <v>0.8965241312980652</v>
+        <v>0.9235198497772217</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="n">
-        <v>0.5440038442611694</v>
+        <v>0.4512094259262085</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="n">
-        <v>-0.2445634752511978</v>
+        <v>0.1058232113718987</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="n">
-        <v>0.5007054805755615</v>
+        <v>0.3574962913990021</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="n">
-        <v>0.8580222725868225</v>
+        <v>0.8647636771202087</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="n">
-        <v>0.2388498187065125</v>
+        <v>0.2188241183757782</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="n">
-        <v>0.1959518790245056</v>
+        <v>-0.6435389518737793</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="n">
-        <v>0.3205251693725586</v>
+        <v>0.7015103697776794</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="n">
-        <v>0.490750789642334</v>
+        <v>0.5347319841384888</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="n">
-        <v>0.2250096499919891</v>
+        <v>0.298723578453064</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="n">
-        <v>1.066971063613892</v>
+        <v>1.09259831905365</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="n">
-        <v>0.4617233276367188</v>
+        <v>0.5466867685317993</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="n">
-        <v>0.4016144275665283</v>
+        <v>0.587179958820343</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="n">
-        <v>-0.004559919238090515</v>
+        <v>-0.001350671052932739</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="n">
-        <v>0.5755130052566528</v>
+        <v>0.3575360774993896</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="n">
-        <v>-0.1873605251312256</v>
+        <v>0.2160783112049103</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" t="n">
-        <v>0.5380476713180542</v>
+        <v>0.5686920285224915</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" t="n">
-        <v>-0.0457550436258316</v>
+        <v>0.03332666307687759</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" t="n">
-        <v>0.2017515897750854</v>
+        <v>0.2066696882247925</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="n">
-        <v>0.2296541333198547</v>
+        <v>0.3046251237392426</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="n">
-        <v>0.1775071322917938</v>
+        <v>0.007778853178024292</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="n">
-        <v>0.9739956855773926</v>
+        <v>0.8004905581474304</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="n">
-        <v>53.58580017089844</v>
+        <v>118.8792495727539</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="n">
-        <v>0.07753997296094894</v>
+        <v>-0.01823878288269043</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="n">
-        <v>0.5701698660850525</v>
+        <v>0.7845349907875061</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="n">
-        <v>-0.0730285570025444</v>
+        <v>-0.0692518949508667</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" t="n">
-        <v>1.191554188728333</v>
+        <v>0.8522857427597046</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" t="n">
-        <v>0.7620482444763184</v>
+        <v>0.8896785974502563</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="n">
-        <v>0.1073477119207382</v>
+        <v>0.3118044137954712</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" t="n">
-        <v>0.649188220500946</v>
+        <v>0.5602010488510132</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" t="n">
-        <v>0.01827913522720337</v>
+        <v>0.3106305003166199</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" t="n">
-        <v>0.07798592746257782</v>
+        <v>0.1864017844200134</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="n">
-        <v>0.09476277232170105</v>
+        <v>0.3164677619934082</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="n">
-        <v>0.07190922647714615</v>
+        <v>0.1858163475990295</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="n">
-        <v>0.5354733467102051</v>
+        <v>0.5043087005615234</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="n">
-        <v>0.06807619333267212</v>
+        <v>-0.0008259639143943787</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" t="n">
-        <v>-0.03405870497226715</v>
+        <v>0.01706447452306747</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="n">
-        <v>-0.02957907319068909</v>
+        <v>-0.2564027309417725</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="n">
-        <v>0.1528146862983704</v>
+        <v>0.0855918824672699</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="n">
-        <v>0.5267658233642578</v>
+        <v>0.4181337654590607</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="n">
-        <v>0.6352189779281616</v>
+        <v>0.7092028856277466</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="n">
-        <v>1.042109608650208</v>
+        <v>1.03071928024292</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="n">
-        <v>0.1282745897769928</v>
+        <v>0.2228836417198181</v>
       </c>
     </row>
     <row r="780">
       <c r="A780" t="n">
-        <v>0.9140308499336243</v>
+        <v>0.9746854901313782</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" t="n">
-        <v>0.5893810391426086</v>
+        <v>0.651045024394989</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="n">
-        <v>-0.08374188840389252</v>
+        <v>0.04106507450342178</v>
       </c>
     </row>
     <row r="783">
       <c r="A783" t="n">
-        <v>0.1493762731552124</v>
+        <v>0.2033485472202301</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" t="n">
-        <v>0.303264856338501</v>
+        <v>0.4391573965549469</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="n">
-        <v>0.5709969401359558</v>
+        <v>0.5399059057235718</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="n">
-        <v>0.239696592092514</v>
+        <v>0.2643181979656219</v>
       </c>
     </row>
     <row r="787">
       <c r="A787" t="n">
-        <v>0.0461738258600235</v>
+        <v>0.2201239168643951</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" t="n">
-        <v>0.2510815858840942</v>
+        <v>0.3679929673671722</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" t="n">
-        <v>0.8798412680625916</v>
+        <v>0.9454588294029236</v>
       </c>
     </row>
     <row r="790">
       <c r="A790" t="n">
-        <v>0.5311231017112732</v>
+        <v>0.8912195563316345</v>
       </c>
     </row>
     <row r="791">
       <c r="A791" t="n">
-        <v>1.057319045066833</v>
+        <v>1.117344737052917</v>
       </c>
     </row>
     <row r="792">
       <c r="A792" t="n">
-        <v>0.7714372873306274</v>
+        <v>0.4485390484333038</v>
       </c>
     </row>
     <row r="793">
       <c r="A793" t="n">
-        <v>0.2935656309127808</v>
+        <v>0.1809866428375244</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" t="n">
-        <v>0.3926107883453369</v>
+        <v>0.4225828945636749</v>
       </c>
     </row>
     <row r="795">
       <c r="A795" t="n">
-        <v>0.2523072361946106</v>
+        <v>0.232495129108429</v>
       </c>
     </row>
     <row r="796">
       <c r="A796" t="n">
-        <v>-0.0750633031129837</v>
+        <v>-0.02543094754219055</v>
       </c>
     </row>
     <row r="797">
       <c r="A797" t="n">
-        <v>0.6259807348251343</v>
+        <v>0.3882445394992828</v>
       </c>
     </row>
     <row r="798">
       <c r="A798" t="n">
-        <v>0.1482526808977127</v>
+        <v>0.118056632578373</v>
       </c>
     </row>
     <row r="799">
       <c r="A799" t="n">
-        <v>0.4873775243759155</v>
+        <v>0.7163664698600769</v>
       </c>
     </row>
     <row r="800">
       <c r="A800" t="n">
-        <v>0.4669609069824219</v>
+        <v>0.3999848067760468</v>
       </c>
     </row>
     <row r="801">
       <c r="A801" t="n">
-        <v>1.001891136169434</v>
+        <v>0.793137788772583</v>
       </c>
     </row>
     <row r="802">
       <c r="A802" t="n">
-        <v>0.1418958902359009</v>
+        <v>0.2526943683624268</v>
       </c>
     </row>
     <row r="803">
       <c r="A803" t="n">
-        <v>0.2531073689460754</v>
+        <v>0.4267031848430634</v>
       </c>
     </row>
     <row r="804">
       <c r="A804" t="n">
-        <v>0.521750271320343</v>
+        <v>0.2392804324626923</v>
       </c>
     </row>
     <row r="805">
       <c r="A805" t="n">
-        <v>0.3453377485275269</v>
+        <v>0.3924855589866638</v>
       </c>
     </row>
     <row r="806">
       <c r="A806" t="n">
-        <v>0.2376809269189835</v>
+        <v>0.4812993109226227</v>
       </c>
     </row>
     <row r="807">
       <c r="A807" t="n">
-        <v>0.7333652973175049</v>
+        <v>0.7313211560249329</v>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="n">
-        <v>0.1550273001194</v>
+        <v>0.4145701825618744</v>
       </c>
     </row>
     <row r="809">
       <c r="A809" t="n">
-        <v>0.7218751311302185</v>
+        <v>0.6443228721618652</v>
       </c>
     </row>
     <row r="810">
       <c r="A810" t="n">
-        <v>0.6349502801895142</v>
+        <v>0.7627759575843811</v>
       </c>
     </row>
     <row r="811">
       <c r="A811" t="n">
-        <v>0.09279462695121765</v>
+        <v>0.1430453956127167</v>
       </c>
     </row>
     <row r="812">
       <c r="A812" t="n">
-        <v>0.1404126286506653</v>
+        <v>0.189384937286377</v>
       </c>
     </row>
     <row r="813">
       <c r="A813" t="n">
-        <v>0.9843723177909851</v>
+        <v>1.001973390579224</v>
       </c>
     </row>
     <row r="814">
       <c r="A814" t="n">
-        <v>0.9374881386756897</v>
+        <v>0.6060742139816284</v>
       </c>
     </row>
     <row r="815">
       <c r="A815" t="n">
-        <v>0.247484564781189</v>
+        <v>0.5775901079177856</v>
       </c>
     </row>
     <row r="816">
       <c r="A816" t="n">
-        <v>0.198472261428833</v>
+        <v>0.2139163613319397</v>
       </c>
     </row>
     <row r="817">
       <c r="A817" t="n">
-        <v>0.06947869062423706</v>
+        <v>0.01626259088516235</v>
       </c>
     </row>
     <row r="818">
       <c r="A818" t="n">
-        <v>0.2441986501216888</v>
+        <v>0.2173832654953003</v>
       </c>
     </row>
     <row r="819">
       <c r="A819" t="n">
-        <v>0.3319913744926453</v>
+        <v>0.1197128891944885</v>
       </c>
     </row>
     <row r="820">
       <c r="A820" t="n">
-        <v>0.9617518186569214</v>
+        <v>1.034383654594421</v>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="n">
-        <v>53.58938598632812</v>
+        <v>118.8845825195312</v>
       </c>
     </row>
     <row r="822">
       <c r="A822" t="n">
-        <v>0.1972122043371201</v>
+        <v>0.29671710729599</v>
       </c>
     </row>
     <row r="823">
       <c r="A823" t="n">
-        <v>1.136993288993835</v>
+        <v>1.079771161079407</v>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="n">
-        <v>0.3342382907867432</v>
+        <v>0.2995106875896454</v>
       </c>
     </row>
     <row r="825">
       <c r="A825" t="n">
-        <v>0.6057203412055969</v>
+        <v>0.6526394486427307</v>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="n">
-        <v>0.882829487323761</v>
+        <v>0.7603563070297241</v>
       </c>
     </row>
     <row r="827">
       <c r="A827" t="n">
-        <v>0.5141886472702026</v>
+        <v>0.4450032711029053</v>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="n">
-        <v>0.2669112086296082</v>
+        <v>0.3565520942211151</v>
       </c>
     </row>
     <row r="829">
       <c r="A829" t="n">
-        <v>1.012763142585754</v>
+        <v>0.8330122232437134</v>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="n">
-        <v>0.9589494466781616</v>
+        <v>0.725357711315155</v>
       </c>
     </row>
     <row r="831">
       <c r="A831" t="n">
-        <v>-0.1649042665958405</v>
+        <v>-0.2259747833013535</v>
       </c>
     </row>
     <row r="832">
       <c r="A832" t="n">
-        <v>0.852030336856842</v>
+        <v>0.837171196937561</v>
       </c>
     </row>
     <row r="833">
       <c r="A833" t="n">
-        <v>-0.02604502439498901</v>
+        <v>0.06783056259155273</v>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="n">
-        <v>0.3715206384658813</v>
+        <v>0.5101572275161743</v>
       </c>
     </row>
     <row r="835">
       <c r="A835" t="n">
-        <v>0.5836508870124817</v>
+        <v>0.5429043769836426</v>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="n">
-        <v>0.3661698698997498</v>
+        <v>0.4031911194324493</v>
       </c>
     </row>
     <row r="837">
       <c r="A837" t="n">
-        <v>0.1201898753643036</v>
+        <v>0.1583245396614075</v>
       </c>
     </row>
     <row r="838">
       <c r="A838" t="n">
-        <v>0.2804271876811981</v>
+        <v>-0.1214229241013527</v>
       </c>
     </row>
     <row r="839">
       <c r="A839" t="n">
-        <v>0.3928290605545044</v>
+        <v>0.5237275362014771</v>
       </c>
     </row>
     <row r="840">
       <c r="A840" t="n">
-        <v>0.2823426127433777</v>
+        <v>0.0959123969078064</v>
       </c>
     </row>
     <row r="841">
       <c r="A841" t="n">
-        <v>0.2870007157325745</v>
+        <v>0.3547195494174957</v>
       </c>
     </row>
     <row r="842">
       <c r="A842" t="n">
-        <v>0.821462094783783</v>
+        <v>0.7719217538833618</v>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="n">
-        <v>0.2013227939605713</v>
+        <v>0.1311967074871063</v>
       </c>
     </row>
     <row r="844">
       <c r="A844" t="n">
-        <v>0.6000513434410095</v>
+        <v>0.5917235612869263</v>
       </c>
     </row>
     <row r="845">
       <c r="A845" t="n">
-        <v>0.809298574924469</v>
+        <v>0.9551814794540405</v>
       </c>
     </row>
     <row r="846">
       <c r="A846" t="n">
-        <v>1.043468236923218</v>
+        <v>1.045531630516052</v>
       </c>
     </row>
     <row r="847">
       <c r="A847" t="n">
-        <v>0.54879230260849</v>
+        <v>0.7116913795471191</v>
       </c>
     </row>
     <row r="848">
       <c r="A848" t="n">
-        <v>0.3585584163665771</v>
+        <v>0.301822304725647</v>
       </c>
     </row>
     <row r="849">
       <c r="A849" t="n">
-        <v>0.3609436452388763</v>
+        <v>0.1686553359031677</v>
       </c>
     </row>
     <row r="850">
       <c r="A850" t="n">
-        <v>0.6843448877334595</v>
+        <v>0.8504859805107117</v>
       </c>
     </row>
     <row r="851">
       <c r="A851" t="n">
-        <v>0.804338812828064</v>
+        <v>0.7282647490501404</v>
       </c>
     </row>
     <row r="852">
       <c r="A852" t="n">
-        <v>-0.02072851359844208</v>
+        <v>0.03025753796100616</v>
       </c>
     </row>
     <row r="853">
       <c r="A853" t="n">
-        <v>0.1815476417541504</v>
+        <v>0.1833543181419373</v>
       </c>
     </row>
     <row r="854">
       <c r="A854" t="n">
-        <v>0.4862455725669861</v>
+        <v>0.2962460815906525</v>
       </c>
     </row>
     <row r="855">
       <c r="A855" t="n">
-        <v>0.08944536000490189</v>
+        <v>0.08376283943653107</v>
       </c>
     </row>
     <row r="856">
       <c r="A856" t="n">
-        <v>0.4487707018852234</v>
+        <v>0.3467693328857422</v>
       </c>
     </row>
     <row r="857">
       <c r="A857" t="n">
-        <v>0.7479420900344849</v>
+        <v>0.6837191581726074</v>
       </c>
     </row>
     <row r="858">
       <c r="A858" t="n">
-        <v>0.2921655178070068</v>
+        <v>1.115929365158081</v>
       </c>
     </row>
     <row r="859">
       <c r="A859" t="n">
-        <v>0.03996483236551285</v>
+        <v>0.07981422543525696</v>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="n">
-        <v>1.128139138221741</v>
+        <v>1.155060768127441</v>
       </c>
     </row>
     <row r="861">
       <c r="A861" t="n">
-        <v>0.8485374450683594</v>
+        <v>1.075867772102356</v>
       </c>
     </row>
     <row r="862">
       <c r="A862" t="n">
-        <v>0.3543068170547485</v>
+        <v>0.3764443099498749</v>
       </c>
     </row>
     <row r="863">
       <c r="A863" t="n">
-        <v>0.3370912075042725</v>
+        <v>0.4434359669685364</v>
       </c>
     </row>
     <row r="864">
       <c r="A864" t="n">
-        <v>0.1892004907131195</v>
+        <v>-0.004323467612266541</v>
       </c>
     </row>
     <row r="865">
       <c r="A865" t="n">
-        <v>0.5031782388687134</v>
+        <v>0.7366081476211548</v>
       </c>
     </row>
     <row r="866">
       <c r="A866" t="n">
-        <v>0.9965934157371521</v>
+        <v>0.8975491523742676</v>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="n">
-        <v>0.1605699807405472</v>
+        <v>0.1459845304489136</v>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="n">
-        <v>0.5514446496963501</v>
+        <v>0.4877527058124542</v>
       </c>
     </row>
     <row r="869">
       <c r="A869" t="n">
-        <v>1.012732148170471</v>
+        <v>0.9879822731018066</v>
       </c>
     </row>
     <row r="870">
       <c r="A870" t="n">
-        <v>0.5302464962005615</v>
+        <v>0.6012567281723022</v>
       </c>
     </row>
     <row r="871">
       <c r="A871" t="n">
-        <v>0.1072845533490181</v>
+        <v>0.1464946717023849</v>
       </c>
     </row>
     <row r="872">
       <c r="A872" t="n">
-        <v>0.6970238089561462</v>
+        <v>0.7589123249053955</v>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="n">
-        <v>0.6464688777923584</v>
+        <v>0.7297602295875549</v>
       </c>
     </row>
     <row r="874">
       <c r="A874" t="n">
-        <v>0.2672041654586792</v>
+        <v>0.4296488761901855</v>
       </c>
     </row>
     <row r="875">
       <c r="A875" t="n">
-        <v>0.6319879293441772</v>
+        <v>0.6498287916183472</v>
       </c>
     </row>
     <row r="876">
       <c r="A876" t="n">
-        <v>0.1668521761894226</v>
+        <v>0.03451569378376007</v>
       </c>
     </row>
     <row r="877">
       <c r="A877" t="n">
-        <v>0.463493824005127</v>
+        <v>0.5002070069313049</v>
       </c>
     </row>
     <row r="878">
       <c r="A878" t="n">
-        <v>0.05334838479757309</v>
+        <v>0.1060048043727875</v>
       </c>
     </row>
     <row r="879">
       <c r="A879" t="n">
-        <v>0.8565552234649658</v>
+        <v>0.4036216735839844</v>
       </c>
     </row>
     <row r="880">
       <c r="A880" t="n">
-        <v>0.5655713081359863</v>
+        <v>0.4085239171981812</v>
       </c>
     </row>
     <row r="881">
       <c r="A881" t="n">
-        <v>-0.01493486762046814</v>
+        <v>-0.1447883248329163</v>
       </c>
     </row>
     <row r="882">
       <c r="A882" t="n">
-        <v>0.6892675161361694</v>
+        <v>0.8344818949699402</v>
       </c>
     </row>
     <row r="883">
       <c r="A883" t="n">
-        <v>0.620377242565155</v>
+        <v>0.5211936831474304</v>
       </c>
     </row>
     <row r="884">
       <c r="A884" t="n">
-        <v>0.2197917401790619</v>
+        <v>0.1882360279560089</v>
       </c>
     </row>
     <row r="885">
       <c r="A885" t="n">
-        <v>0.6561716794967651</v>
+        <v>0.5212442874908447</v>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="n">
-        <v>0.7389520406723022</v>
+        <v>0.7790852785110474</v>
       </c>
     </row>
     <row r="887">
       <c r="A887" t="n">
-        <v>0.851972222328186</v>
+        <v>1.102773904800415</v>
       </c>
     </row>
     <row r="888">
       <c r="A888" t="n">
-        <v>0.5420522689819336</v>
+        <v>0.4414770305156708</v>
       </c>
     </row>
     <row r="889">
       <c r="A889" t="n">
-        <v>0.7248386144638062</v>
+        <v>0.8746246099472046</v>
       </c>
     </row>
     <row r="890">
       <c r="A890" t="n">
-        <v>0.864982545375824</v>
+        <v>0.7425098419189453</v>
       </c>
     </row>
     <row r="891">
       <c r="A891" t="n">
-        <v>0.4913671612739563</v>
+        <v>0.573194146156311</v>
       </c>
     </row>
     <row r="892">
       <c r="A892" t="n">
-        <v>0.2423008233308792</v>
+        <v>0.3486271798610687</v>
       </c>
     </row>
     <row r="893">
       <c r="A893" t="n">
-        <v>0.615773618221283</v>
+        <v>0.3912870287895203</v>
       </c>
     </row>
     <row r="894">
       <c r="A894" t="n">
-        <v>0.6573859453201294</v>
+        <v>0.8149900436401367</v>
       </c>
     </row>
     <row r="895">
       <c r="A895" t="n">
-        <v>0.2234744429588318</v>
+        <v>-0.1931042820215225</v>
       </c>
     </row>
     <row r="896">
       <c r="A896" t="n">
-        <v>0.1140983998775482</v>
+        <v>0.1593097001314163</v>
       </c>
     </row>
     <row r="897">
       <c r="A897" t="n">
-        <v>0.6137048006057739</v>
+        <v>0.5261378884315491</v>
       </c>
     </row>
     <row r="898">
       <c r="A898" t="n">
-        <v>0.3472567200660706</v>
+        <v>0.3000223636627197</v>
       </c>
     </row>
     <row r="899">
       <c r="A899" t="n">
-        <v>0.7151747345924377</v>
+        <v>0.6303951740264893</v>
       </c>
     </row>
     <row r="900">
       <c r="A900" t="n">
-        <v>0.197012186050415</v>
+        <v>0.1342863738536835</v>
       </c>
     </row>
     <row r="901">
       <c r="A901" t="n">
-        <v>0.5379272699356079</v>
+        <v>0.5053198337554932</v>
       </c>
     </row>
     <row r="902">
       <c r="A902" t="n">
-        <v>0.2370807230472565</v>
+        <v>0.2091298848390579</v>
       </c>
     </row>
     <row r="903">
       <c r="A903" t="n">
-        <v>0.1324950307607651</v>
+        <v>0.4636085033416748</v>
       </c>
     </row>
     <row r="904">
       <c r="A904" t="n">
-        <v>0.3111428618431091</v>
+        <v>0.4111909568309784</v>
       </c>
     </row>
     <row r="905">
       <c r="A905" t="n">
-        <v>0.3456655740737915</v>
+        <v>0.2937086224555969</v>
       </c>
     </row>
     <row r="906">
       <c r="A906" t="n">
-        <v>0.4660173654556274</v>
+        <v>0.3839040100574493</v>
       </c>
     </row>
     <row r="907">
       <c r="A907" t="n">
-        <v>0.9297822713851929</v>
+        <v>0.6592627763748169</v>
       </c>
     </row>
     <row r="908">
       <c r="A908" t="n">
-        <v>0.6653502583503723</v>
+        <v>0.5121262073516846</v>
       </c>
     </row>
     <row r="909">
       <c r="A909" t="n">
-        <v>0.5400807857513428</v>
+        <v>0.9476221799850464</v>
       </c>
     </row>
     <row r="910">
       <c r="A910" t="n">
-        <v>0.8862460255622864</v>
+        <v>0.5181775093078613</v>
       </c>
     </row>
     <row r="911">
       <c r="A911" t="n">
-        <v>0.4353711009025574</v>
+        <v>0.3055749833583832</v>
       </c>
     </row>
     <row r="912">
       <c r="A912" t="n">
-        <v>0.4464589357376099</v>
+        <v>0.5126898884773254</v>
       </c>
     </row>
     <row r="913">
       <c r="A913" t="n">
-        <v>0.01930440217256546</v>
+        <v>0.1353267431259155</v>
       </c>
     </row>
     <row r="914">
       <c r="A914" t="n">
-        <v>0.7637545466423035</v>
+        <v>0.8941941261291504</v>
       </c>
     </row>
     <row r="915">
       <c r="A915" t="n">
-        <v>0.3208628296852112</v>
+        <v>0.2888101935386658</v>
       </c>
     </row>
     <row r="916">
       <c r="A916" t="n">
-        <v>0.4215224385261536</v>
+        <v>0.4227773249149323</v>
       </c>
     </row>
     <row r="917">
       <c r="A917" t="n">
-        <v>1.279856443405151</v>
+        <v>1.582595586776733</v>
       </c>
     </row>
     <row r="918">
       <c r="A918" t="n">
-        <v>0.4154880046844482</v>
+        <v>0.2505602240562439</v>
       </c>
     </row>
     <row r="919">
       <c r="A919" t="n">
-        <v>0.7990071773529053</v>
+        <v>0.6870477199554443</v>
       </c>
     </row>
     <row r="920">
       <c r="A920" t="n">
-        <v>0.59295254945755</v>
+        <v>0.7032000422477722</v>
       </c>
     </row>
     <row r="921">
       <c r="A921" t="n">
-        <v>0.5244013071060181</v>
+        <v>0.9181365370750427</v>
       </c>
     </row>
     <row r="922">
       <c r="A922" t="n">
-        <v>0.7740025520324707</v>
+        <v>0.6493629217147827</v>
       </c>
     </row>
     <row r="923">
       <c r="A923" t="n">
-        <v>0.2654533386230469</v>
+        <v>0.3117751777172089</v>
       </c>
     </row>
     <row r="924">
       <c r="A924" t="n">
-        <v>0.04878712445497513</v>
+        <v>0.1317255795001984</v>
       </c>
     </row>
     <row r="925">
       <c r="A925" t="n">
-        <v>0.4880997538566589</v>
+        <v>0.5344502925872803</v>
       </c>
     </row>
     <row r="926">
       <c r="A926" t="n">
-        <v>0.08218233287334442</v>
+        <v>0.138374000787735</v>
       </c>
     </row>
     <row r="927">
       <c r="A927" t="n">
-        <v>0.2564781904220581</v>
+        <v>0.3001388311386108</v>
       </c>
     </row>
     <row r="928">
       <c r="A928" t="n">
-        <v>0.6432473659515381</v>
+        <v>0.5734463930130005</v>
       </c>
     </row>
     <row r="929">
       <c r="A929" t="n">
-        <v>0.8365164995193481</v>
+        <v>0.8544244766235352</v>
       </c>
     </row>
     <row r="930">
       <c r="A930" t="n">
-        <v>0.2276476174592972</v>
+        <v>0.3780831098556519</v>
       </c>
     </row>
     <row r="931">
       <c r="A931" t="n">
-        <v>0.8694022297859192</v>
+        <v>0.9686631560325623</v>
       </c>
     </row>
     <row r="932">
       <c r="A932" t="n">
-        <v>-0.2550756335258484</v>
+        <v>4.081050872802734</v>
       </c>
     </row>
     <row r="933">
       <c r="A933" t="n">
-        <v>0.1435718834400177</v>
+        <v>0.1924781799316406</v>
       </c>
     </row>
     <row r="934">
       <c r="A934" t="n">
-        <v>0.4891934990882874</v>
+        <v>0.5600818395614624</v>
       </c>
     </row>
     <row r="935">
       <c r="A935" t="n">
-        <v>0.4991916716098785</v>
+        <v>0.6461647748947144</v>
       </c>
     </row>
     <row r="936">
       <c r="A936" t="n">
-        <v>0.6088210344314575</v>
+        <v>0.8661938309669495</v>
       </c>
     </row>
     <row r="937">
       <c r="A937" t="n">
-        <v>0.04906380921602249</v>
+        <v>0.4800336062908173</v>
       </c>
     </row>
     <row r="938">
       <c r="A938" t="n">
-        <v>0.7410190105438232</v>
+        <v>0.7133430242538452</v>
       </c>
     </row>
     <row r="939">
       <c r="A939" t="n">
-        <v>0.334851086139679</v>
+        <v>0.3792266547679901</v>
       </c>
     </row>
     <row r="940">
       <c r="A940" t="n">
-        <v>0.4604936242103577</v>
+        <v>0.4028124809265137</v>
       </c>
     </row>
     <row r="941">
       <c r="A941" t="n">
-        <v>-0.05003461986780167</v>
+        <v>-0.1436251103878021</v>
       </c>
     </row>
     <row r="942">
       <c r="A942" t="n">
-        <v>0.8737009167671204</v>
+        <v>0.7525053024291992</v>
       </c>
     </row>
     <row r="943">
       <c r="A943" t="n">
-        <v>0.676251232624054</v>
+        <v>0.756283164024353</v>
       </c>
     </row>
     <row r="944">
       <c r="A944" t="n">
-        <v>0.9223222732543945</v>
+        <v>0.9400699138641357</v>
       </c>
     </row>
     <row r="945">
       <c r="A945" t="n">
-        <v>0.6052501797676086</v>
+        <v>0.5243303179740906</v>
       </c>
     </row>
     <row r="946">
       <c r="A946" t="n">
-        <v>0.1547569185495377</v>
+        <v>0.2078192532062531</v>
       </c>
     </row>
     <row r="947">
       <c r="A947" t="n">
-        <v>1.00853419303894</v>
+        <v>0.9309853315353394</v>
       </c>
     </row>
     <row r="948">
       <c r="A948" t="n">
-        <v>0.3684522211551666</v>
+        <v>0.2182649075984955</v>
       </c>
     </row>
     <row r="949">
       <c r="A949" t="n">
-        <v>0.4550554752349854</v>
+        <v>0.5531409978866577</v>
       </c>
     </row>
     <row r="950">
       <c r="A950" t="n">
-        <v>0.8745790719985962</v>
+        <v>0.9310519099235535</v>
       </c>
     </row>
     <row r="951">
       <c r="A951" t="n">
-        <v>0.5263782143592834</v>
+        <v>0.4156642258167267</v>
       </c>
     </row>
     <row r="952">
       <c r="A952" t="n">
-        <v>0.525567352771759</v>
+        <v>0.4078674912452698</v>
       </c>
     </row>
     <row r="953">
       <c r="A953" t="n">
-        <v>0.2769314646720886</v>
+        <v>0.3166863322257996</v>
       </c>
     </row>
     <row r="954">
       <c r="A954" t="n">
-        <v>0.7005306482315063</v>
+        <v>0.6794936656951904</v>
       </c>
     </row>
     <row r="955">
       <c r="A955" t="n">
-        <v>-0.4097864031791687</v>
+        <v>0.1508255898952484</v>
       </c>
     </row>
     <row r="956">
       <c r="A956" t="n">
-        <v>0.266444206237793</v>
+        <v>0.241803303360939</v>
       </c>
     </row>
     <row r="957">
       <c r="A957" t="n">
-        <v>0.6051307916641235</v>
+        <v>0.3990366458892822</v>
       </c>
     </row>
     <row r="958">
       <c r="A958" t="n">
-        <v>0.03496016561985016</v>
+        <v>0.07255959510803223</v>
       </c>
     </row>
     <row r="959">
       <c r="A959" t="n">
-        <v>1.049369812011719</v>
+        <v>1.023910164833069</v>
       </c>
     </row>
     <row r="960">
       <c r="A960" t="n">
-        <v>0.2667081356048584</v>
+        <v>0.3653419613838196</v>
       </c>
     </row>
     <row r="961">
       <c r="A961" t="n">
-        <v>0.3196313977241516</v>
+        <v>0.6983965635299683</v>
       </c>
     </row>
     <row r="962">
       <c r="A962" t="n">
-        <v>0.1526003777980804</v>
+        <v>0.1762357205152512</v>
       </c>
     </row>
     <row r="963">
       <c r="A963" t="n">
-        <v>0.9252743721008301</v>
+        <v>0.7802301645278931</v>
       </c>
     </row>
     <row r="964">
       <c r="A964" t="n">
-        <v>0.7540008425712585</v>
+        <v>0.7446097135543823</v>
       </c>
     </row>
     <row r="965">
       <c r="A965" t="n">
-        <v>0.8023625612258911</v>
+        <v>0.9032942652702332</v>
       </c>
     </row>
     <row r="966">
       <c r="A966" t="n">
-        <v>0.6674737930297852</v>
+        <v>0.7555000185966492</v>
       </c>
     </row>
     <row r="967">
       <c r="A967" t="n">
-        <v>0.2423008233308792</v>
+        <v>0.3486271798610687</v>
       </c>
     </row>
     <row r="968">
       <c r="A968" t="n">
-        <v>0.087652787566185</v>
+        <v>0.581354558467865</v>
       </c>
     </row>
     <row r="969">
       <c r="A969" t="n">
-        <v>0.2819999754428864</v>
+        <v>0.3210156261920929</v>
       </c>
     </row>
     <row r="970">
       <c r="A970" t="n">
-        <v>0.2388966232538223</v>
+        <v>0.2444734573364258</v>
       </c>
     </row>
     <row r="971">
       <c r="A971" t="n">
-        <v>-0.02016355842351913</v>
+        <v>-0.08356153964996338</v>
       </c>
     </row>
     <row r="972">
       <c r="A972" t="n">
-        <v>0.2341204583644867</v>
+        <v>0.4754691421985626</v>
       </c>
     </row>
     <row r="973">
       <c r="A973" t="n">
-        <v>0.8924650549888611</v>
+        <v>0.8703615069389343</v>
       </c>
     </row>
     <row r="974">
       <c r="A974" t="n">
-        <v>0.9736453294754028</v>
+        <v>0.9223283529281616</v>
       </c>
     </row>
     <row r="975">
       <c r="A975" t="n">
-        <v>0.9212921857833862</v>
+        <v>0.8792886137962341</v>
       </c>
     </row>
     <row r="976">
       <c r="A976" t="n">
-        <v>0.03999128937721252</v>
+        <v>0.04888522624969482</v>
       </c>
     </row>
     <row r="977">
       <c r="A977" t="n">
-        <v>0.2737715244293213</v>
+        <v>0.3657640814781189</v>
       </c>
     </row>
     <row r="978">
       <c r="A978" t="n">
-        <v>0.4558278620243073</v>
+        <v>0.7448566555976868</v>
       </c>
     </row>
     <row r="979">
       <c r="A979" t="n">
-        <v>0.9352275729179382</v>
+        <v>1.018551707267761</v>
       </c>
     </row>
     <row r="980">
       <c r="A980" t="n">
-        <v>0.1815198510885239</v>
+        <v>0.05651378631591797</v>
       </c>
     </row>
     <row r="981">
       <c r="A981" t="n">
-        <v>0.2016111761331558</v>
+        <v>0.2927035391330719</v>
       </c>
     </row>
     <row r="982">
       <c r="A982" t="n">
-        <v>0.4984114468097687</v>
+        <v>0.3638761341571808</v>
       </c>
     </row>
     <row r="983">
       <c r="A983" t="n">
-        <v>0.9097312092781067</v>
+        <v>1.014102339744568</v>
       </c>
     </row>
     <row r="984">
       <c r="A984" t="n">
-        <v>0.1190646514296532</v>
+        <v>0.06299933791160583</v>
       </c>
     </row>
     <row r="985">
       <c r="A985" t="n">
-        <v>0.2179375290870667</v>
+        <v>0.103412538766861</v>
       </c>
     </row>
     <row r="986">
       <c r="A986" t="n">
-        <v>0.2073892951011658</v>
+        <v>0.3353044092655182</v>
       </c>
     </row>
     <row r="987">
       <c r="A987" t="n">
-        <v>0.06391965597867966</v>
+        <v>0.1162628531455994</v>
       </c>
     </row>
     <row r="988">
       <c r="A988" t="n">
-        <v>0.854214072227478</v>
+        <v>0.7730365991592407</v>
       </c>
     </row>
     <row r="989">
       <c r="A989" t="n">
-        <v>0.4000832736492157</v>
+        <v>1.00378680229187</v>
       </c>
     </row>
     <row r="990">
       <c r="A990" t="n">
-        <v>0.2083005905151367</v>
+        <v>0.08961720764636993</v>
       </c>
     </row>
     <row r="991">
       <c r="A991" t="n">
-        <v>0.8961898684501648</v>
+        <v>0.9017428159713745</v>
       </c>
     </row>
     <row r="992">
       <c r="A992" t="n">
-        <v>0.09245805442333221</v>
+        <v>0.1592496037483215</v>
       </c>
     </row>
     <row r="993">
       <c r="A993" t="n">
-        <v>-0.1596689522266388</v>
+        <v>-0.2151594460010529</v>
       </c>
     </row>
     <row r="994">
       <c r="A994" t="n">
-        <v>0.8727419376373291</v>
+        <v>0.8375048637390137</v>
       </c>
     </row>
     <row r="995">
       <c r="A995" t="n">
-        <v>0.4029005169868469</v>
+        <v>0.3357908427715302</v>
       </c>
     </row>
     <row r="996">
       <c r="A996" t="n">
-        <v>0.5108768939971924</v>
+        <v>0.7534494996070862</v>
       </c>
     </row>
     <row r="997">
       <c r="A997" t="n">
-        <v>1.022581338882446</v>
+        <v>1.047053217887878</v>
       </c>
     </row>
     <row r="998">
       <c r="A998" t="n">
-        <v>0.7681862711906433</v>
+        <v>0.8506801724433899</v>
       </c>
     </row>
     <row r="999">
       <c r="A999" t="n">
-        <v>0.7912855744361877</v>
+        <v>0.9075038433074951</v>
       </c>
     </row>
     <row r="1000">
       <c r="A1000" t="n">
-        <v>0.8962375521659851</v>
+        <v>0.8764647245407104</v>
       </c>
     </row>
     <row r="1001">
       <c r="A1001" t="n">
-        <v>0.3539150059223175</v>
+        <v>0.359642893075943</v>
       </c>
     </row>
     <row r="1002">
       <c r="A1002" t="n">
-        <v>0.527233898639679</v>
+        <v>0.1879834234714508</v>
       </c>
     </row>
     <row r="1003">
       <c r="A1003" t="n">
-        <v>0.7743810415267944</v>
+        <v>0.4383768141269684</v>
       </c>
     </row>
     <row r="1004">
       <c r="A1004" t="n">
-        <v>0.04812075197696686</v>
+        <v>0.1332928538322449</v>
       </c>
     </row>
     <row r="1005">
       <c r="A1005" t="n">
-        <v>0.464515745639801</v>
+        <v>0.4458154141902924</v>
       </c>
     </row>
     <row r="1006">
       <c r="A1006" t="n">
-        <v>0.5530788898468018</v>
+        <v>0.6562508940696716</v>
       </c>
     </row>
     <row r="1007">
       <c r="A1007" t="n">
-        <v>1.017238736152649</v>
+        <v>0.7512836456298828</v>
       </c>
     </row>
     <row r="1008">
       <c r="A1008" t="n">
-        <v>0.191704273223877</v>
+        <v>0.1324069201946259</v>
       </c>
     </row>
     <row r="1009">
       <c r="A1009" t="n">
-        <v>0.350152850151062</v>
+        <v>0.3476845622062683</v>
       </c>
     </row>
     <row r="1010">
       <c r="A1010" t="n">
-        <v>-0.01558364927768707</v>
+        <v>0.1355358511209488</v>
       </c>
     </row>
     <row r="1011">
       <c r="A1011" t="n">
-        <v>0.4785062074661255</v>
+        <v>0.4174812734127045</v>
       </c>
     </row>
     <row r="1012">
       <c r="A1012" t="n">
-        <v>0.2439669668674469</v>
+        <v>0.4182652533054352</v>
       </c>
     </row>
     <row r="1013">
       <c r="A1013" t="n">
-        <v>0.3672589957714081</v>
+        <v>0.2908380031585693</v>
       </c>
     </row>
     <row r="1014">
       <c r="A1014" t="n">
-        <v>0.438612699508667</v>
+        <v>0.09274028241634369</v>
       </c>
     </row>
     <row r="1015">
       <c r="A1015" t="n">
-        <v>0.05724456161260605</v>
+        <v>0.06533269584178925</v>
       </c>
     </row>
     <row r="1016">
       <c r="A1016" t="n">
-        <v>0.02902849018573761</v>
+        <v>0.06334817409515381</v>
       </c>
     </row>
     <row r="1017">
       <c r="A1017" t="n">
-        <v>0.4822692275047302</v>
+        <v>0.66414475440979</v>
       </c>
     </row>
     <row r="1018">
       <c r="A1018" t="n">
-        <v>0.2675583362579346</v>
+        <v>0.3463427424430847</v>
       </c>
     </row>
     <row r="1019">
       <c r="A1019" t="n">
-        <v>0.08540837466716766</v>
+        <v>0.06249433755874634</v>
       </c>
     </row>
     <row r="1020">
       <c r="A1020" t="n">
-        <v>0.5032809972763062</v>
+        <v>0.6605552434921265</v>
       </c>
     </row>
     <row r="1021">
       <c r="A1021" t="n">
-        <v>-0.02704572677612305</v>
+        <v>-0.008413046598434448</v>
       </c>
     </row>
     <row r="1022">
       <c r="A1022" t="n">
-        <v>-0.07224753499031067</v>
+        <v>0.1118936687707901</v>
       </c>
     </row>
     <row r="1023">
       <c r="A1023" t="n">
-        <v>0.4241039752960205</v>
+        <v>0.7378956079483032</v>
       </c>
     </row>
     <row r="1024">
       <c r="A1024" t="n">
-        <v>0.7466391324996948</v>
+        <v>0.7326816320419312</v>
       </c>
     </row>
     <row r="1025">
       <c r="A1025" t="n">
-        <v>0.6196156740188599</v>
+        <v>0.7784321308135986</v>
       </c>
     </row>
     <row r="1026">
       <c r="A1026" t="n">
-        <v>0.8496824502944946</v>
+        <v>0.7882618308067322</v>
       </c>
     </row>
     <row r="1027">
       <c r="A1027" t="n">
-        <v>0.6073931455612183</v>
+        <v>0.5303434133529663</v>
       </c>
     </row>
     <row r="1028">
       <c r="A1028" t="n">
-        <v>0.2479259967803955</v>
+        <v>0.1297016739845276</v>
       </c>
     </row>
     <row r="1029">
       <c r="A1029" t="n">
-        <v>0.1145163550972939</v>
+        <v>0.2690759599208832</v>
       </c>
     </row>
     <row r="1030">
       <c r="A1030" t="n">
-        <v>-0.1054140701889992</v>
+        <v>-0.155157208442688</v>
       </c>
     </row>
     <row r="1031">
       <c r="A1031" t="n">
-        <v>0.476247102022171</v>
+        <v>0.2660063207149506</v>
       </c>
     </row>
     <row r="1032">
       <c r="A1032" t="n">
-        <v>0.01634446531534195</v>
+        <v>0.2583030164241791</v>
       </c>
     </row>
     <row r="1033">
       <c r="A1033" t="n">
-        <v>0.5956085920333862</v>
+        <v>0.64786696434021</v>
       </c>
     </row>
     <row r="1034">
       <c r="A1034" t="n">
-        <v>0.5700258016586304</v>
+        <v>0.6867276430130005</v>
       </c>
     </row>
     <row r="1035">
       <c r="A1035" t="n">
-        <v>0.1354672014713287</v>
+        <v>0.3698317408561707</v>
       </c>
     </row>
     <row r="1036">
       <c r="A1036" t="n">
-        <v>-0.0503261461853981</v>
+        <v>0.2305202782154083</v>
       </c>
     </row>
     <row r="1037">
       <c r="A1037" t="n">
-        <v>0.3972495794296265</v>
+        <v>0.2612231969833374</v>
       </c>
     </row>
     <row r="1038">
       <c r="A1038" t="n">
-        <v>0.5496988892555237</v>
+        <v>0.3991046249866486</v>
       </c>
     </row>
     <row r="1039">
       <c r="A1039" t="n">
-        <v>0.7786282300949097</v>
+        <v>0.5732823014259338</v>
       </c>
     </row>
     <row r="1040">
       <c r="A1040" t="n">
-        <v>0.1299345344305038</v>
+        <v>0.3074190616607666</v>
       </c>
     </row>
     <row r="1041">
       <c r="A1041" t="n">
-        <v>0.6288323998451233</v>
+        <v>0.6434162855148315</v>
       </c>
     </row>
     <row r="1042">
       <c r="A1042" t="n">
-        <v>0.261784553527832</v>
+        <v>0.2544046342372894</v>
       </c>
     </row>
     <row r="1043">
       <c r="A1043" t="n">
-        <v>0.2077047824859619</v>
+        <v>0.1879688203334808</v>
       </c>
     </row>
     <row r="1044">
       <c r="A1044" t="n">
-        <v>0.5244014263153076</v>
+        <v>0.9181364178657532</v>
       </c>
     </row>
     <row r="1045">
       <c r="A1045" t="n">
-        <v>0.6801308393478394</v>
+        <v>0.6817206144332886</v>
       </c>
     </row>
     <row r="1046">
       <c r="A1046" t="n">
-        <v>0.384172260761261</v>
+        <v>0.3416989147663116</v>
       </c>
     </row>
     <row r="1047">
       <c r="A1047" t="n">
-        <v>0.1932826191186905</v>
+        <v>0.8739742040634155</v>
       </c>
     </row>
     <row r="1048">
       <c r="A1048" t="n">
-        <v>0.3973641395568848</v>
+        <v>0.5129657983779907</v>
       </c>
     </row>
     <row r="1049">
       <c r="A1049" t="n">
-        <v>0.6703876852989197</v>
+        <v>0.8229589462280273</v>
       </c>
     </row>
     <row r="1050">
       <c r="A1050" t="n">
-        <v>0.2066815197467804</v>
+        <v>0.5695717334747314</v>
       </c>
     </row>
     <row r="1051">
       <c r="A1051" t="n">
-        <v>0.3841610550880432</v>
+        <v>0.4292571544647217</v>
       </c>
     </row>
     <row r="1052">
       <c r="A1052" t="n">
-        <v>0.06896620988845825</v>
+        <v>0.1736040711402893</v>
       </c>
     </row>
     <row r="1053">
       <c r="A1053" t="n">
-        <v>0.5499481558799744</v>
+        <v>0.4177348613739014</v>
       </c>
     </row>
     <row r="1054">
       <c r="A1054" t="n">
-        <v>0.2405748963356018</v>
+        <v>0.2344197332859039</v>
       </c>
     </row>
     <row r="1055">
       <c r="A1055" t="n">
-        <v>0.5967817306518555</v>
+        <v>0.6702393889427185</v>
       </c>
     </row>
     <row r="1056">
       <c r="A1056" t="n">
-        <v>0.5132654905319214</v>
+        <v>0.5584088563919067</v>
       </c>
     </row>
     <row r="1057">
       <c r="A1057" t="n">
-        <v>0.3980329036712646</v>
+        <v>0.4004712998867035</v>
       </c>
     </row>
     <row r="1058">
       <c r="A1058" t="n">
-        <v>0.8503351807594299</v>
+        <v>0.8299510478973389</v>
       </c>
     </row>
     <row r="1059">
       <c r="A1059" t="n">
-        <v>0.8719961643218994</v>
+        <v>0.9367479085922241</v>
       </c>
     </row>
     <row r="1060">
       <c r="A1060" t="n">
-        <v>0.1823689937591553</v>
+        <v>0.4944545924663544</v>
       </c>
     </row>
     <row r="1061">
       <c r="A1061" t="n">
-        <v>0.335652768611908</v>
+        <v>0.4936190843582153</v>
       </c>
     </row>
     <row r="1062">
       <c r="A1062" t="n">
-        <v>1.049772381782532</v>
+        <v>0.9463250637054443</v>
       </c>
     </row>
     <row r="1063">
       <c r="A1063" t="n">
-        <v>0.3236128687858582</v>
+        <v>0.7514161467552185</v>
       </c>
     </row>
     <row r="1064">
       <c r="A1064" t="n">
-        <v>0.5400807857513428</v>
+        <v>0.9476222395896912</v>
       </c>
     </row>
     <row r="1065">
       <c r="A1065" t="n">
-        <v>0.421356737613678</v>
+        <v>0.3562751114368439</v>
       </c>
     </row>
     <row r="1066">
       <c r="A1066" t="n">
-        <v>0.7777200937271118</v>
+        <v>0.3811080455780029</v>
       </c>
     </row>
     <row r="1067">
       <c r="A1067" t="n">
-        <v>0.4436832070350647</v>
+        <v>0.03886085748672485</v>
       </c>
     </row>
     <row r="1068">
       <c r="A1068" t="n">
-        <v>0.4739592373371124</v>
+        <v>0.375592827796936</v>
       </c>
     </row>
     <row r="1069">
       <c r="A1069" t="n">
-        <v>0.5734843611717224</v>
+        <v>0.5762019753456116</v>
       </c>
     </row>
     <row r="1070">
       <c r="A1070" t="n">
-        <v>0.5578641891479492</v>
+        <v>0.7791263461112976</v>
       </c>
     </row>
     <row r="1071">
       <c r="A1071" t="n">
-        <v>0.6261124610900879</v>
+        <v>0.7073575258255005</v>
       </c>
     </row>
     <row r="1072">
       <c r="A1072" t="n">
-        <v>0.912697434425354</v>
+        <v>0.9736642241477966</v>
       </c>
     </row>
     <row r="1073">
       <c r="A1073" t="n">
-        <v>0.5714679956436157</v>
+        <v>0.6163105964660645</v>
       </c>
     </row>
     <row r="1074">
       <c r="A1074" t="n">
-        <v>0.5670815706253052</v>
+        <v>0.5678674578666687</v>
       </c>
     </row>
     <row r="1075">
       <c r="A1075" t="n">
-        <v>0.542806088924408</v>
+        <v>0.6148068904876709</v>
       </c>
     </row>
     <row r="1076">
       <c r="A1076" t="n">
-        <v>0.07823720574378967</v>
+        <v>0.1736842691898346</v>
       </c>
     </row>
     <row r="1077">
       <c r="A1077" t="n">
-        <v>0.7687797546386719</v>
+        <v>0.8078615665435791</v>
       </c>
     </row>
     <row r="1078">
       <c r="A1078" t="n">
-        <v>-0.09406410157680511</v>
+        <v>0.01869189739227295</v>
       </c>
     </row>
     <row r="1079">
       <c r="A1079" t="n">
-        <v>0.3347055315971375</v>
+        <v>0.352115273475647</v>
       </c>
     </row>
     <row r="1080">
       <c r="A1080" t="n">
-        <v>0.8106300830841064</v>
+        <v>0.8245242238044739</v>
       </c>
     </row>
     <row r="1081">
       <c r="A1081" t="n">
-        <v>0.1106512919068336</v>
+        <v>0.1002643406391144</v>
       </c>
     </row>
     <row r="1082">
       <c r="A1082" t="n">
-        <v>0.5467225313186646</v>
+        <v>0.4521436989307404</v>
       </c>
     </row>
     <row r="1083">
       <c r="A1083" t="n">
-        <v>0.8184412717819214</v>
+        <v>0.7911204099655151</v>
       </c>
     </row>
     <row r="1084">
       <c r="A1084" t="n">
-        <v>0.1441780179738998</v>
+        <v>0.3717752397060394</v>
       </c>
     </row>
     <row r="1085">
       <c r="A1085" t="n">
-        <v>0.2009587287902832</v>
+        <v>0.1860800683498383</v>
       </c>
     </row>
     <row r="1086">
       <c r="A1086" t="n">
-        <v>-0.04130136966705322</v>
+        <v>0.1051134467124939</v>
       </c>
     </row>
     <row r="1087">
       <c r="A1087" t="n">
-        <v>0.8812078237533569</v>
+        <v>0.7907971739768982</v>
       </c>
     </row>
     <row r="1088">
       <c r="A1088" t="n">
-        <v>0.1614644676446915</v>
+        <v>0.306852787733078</v>
       </c>
     </row>
     <row r="1089">
       <c r="A1089" t="n">
-        <v>0.1858082115650177</v>
+        <v>0.2856434881687164</v>
       </c>
     </row>
     <row r="1090">
       <c r="A1090" t="n">
-        <v>0.68033367395401</v>
+        <v>0.6151543855667114</v>
       </c>
     </row>
     <row r="1091">
       <c r="A1091" t="n">
-        <v>0.4401686787605286</v>
+        <v>0.4340883493423462</v>
       </c>
     </row>
     <row r="1092">
       <c r="A1092" t="n">
-        <v>0.8122391104698181</v>
+        <v>0.918394923210144</v>
       </c>
     </row>
     <row r="1093">
       <c r="A1093" t="n">
-        <v>1.084780216217041</v>
+        <v>0.9834137558937073</v>
       </c>
     </row>
     <row r="1094">
       <c r="A1094" t="n">
-        <v>0.9838306307792664</v>
+        <v>0.8018585443496704</v>
       </c>
     </row>
     <row r="1095">
       <c r="A1095" t="n">
-        <v>0.6736199855804443</v>
+        <v>0.8185479640960693</v>
       </c>
     </row>
     <row r="1096">
       <c r="A1096" t="n">
-        <v>0.4769324064254761</v>
+        <v>0.5239632129669189</v>
       </c>
     </row>
     <row r="1097">
       <c r="A1097" t="n">
-        <v>0.2794452309608459</v>
+        <v>0.3228237628936768</v>
       </c>
     </row>
     <row r="1098">
       <c r="A1098" t="n">
-        <v>0.5669752955436707</v>
+        <v>0.5673286318778992</v>
       </c>
     </row>
     <row r="1099">
       <c r="A1099" t="n">
-        <v>0.7875356674194336</v>
+        <v>0.6330713033676147</v>
       </c>
     </row>
     <row r="1100">
       <c r="A1100" t="n">
-        <v>0.1044545844197273</v>
+        <v>0.1279425323009491</v>
       </c>
     </row>
     <row r="1101">
       <c r="A1101" t="n">
-        <v>0.7622612118721008</v>
+        <v>0.7602295279502869</v>
       </c>
     </row>
     <row r="1102">
       <c r="A1102" t="n">
-        <v>0.657819390296936</v>
+        <v>0.7720842361450195</v>
       </c>
     </row>
     <row r="1103">
       <c r="A1103" t="n">
-        <v>0.4024988412857056</v>
+        <v>0.5033762454986572</v>
       </c>
     </row>
     <row r="1104">
       <c r="A1104" t="n">
-        <v>0.4867991805076599</v>
+        <v>0.7620393037796021</v>
       </c>
     </row>
     <row r="1105">
       <c r="A1105" t="n">
-        <v>0.4158279895782471</v>
+        <v>0.3725752532482147</v>
       </c>
     </row>
     <row r="1106">
       <c r="A1106" t="n">
-        <v>-0.1160049587488174</v>
+        <v>-0.1662867069244385</v>
       </c>
     </row>
     <row r="1107">
       <c r="A1107" t="n">
-        <v>0.6530773043632507</v>
+        <v>0.8541077375411987</v>
       </c>
     </row>
     <row r="1108">
       <c r="A1108" t="n">
-        <v>0.3786476254463196</v>
+        <v>0.3632692992687225</v>
       </c>
     </row>
     <row r="1109">
       <c r="A1109" t="n">
-        <v>0.5888832807540894</v>
+        <v>0.5920576453208923</v>
       </c>
     </row>
     <row r="1110">
       <c r="A1110" t="n">
-        <v>0.6751905083656311</v>
+        <v>0.7748903036117554</v>
       </c>
     </row>
     <row r="1111">
       <c r="A1111" t="n">
-        <v>0.194389209151268</v>
+        <v>0.3695399761199951</v>
       </c>
     </row>
     <row r="1112">
       <c r="A1112" t="n">
-        <v>0.4464589953422546</v>
+        <v>0.5126898884773254</v>
       </c>
     </row>
     <row r="1113">
       <c r="A1113" t="n">
-        <v>0.1725844144821167</v>
+        <v>-0.09934891015291214</v>
       </c>
     </row>
     <row r="1114">
       <c r="A1114" t="n">
-        <v>0.9306776523590088</v>
+        <v>0.7664533853530884</v>
       </c>
     </row>
     <row r="1115">
       <c r="A1115" t="n">
-        <v>0.1138347312808037</v>
+        <v>0.1200548410415649</v>
       </c>
     </row>
     <row r="1116">
       <c r="A1116" t="n">
-        <v>0.4203560948371887</v>
+        <v>0.3869048953056335</v>
       </c>
     </row>
     <row r="1117">
       <c r="A1117" t="n">
-        <v>0.49844890832901</v>
+        <v>0.5002781748771667</v>
       </c>
     </row>
     <row r="1118">
       <c r="A1118" t="n">
-        <v>0.3608650267124176</v>
+        <v>0.7227873802185059</v>
       </c>
     </row>
     <row r="1119">
       <c r="A1119" t="n">
-        <v>0.4680049121379852</v>
+        <v>0.4319176971912384</v>
       </c>
     </row>
     <row r="1120">
       <c r="A1120" t="n">
-        <v>0.7633376717567444</v>
+        <v>0.9636735320091248</v>
       </c>
     </row>
     <row r="1121">
       <c r="A1121" t="n">
-        <v>0.4270834922790527</v>
+        <v>0.6368618011474609</v>
       </c>
     </row>
     <row r="1122">
       <c r="A1122" t="n">
-        <v>0.5649344921112061</v>
+        <v>0.5052626132965088</v>
       </c>
     </row>
     <row r="1123">
       <c r="A1123" t="n">
-        <v>1.135362863540649</v>
+        <v>1.209118723869324</v>
       </c>
     </row>
     <row r="1124">
       <c r="A1124" t="n">
-        <v>0.8887450695037842</v>
+        <v>1.12147319316864</v>
       </c>
     </row>
     <row r="1125">
       <c r="A1125" t="n">
-        <v>0.05411671102046967</v>
+        <v>-0.1436611413955688</v>
       </c>
     </row>
     <row r="1126">
       <c r="A1126" t="n">
-        <v>0.5917990803718567</v>
+        <v>0.7068036794662476</v>
       </c>
     </row>
     <row r="1127">
       <c r="A1127" t="n">
-        <v>0.6177901029586792</v>
+        <v>0.4099003970623016</v>
       </c>
     </row>
     <row r="1128">
       <c r="A1128" t="n">
-        <v>0.6314319968223572</v>
+        <v>0.5939962267875671</v>
       </c>
     </row>
     <row r="1129">
       <c r="A1129" t="n">
-        <v>0.06832157075405121</v>
+        <v>0.1142643392086029</v>
       </c>
     </row>
     <row r="1130">
       <c r="A1130" t="n">
-        <v>0.2587774395942688</v>
+        <v>0.1485734879970551</v>
       </c>
     </row>
     <row r="1131">
       <c r="A1131" t="n">
-        <v>-0.067539282143116</v>
+        <v>-0.06200152635574341</v>
       </c>
     </row>
     <row r="1132">
       <c r="A1132" t="n">
-        <v>-2.335427761077881</v>
+        <v>-2.243185997009277</v>
       </c>
     </row>
     <row r="1133">
       <c r="A1133" t="n">
-        <v>0.7553977966308594</v>
+        <v>0.760210394859314</v>
       </c>
     </row>
     <row r="1134">
       <c r="A1134" t="n">
-        <v>0.3910546898841858</v>
+        <v>0.4459982812404633</v>
       </c>
     </row>
     <row r="1135">
       <c r="A1135" t="n">
-        <v>0.3414183259010315</v>
+        <v>0.4649550318717957</v>
       </c>
     </row>
     <row r="1136">
       <c r="A1136" t="n">
-        <v>0.4728400111198425</v>
+        <v>0.3315994441509247</v>
       </c>
     </row>
     <row r="1137">
       <c r="A1137" t="n">
-        <v>0.4017140865325928</v>
+        <v>0.2787380516529083</v>
       </c>
     </row>
     <row r="1138">
       <c r="A1138" t="n">
-        <v>0.6842402219772339</v>
+        <v>0.373773455619812</v>
       </c>
     </row>
     <row r="1139">
       <c r="A1139" t="n">
-        <v>0.3839254975318909</v>
+        <v>0.5453751683235168</v>
       </c>
     </row>
     <row r="1140">
       <c r="A1140" t="n">
-        <v>0.2143945395946503</v>
+        <v>0.1432798206806183</v>
       </c>
     </row>
     <row r="1141">
       <c r="A1141" t="n">
-        <v>0.3638750314712524</v>
+        <v>0.3876644372940063</v>
       </c>
     </row>
     <row r="1142">
       <c r="A1142" t="n">
-        <v>0.4611102342605591</v>
+        <v>0.3519734442234039</v>
       </c>
     </row>
     <row r="1143">
       <c r="A1143" t="n">
-        <v>0.7400543689727783</v>
+        <v>0.5885167717933655</v>
       </c>
     </row>
     <row r="1144">
       <c r="A1144" t="n">
-        <v>0.9492994546890259</v>
+        <v>0.7789714932441711</v>
       </c>
     </row>
     <row r="1145">
       <c r="A1145" t="n">
-        <v>0.638984739780426</v>
+        <v>0.6574469208717346</v>
       </c>
     </row>
     <row r="1146">
       <c r="A1146" t="n">
-        <v>0.5157523155212402</v>
+        <v>0.3290861546993256</v>
       </c>
     </row>
     <row r="1147">
       <c r="A1147" t="n">
-        <v>0.5408124923706055</v>
+        <v>0.7103115320205688</v>
       </c>
     </row>
     <row r="1148">
       <c r="A1148" t="n">
-        <v>-0.127883568406105</v>
+        <v>0.08193802833557129</v>
       </c>
     </row>
     <row r="1149">
       <c r="A1149" t="n">
-        <v>0.4272661805152893</v>
+        <v>0.4725734889507294</v>
       </c>
     </row>
     <row r="1150">
       <c r="A1150" t="n">
-        <v>0.04415592551231384</v>
+        <v>0.08219385147094727</v>
       </c>
     </row>
     <row r="1151">
       <c r="A1151" t="n">
-        <v>0.6117455959320068</v>
+        <v>0.4939955770969391</v>
       </c>
     </row>
     <row r="1152">
       <c r="A1152" t="n">
-        <v>0.4536067843437195</v>
+        <v>0.554638683795929</v>
       </c>
     </row>
     <row r="1153">
       <c r="A1153" t="n">
-        <v>0.5735322237014771</v>
+        <v>0.6662907004356384</v>
       </c>
     </row>
     <row r="1154">
       <c r="A1154" t="n">
-        <v>0.689400315284729</v>
+        <v>0.5828303098678589</v>
       </c>
     </row>
     <row r="1155">
       <c r="A1155" t="n">
-        <v>0.3945453763008118</v>
+        <v>0.470265656709671</v>
       </c>
     </row>
     <row r="1156">
       <c r="A1156" t="n">
-        <v>0.7382744550704956</v>
+        <v>0.8094308376312256</v>
       </c>
     </row>
     <row r="1157">
       <c r="A1157" t="n">
-        <v>0.09264686703681946</v>
+        <v>0.4254911541938782</v>
       </c>
     </row>
     <row r="1158">
       <c r="A1158" t="n">
-        <v>0.8118603825569153</v>
+        <v>0.6955299377441406</v>
       </c>
     </row>
     <row r="1159">
       <c r="A1159" t="n">
-        <v>0.07680726796388626</v>
+        <v>0.1503243744373322</v>
       </c>
     </row>
     <row r="1160">
       <c r="A1160" t="n">
-        <v>0.4523262977600098</v>
+        <v>0.5018594264984131</v>
       </c>
     </row>
     <row r="1161">
       <c r="A1161" t="n">
-        <v>0.02149416506290436</v>
+        <v>0.1631956100463867</v>
       </c>
     </row>
     <row r="1162">
       <c r="A1162" t="n">
-        <v>0.421407550573349</v>
+        <v>0.4062002301216125</v>
       </c>
     </row>
     <row r="1163">
       <c r="A1163" t="n">
-        <v>0.2345264256000519</v>
+        <v>0.3187421858310699</v>
       </c>
     </row>
     <row r="1164">
       <c r="A1164" t="n">
-        <v>0.1224301606416702</v>
+        <v>0.1399760246276855</v>
       </c>
     </row>
     <row r="1165">
       <c r="A1165" t="n">
-        <v>0.1716554462909698</v>
+        <v>0.1556190848350525</v>
       </c>
     </row>
     <row r="1166">
       <c r="A1166" t="n">
-        <v>1.013870239257812</v>
+        <v>1.033497214317322</v>
       </c>
     </row>
     <row r="1167">
       <c r="A1167" t="n">
-        <v>0.875554084777832</v>
+        <v>0.6054102182388306</v>
       </c>
     </row>
     <row r="1168">
       <c r="A1168" t="n">
-        <v>0.5070780515670776</v>
+        <v>0.5691260695457458</v>
       </c>
     </row>
     <row r="1169">
       <c r="A1169" t="n">
-        <v>0.4998122453689575</v>
+        <v>0.8445675373077393</v>
       </c>
     </row>
     <row r="1170">
       <c r="A1170" t="n">
-        <v>0.1145380288362503</v>
+        <v>0.07077682018280029</v>
       </c>
     </row>
     <row r="1171">
       <c r="A1171" t="n">
-        <v>0.1576925218105316</v>
+        <v>-0.02316132187843323</v>
       </c>
     </row>
     <row r="1172">
       <c r="A1172" t="n">
-        <v>0.4581730961799622</v>
+        <v>0.6594102382659912</v>
       </c>
     </row>
     <row r="1173">
       <c r="A1173" t="n">
-        <v>0.6620139479637146</v>
+        <v>0.7763619422912598</v>
       </c>
     </row>
     <row r="1174">
       <c r="A1174" t="n">
-        <v>0.388115406036377</v>
+        <v>0.3339082300662994</v>
       </c>
     </row>
     <row r="1175">
       <c r="A1175" t="n">
-        <v>0.3276727199554443</v>
+        <v>0.5131349563598633</v>
       </c>
     </row>
     <row r="1176">
       <c r="A1176" t="n">
-        <v>0.345778226852417</v>
+        <v>0.328482985496521</v>
       </c>
     </row>
     <row r="1177">
       <c r="A1177" t="n">
-        <v>0.6378827095031738</v>
+        <v>0.5606662034988403</v>
       </c>
     </row>
     <row r="1178">
       <c r="A1178" t="n">
-        <v>0.475941002368927</v>
+        <v>0.6030677556991577</v>
       </c>
     </row>
     <row r="1179">
       <c r="A1179" t="n">
-        <v>-0.04328738898038864</v>
+        <v>-0.1086219698190689</v>
       </c>
     </row>
     <row r="1180">
       <c r="A1180" t="n">
-        <v>0.0912291407585144</v>
+        <v>0.3617262542247772</v>
       </c>
     </row>
     <row r="1181">
       <c r="A1181" t="n">
-        <v>0.4332277476787567</v>
+        <v>0.4746076166629791</v>
       </c>
     </row>
     <row r="1182">
       <c r="A1182" t="n">
-        <v>1.163600444793701</v>
+        <v>1.03264856338501</v>
       </c>
     </row>
     <row r="1183">
       <c r="A1183" t="n">
-        <v>0.2372194826602936</v>
+        <v>0.1751665472984314</v>
       </c>
     </row>
     <row r="1184">
       <c r="A1184" t="n">
-        <v>0.6373769044876099</v>
+        <v>0.4384114742279053</v>
       </c>
     </row>
     <row r="1185">
       <c r="A1185" t="n">
-        <v>-0.0858161449432373</v>
+        <v>-0.06517678499221802</v>
       </c>
     </row>
     <row r="1186">
       <c r="A1186" t="n">
-        <v>0.6762847900390625</v>
+        <v>0.6527395844459534</v>
       </c>
     </row>
     <row r="1187">
       <c r="A1187" t="n">
-        <v>0.3996339440345764</v>
+        <v>0.3468577265739441</v>
       </c>
     </row>
     <row r="1188">
       <c r="A1188" t="n">
-        <v>0.5150529146194458</v>
+        <v>0.5163677334785461</v>
       </c>
     </row>
     <row r="1189">
       <c r="A1189" t="n">
-        <v>0.3095778524875641</v>
+        <v>0.4644019901752472</v>
       </c>
     </row>
     <row r="1190">
       <c r="A1190" t="n">
-        <v>0.2962647080421448</v>
+        <v>0.3813071250915527</v>
       </c>
     </row>
     <row r="1191">
       <c r="A1191" t="n">
-        <v>0.3464279174804688</v>
+        <v>0.3713817298412323</v>
       </c>
     </row>
     <row r="1192">
       <c r="A1192" t="n">
-        <v>-0.06022346019744873</v>
+        <v>0.01508897542953491</v>
       </c>
     </row>
     <row r="1193">
       <c r="A1193" t="n">
-        <v>0.8414547443389893</v>
+        <v>0.9892445802688599</v>
       </c>
     </row>
     <row r="1194">
       <c r="A1194" t="n">
-        <v>0.4232286214828491</v>
+        <v>0.5445853471755981</v>
       </c>
     </row>
     <row r="1195">
       <c r="A1195" t="n">
-        <v>0.0544879212975502</v>
+        <v>0.3435130715370178</v>
       </c>
     </row>
     <row r="1196">
       <c r="A1196" t="n">
-        <v>0.6229575872421265</v>
+        <v>0.7606044411659241</v>
       </c>
     </row>
     <row r="1197">
       <c r="A1197" t="n">
-        <v>0.963044285774231</v>
+        <v>0.9652705192565918</v>
       </c>
     </row>
     <row r="1198">
       <c r="A1198" t="n">
-        <v>0.3399259448051453</v>
+        <v>0.7069403529167175</v>
       </c>
     </row>
     <row r="1199">
       <c r="A1199" t="n">
-        <v>-0.09841280430555344</v>
+        <v>0.4002366960048676</v>
       </c>
     </row>
     <row r="1200">
       <c r="A1200" t="n">
-        <v>0.3432187438011169</v>
+        <v>0.1361411213874817</v>
       </c>
     </row>
     <row r="1201">
       <c r="A1201" t="n">
-        <v>0.5253363251686096</v>
+        <v>0.322257936000824</v>
       </c>
     </row>
     <row r="1202">
       <c r="A1202" t="n">
-        <v>0.7763131260871887</v>
+        <v>0.8380025625228882</v>
       </c>
     </row>
     <row r="1203">
       <c r="A1203" t="n">
-        <v>0.1852127015590668</v>
+        <v>0.158577173948288</v>
       </c>
     </row>
     <row r="1204">
       <c r="A1204" t="n">
-        <v>0.2003743648529053</v>
+        <v>0.02437783777713776</v>
       </c>
     </row>
     <row r="1205">
       <c r="A1205" t="n">
-        <v>0.3824185132980347</v>
+        <v>0.2600730061531067</v>
       </c>
     </row>
     <row r="1206">
       <c r="A1206" t="n">
-        <v>0.4728374481201172</v>
+        <v>0.507493257522583</v>
       </c>
     </row>
     <row r="1207">
       <c r="A1207" t="n">
-        <v>0.1316578686237335</v>
+        <v>-0.2143117487430573</v>
       </c>
     </row>
     <row r="1208">
       <c r="A1208" t="n">
-        <v>0.41365647315979</v>
+        <v>0.493843287229538</v>
       </c>
     </row>
     <row r="1209">
       <c r="A1209" t="n">
-        <v>0.7632400989532471</v>
+        <v>0.762215793132782</v>
       </c>
     </row>
     <row r="1210">
       <c r="A1210" t="n">
-        <v>0.663501501083374</v>
+        <v>0.6095731258392334</v>
       </c>
     </row>
     <row r="1211">
       <c r="A1211" t="n">
-        <v>1.01447582244873</v>
+        <v>0.9366300106048584</v>
       </c>
     </row>
     <row r="1212">
       <c r="A1212" t="n">
-        <v>0.3639234900474548</v>
+        <v>0.3134715557098389</v>
       </c>
     </row>
     <row r="1213">
       <c r="A1213" t="n">
-        <v>0.4469165802001953</v>
+        <v>0.5249302387237549</v>
       </c>
     </row>
     <row r="1214">
       <c r="A1214" t="n">
-        <v>0.4053881168365479</v>
+        <v>0.3307132720947266</v>
       </c>
     </row>
     <row r="1215">
       <c r="A1215" t="n">
-        <v>0.5305341482162476</v>
+        <v>0.4494536817073822</v>
       </c>
     </row>
     <row r="1216">
       <c r="A1216" t="n">
-        <v>0.2582496404647827</v>
+        <v>0.393797755241394</v>
       </c>
     </row>
     <row r="1217">
       <c r="A1217" t="n">
-        <v>0.7285834550857544</v>
+        <v>0.5832991600036621</v>
       </c>
     </row>
     <row r="1218">
       <c r="A1218" t="n">
-        <v>0.5081059336662292</v>
+        <v>0.8743777275085449</v>
       </c>
     </row>
     <row r="1219">
       <c r="A1219" t="n">
-        <v>0.9458673000335693</v>
+        <v>0.5739049911499023</v>
       </c>
     </row>
     <row r="1220">
       <c r="A1220" t="n">
-        <v>0.3031145930290222</v>
+        <v>0.427239865064621</v>
       </c>
     </row>
     <row r="1221">
       <c r="A1221" t="n">
-        <v>0.3238602876663208</v>
+        <v>0.2499611377716064</v>
       </c>
     </row>
     <row r="1222">
       <c r="A1222" t="n">
-        <v>0.8400523662567139</v>
+        <v>0.8944625854492188</v>
       </c>
     </row>
     <row r="1223">
       <c r="A1223" t="n">
-        <v>0.2893872559070587</v>
+        <v>0.2946958541870117</v>
       </c>
     </row>
     <row r="1224">
       <c r="A1224" t="n">
-        <v>0.07050018012523651</v>
+        <v>0.1663287281990051</v>
       </c>
     </row>
     <row r="1225">
       <c r="A1225" t="n">
-        <v>0.5055879950523376</v>
+        <v>0.5876333713531494</v>
       </c>
     </row>
     <row r="1226">
       <c r="A1226" t="n">
-        <v>0.3229289650917053</v>
+        <v>0.2124674171209335</v>
       </c>
     </row>
     <row r="1227">
       <c r="A1227" t="n">
-        <v>0.1549524515867233</v>
+        <v>0.04732749611139297</v>
       </c>
     </row>
     <row r="1228">
       <c r="A1228" t="n">
-        <v>0.2329392433166504</v>
+        <v>0.3227287828922272</v>
       </c>
     </row>
     <row r="1229">
       <c r="A1229" t="n">
-        <v>0.07033367455005646</v>
+        <v>0.2337998747825623</v>
       </c>
     </row>
     <row r="1230">
       <c r="A1230" t="n">
-        <v>0.761077344417572</v>
+        <v>0.5704770088195801</v>
       </c>
     </row>
     <row r="1231">
       <c r="A1231" t="n">
-        <v>0.2610138058662415</v>
+        <v>0.197312980890274</v>
       </c>
     </row>
     <row r="1232">
       <c r="A1232" t="n">
-        <v>0.2623888254165649</v>
+        <v>0.02535039186477661</v>
       </c>
     </row>
     <row r="1233">
       <c r="A1233" t="n">
-        <v>0.6676962971687317</v>
+        <v>0.4570675790309906</v>
       </c>
     </row>
     <row r="1234">
       <c r="A1234" t="n">
-        <v>0.3989837765693665</v>
+        <v>0.4506085813045502</v>
       </c>
     </row>
     <row r="1235">
       <c r="A1235" t="n">
-        <v>0.9536927342414856</v>
+        <v>0.8527562618255615</v>
       </c>
     </row>
     <row r="1236">
       <c r="A1236" t="n">
-        <v>0.3439344763755798</v>
+        <v>0.4344712793827057</v>
       </c>
     </row>
     <row r="1237">
       <c r="A1237" t="n">
-        <v>0.01668952405452728</v>
+        <v>-0.02190142124891281</v>
       </c>
     </row>
     <row r="1238">
       <c r="A1238" t="n">
-        <v>-0.1685005873441696</v>
+        <v>0.1655133664608002</v>
       </c>
     </row>
     <row r="1239">
       <c r="A1239" t="n">
-        <v>0.2975667417049408</v>
+        <v>0.3072218894958496</v>
       </c>
     </row>
     <row r="1240">
       <c r="A1240" t="n">
-        <v>0.709551990032196</v>
+        <v>0.7555323839187622</v>
       </c>
     </row>
     <row r="1241">
       <c r="A1241" t="n">
-        <v>0.1670892536640167</v>
+        <v>0.1291949450969696</v>
       </c>
     </row>
     <row r="1242">
       <c r="A1242" t="n">
-        <v>0.2971479296684265</v>
+        <v>0.540335476398468</v>
       </c>
     </row>
     <row r="1243">
       <c r="A1243" t="n">
-        <v>0.1853705048561096</v>
+        <v>0.1418118178844452</v>
       </c>
     </row>
     <row r="1244">
       <c r="A1244" t="n">
-        <v>0.1983291208744049</v>
+        <v>-0.01942014694213867</v>
       </c>
     </row>
     <row r="1245">
       <c r="A1245" t="n">
-        <v>0.5026997923851013</v>
+        <v>0.4873130619525909</v>
       </c>
     </row>
     <row r="1246">
       <c r="A1246" t="n">
-        <v>0.9587383270263672</v>
+        <v>1.085650682449341</v>
       </c>
     </row>
     <row r="1247">
       <c r="A1247" t="n">
-        <v>0.03381621837615967</v>
+        <v>-0.08029234409332275</v>
       </c>
     </row>
     <row r="1248">
       <c r="A1248" t="n">
-        <v>0.4354300200939178</v>
+        <v>0.5667387843132019</v>
       </c>
     </row>
     <row r="1249">
       <c r="A1249" t="n">
-        <v>0.9959139227867126</v>
+        <v>0.6905573010444641</v>
       </c>
     </row>
     <row r="1250">
       <c r="A1250" t="n">
-        <v>0.4837068617343903</v>
+        <v>0.381533145904541</v>
       </c>
     </row>
     <row r="1251">
       <c r="A1251" t="n">
-        <v>0.7777026891708374</v>
+        <v>0.8081514835357666</v>
       </c>
     </row>
     <row r="1252">
       <c r="A1252" t="n">
-        <v>0.5748195052146912</v>
+        <v>0.5756688714027405</v>
       </c>
     </row>
     <row r="1253">
       <c r="A1253" t="n">
-        <v>0.316100150346756</v>
+        <v>0.3658222556114197</v>
       </c>
     </row>
     <row r="1254">
       <c r="A1254" t="n">
-        <v>0.5358375906944275</v>
+        <v>0.8284690380096436</v>
       </c>
     </row>
     <row r="1255">
       <c r="A1255" t="n">
-        <v>0.7914230227470398</v>
+        <v>0.5054365396499634</v>
       </c>
     </row>
     <row r="1256">
       <c r="A1256" t="n">
-        <v>0.9423682689666748</v>
+        <v>0.8190309405326843</v>
       </c>
     </row>
     <row r="1257">
       <c r="A1257" t="n">
-        <v>0.30362668633461</v>
+        <v>0.2349808514118195</v>
       </c>
     </row>
     <row r="1258">
       <c r="A1258" t="n">
-        <v>0.6082062125205994</v>
+        <v>0.5784392356872559</v>
       </c>
     </row>
     <row r="1259">
       <c r="A1259" t="n">
-        <v>0.9764581918716431</v>
+        <v>0.8690274357795715</v>
       </c>
     </row>
     <row r="1260">
       <c r="A1260" t="n">
-        <v>0.741774320602417</v>
+        <v>0.632192075252533</v>
       </c>
     </row>
     <row r="1261">
       <c r="A1261" t="n">
-        <v>0.777534008026123</v>
+        <v>0.1572260409593582</v>
       </c>
     </row>
     <row r="1262">
       <c r="A1262" t="n">
-        <v>1.33648681640625</v>
+        <v>0.744761049747467</v>
       </c>
     </row>
     <row r="1263">
       <c r="A1263" t="n">
-        <v>0.4128170609474182</v>
+        <v>0.4252126216888428</v>
       </c>
     </row>
     <row r="1264">
       <c r="A1264" t="n">
-        <v>0.6111546754837036</v>
+        <v>0.7136582136154175</v>
       </c>
     </row>
     <row r="1265">
       <c r="A1265" t="n">
-        <v>1.212409734725952</v>
+        <v>1.06641411781311</v>
       </c>
     </row>
     <row r="1266">
       <c r="A1266" t="n">
-        <v>0.4558278620243073</v>
+        <v>0.744856595993042</v>
       </c>
     </row>
     <row r="1267">
       <c r="A1267" t="n">
-        <v>-0.06968730688095093</v>
+        <v>0.260225236415863</v>
       </c>
     </row>
     <row r="1268">
       <c r="A1268" t="n">
-        <v>1.163731932640076</v>
+        <v>0.8486479520797729</v>
       </c>
     </row>
     <row r="1269">
       <c r="A1269" t="n">
-        <v>0.467960000038147</v>
+        <v>0.6258053779602051</v>
       </c>
     </row>
     <row r="1270">
       <c r="A1270" t="n">
-        <v>0.182747557759285</v>
+        <v>0.1214278936386108</v>
       </c>
     </row>
     <row r="1271">
       <c r="A1271" t="n">
-        <v>0.139156699180603</v>
+        <v>0.1656556725502014</v>
       </c>
     </row>
     <row r="1272">
       <c r="A1272" t="n">
-        <v>0.5310288071632385</v>
+        <v>0.4612562954425812</v>
       </c>
     </row>
     <row r="1273">
       <c r="A1273" t="n">
-        <v>0.333979606628418</v>
+        <v>0.1825382709503174</v>
       </c>
     </row>
     <row r="1274">
       <c r="A1274" t="n">
-        <v>0.02283618599176407</v>
+        <v>0.1767889261245728</v>
       </c>
     </row>
     <row r="1275">
       <c r="A1275" t="n">
-        <v>0.2089651823043823</v>
+        <v>0.493173748254776</v>
       </c>
     </row>
     <row r="1276">
       <c r="A1276" t="n">
-        <v>0.2235013991594315</v>
+        <v>0.2767335772514343</v>
       </c>
     </row>
     <row r="1277">
       <c r="A1277" t="n">
-        <v>0.2971239387989044</v>
+        <v>0.2666100263595581</v>
       </c>
     </row>
     <row r="1278">
       <c r="A1278" t="n">
-        <v>0.4760062694549561</v>
+        <v>0.4215407073497772</v>
       </c>
     </row>
     <row r="1279">
       <c r="A1279" t="n">
-        <v>0.9119763970375061</v>
+        <v>0.8935419321060181</v>
       </c>
     </row>
     <row r="1280">
       <c r="A1280" t="n">
-        <v>0.3637406826019287</v>
+        <v>0.2409869730472565</v>
       </c>
     </row>
     <row r="1281">
       <c r="A1281" t="n">
-        <v>0.2406746298074722</v>
+        <v>0.2161157429218292</v>
       </c>
     </row>
     <row r="1282">
       <c r="A1282" t="n">
-        <v>0.1560779213905334</v>
+        <v>0.2396229803562164</v>
       </c>
     </row>
     <row r="1283">
       <c r="A1283" t="n">
-        <v>0.2770686745643616</v>
+        <v>0.497287929058075</v>
       </c>
     </row>
     <row r="1284">
       <c r="A1284" t="n">
-        <v>0.2738853693008423</v>
+        <v>0.1949174404144287</v>
       </c>
     </row>
     <row r="1285">
       <c r="A1285" t="n">
-        <v>0.8468238115310669</v>
+        <v>0.9361426830291748</v>
       </c>
     </row>
     <row r="1286">
       <c r="A1286" t="n">
-        <v>0.3943244814872742</v>
+        <v>0.4120693802833557</v>
       </c>
     </row>
     <row r="1287">
       <c r="A1287" t="n">
-        <v>0.7578006386756897</v>
+        <v>0.6812920570373535</v>
       </c>
     </row>
     <row r="1288">
       <c r="A1288" t="n">
-        <v>0.8170371651649475</v>
+        <v>0.8396203517913818</v>
       </c>
     </row>
     <row r="1289">
       <c r="A1289" t="n">
-        <v>0.2133744657039642</v>
+        <v>0.2401027232408524</v>
       </c>
     </row>
     <row r="1290">
       <c r="A1290" t="n">
-        <v>0.4136564135551453</v>
+        <v>0.493843287229538</v>
       </c>
     </row>
     <row r="1291">
       <c r="A1291" t="n">
-        <v>0.5554792881011963</v>
+        <v>0.5549732446670532</v>
       </c>
     </row>
     <row r="1292">
       <c r="A1292" t="n">
-        <v>0.02876926213502884</v>
+        <v>-0.008841454982757568</v>
       </c>
     </row>
     <row r="1293">
       <c r="A1293" t="n">
-        <v>0.2570159137248993</v>
+        <v>0.2371270954608917</v>
       </c>
     </row>
     <row r="1294">
       <c r="A1294" t="n">
-        <v>0.9644602537155151</v>
+        <v>0.4093672633171082</v>
       </c>
     </row>
   </sheetData>
